--- a/Data/번역요청문서.xlsx
+++ b/Data/번역요청문서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-90\Desktop\깃깃\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-147\Desktop\기획 업무 폴더\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC5D97B-2BB8-4F44-AA24-94BCDD07A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B1953B-D9B7-40E2-8DC3-C79466BA3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="895">
   <si>
     <t>수정 날짜</t>
   </si>
@@ -2618,6 +2618,174 @@
   </si>
   <si>
     <t>밤의 신이 그려진 석판</t>
+  </si>
+  <si>
+    <t>랭킹 코인</t>
+  </si>
+  <si>
+    <t>랭킹 이벤트에서 순위 보상으로 획득할 수 있어요.</t>
+  </si>
+  <si>
+    <t>랭킹 이벤트</t>
+  </si>
+  <si>
+    <t>{0}일 {1}시간 남음</t>
+  </si>
+  <si>
+    <t>{0}시간 남음</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>이벤트가 종료 되었습니다.</t>
+  </si>
+  <si>
+    <t>받기</t>
+  </si>
+  <si>
+    <t>모두 받기</t>
+  </si>
+  <si>
+    <t>내 순위</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt;위</t>
+  </si>
+  <si>
+    <t>전체 랭킹 보기</t>
+  </si>
+  <si>
+    <t>상점</t>
+  </si>
+  <si>
+    <t>이벤트 소원</t>
+  </si>
+  <si>
+    <t>랭킹 포인트 :</t>
+  </si>
+  <si>
+    <t>건네주기</t>
+  </si>
+  <si>
+    <t>즉시 완료</t>
+  </si>
+  <si>
+    <t>새로운 소원 도착까지…</t>
+  </si>
+  <si>
+    <t>소원을 즉시 완료 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>오늘 하루 보지 않기</t>
+  </si>
+  <si>
+    <t>순위</t>
+  </si>
+  <si>
+    <t>보상</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>보상 없음</t>
+  </si>
+  <si>
+    <t>구매하시겠습니까?</t>
+  </si>
+  <si>
+    <t>구매가 완료되었습니다.</t>
+  </si>
+  <si>
+    <t>랭킹 코인이 부족합니다.</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>수령 완료</t>
+  </si>
+  <si>
+    <t>보유 중</t>
+  </si>
+  <si>
+    <t>{0}위 이상</t>
+  </si>
+  <si>
+    <t>ContentsText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유남호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹 이벤트 보상</t>
+  </si>
+  <si>
+    <t>(영어)랭킹 이벤트 보상</t>
+  </si>
+  <si>
+    <t>(일어)랭킹 이벤트 보상</t>
+  </si>
+  <si>
+    <t>(간체)랭킹 이벤트 보상</t>
+  </si>
+  <si>
+    <t>(번체)랭킹 이벤트 보상</t>
+  </si>
+  <si>
+    <t>랭킹 이벤트 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>(영어)랭킹 이벤트 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>(일어)랭킹 이벤트 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>(간체)랭킹 이벤트 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>(번체)랭킹 이벤트 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>랭킹 이벤트 순위 보상</t>
+  </si>
+  <si>
+    <t>(영어)랭킹 이벤트 순위 보상</t>
+  </si>
+  <si>
+    <t>(일어)랭킹 이벤트 순위 보상</t>
+  </si>
+  <si>
+    <t>(간체)랭킹 이벤트 순위 보상</t>
+  </si>
+  <si>
+    <t>(번체)랭킹 이벤트 순위 보상</t>
+  </si>
+  <si>
+    <t>랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>(영어)랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>(일어)랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>(간체)랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>(번체)랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
+  </si>
+  <si>
+    <t>ServerText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2754,7 +2922,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2815,75 +2983,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 15" xfId="1" xr:uid="{1CF3E7B2-D50C-4D24-9578-278AA691E9E2}"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3213,11 +3321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5DFF8C-22E4-46D3-AC83-8F4E4E954A6C}">
-  <dimension ref="B1:S624"/>
+  <dimension ref="B1:S679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
+      <pane ySplit="3" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G579" sqref="G579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24634,6 +24742,941 @@
       <c r="L624" s="5"/>
       <c r="M624" s="5"/>
     </row>
+    <row r="625" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B625" s="11">
+        <v>45730</v>
+      </c>
+      <c r="C625" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D625" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E625" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F625" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="626" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B626" s="11">
+        <v>45731</v>
+      </c>
+      <c r="C626" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D626" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E626" s="7">
+        <v>45034</v>
+      </c>
+      <c r="F626" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="627" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B627" s="11">
+        <v>45732</v>
+      </c>
+      <c r="C627" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D627" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E627" s="7">
+        <v>45035</v>
+      </c>
+      <c r="F627" s="17" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="628" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B628" s="11">
+        <v>45733</v>
+      </c>
+      <c r="C628" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D628" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E628" s="7">
+        <v>480000</v>
+      </c>
+      <c r="F628" s="17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="629" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B629" s="11">
+        <v>45734</v>
+      </c>
+      <c r="C629" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D629" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E629" s="7">
+        <v>480001</v>
+      </c>
+      <c r="F629" s="17" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="630" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B630" s="11">
+        <v>45735</v>
+      </c>
+      <c r="C630" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D630" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E630" s="7">
+        <v>480002</v>
+      </c>
+      <c r="F630" s="17" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="631" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B631" s="11">
+        <v>45736</v>
+      </c>
+      <c r="C631" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D631" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E631" s="7">
+        <v>480003</v>
+      </c>
+      <c r="F631" s="17" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="632" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B632" s="11">
+        <v>45737</v>
+      </c>
+      <c r="C632" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D632" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E632" s="7">
+        <v>480004</v>
+      </c>
+      <c r="F632" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="633" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B633" s="11">
+        <v>45738</v>
+      </c>
+      <c r="C633" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D633" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E633" s="7">
+        <v>480005</v>
+      </c>
+      <c r="F633" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="634" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B634" s="11">
+        <v>45739</v>
+      </c>
+      <c r="C634" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D634" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E634" s="7">
+        <v>480006</v>
+      </c>
+      <c r="F634" s="17" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="635" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B635" s="11">
+        <v>45740</v>
+      </c>
+      <c r="C635" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D635" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E635" s="7">
+        <v>480007</v>
+      </c>
+      <c r="F635" s="17" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="636" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B636" s="11">
+        <v>45741</v>
+      </c>
+      <c r="C636" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D636" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E636" s="7">
+        <v>480008</v>
+      </c>
+      <c r="F636" s="17" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="637" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B637" s="11">
+        <v>45742</v>
+      </c>
+      <c r="C637" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D637" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E637" s="7">
+        <v>480009</v>
+      </c>
+      <c r="F637" s="17" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="638" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B638" s="11">
+        <v>45743</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D638" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E638" s="7">
+        <v>480010</v>
+      </c>
+      <c r="F638" s="17" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="639" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B639" s="11">
+        <v>45744</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D639" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E639" s="7">
+        <v>480011</v>
+      </c>
+      <c r="F639" s="17" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="640" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B640" s="11">
+        <v>45745</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D640" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E640" s="7">
+        <v>480012</v>
+      </c>
+      <c r="F640" s="17" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="641" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B641" s="11">
+        <v>45746</v>
+      </c>
+      <c r="C641" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D641" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E641" s="7">
+        <v>480013</v>
+      </c>
+      <c r="F641" s="17" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="642" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B642" s="11">
+        <v>45747</v>
+      </c>
+      <c r="C642" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D642" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E642" s="7">
+        <v>480014</v>
+      </c>
+      <c r="F642" s="17" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="643" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B643" s="11">
+        <v>45748</v>
+      </c>
+      <c r="C643" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D643" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E643" s="7">
+        <v>480015</v>
+      </c>
+      <c r="F643" s="17" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="644" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B644" s="11">
+        <v>45749</v>
+      </c>
+      <c r="C644" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D644" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E644" s="7">
+        <v>480016</v>
+      </c>
+      <c r="F644" s="17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="645" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B645" s="11">
+        <v>45750</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D645" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E645" s="7">
+        <v>480017</v>
+      </c>
+      <c r="F645" s="17" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="646" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B646" s="11">
+        <v>45751</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D646" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E646" s="7">
+        <v>480018</v>
+      </c>
+      <c r="F646" s="17" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="647" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B647" s="11">
+        <v>45752</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D647" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E647" s="7">
+        <v>480019</v>
+      </c>
+      <c r="F647" s="17" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="648" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B648" s="11">
+        <v>45753</v>
+      </c>
+      <c r="C648" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D648" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E648" s="7">
+        <v>480020</v>
+      </c>
+      <c r="F648" s="17" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="649" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B649" s="11">
+        <v>45754</v>
+      </c>
+      <c r="C649" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D649" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E649" s="7">
+        <v>480021</v>
+      </c>
+      <c r="F649" s="17" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="650" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B650" s="11">
+        <v>45755</v>
+      </c>
+      <c r="C650" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D650" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E650" s="7">
+        <v>480022</v>
+      </c>
+      <c r="F650" s="17" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="651" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B651" s="11">
+        <v>45756</v>
+      </c>
+      <c r="C651" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D651" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E651" s="7">
+        <v>480023</v>
+      </c>
+      <c r="F651" s="17" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="652" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B652" s="11">
+        <v>45757</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D652" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E652" s="7">
+        <v>480024</v>
+      </c>
+      <c r="F652" s="17" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="653" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B653" s="11">
+        <v>45758</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D653" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E653" s="7">
+        <v>480025</v>
+      </c>
+      <c r="F653" s="17" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="654" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B654" s="11">
+        <v>45759</v>
+      </c>
+      <c r="C654" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D654" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E654" s="7">
+        <v>480026</v>
+      </c>
+      <c r="F654" s="17" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="655" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B655" s="11">
+        <v>45760</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D655" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E655" s="7">
+        <v>480027</v>
+      </c>
+      <c r="F655" s="17" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="656" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B656" s="11">
+        <v>45761</v>
+      </c>
+      <c r="C656" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D656" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E656" s="7">
+        <v>480028</v>
+      </c>
+      <c r="F656" s="17" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="657" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B657" s="11">
+        <v>45762</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D657" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E657" s="7">
+        <v>480029</v>
+      </c>
+      <c r="F657" s="17" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="658" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B658" s="11">
+        <v>45763</v>
+      </c>
+      <c r="C658" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D658" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E658" s="7">
+        <v>480030</v>
+      </c>
+      <c r="F658" s="17" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="659" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B659" s="11">
+        <v>45764</v>
+      </c>
+      <c r="C659" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D659" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E659" s="7">
+        <v>480031</v>
+      </c>
+      <c r="F659" s="17" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="660" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B660" s="11">
+        <v>45765</v>
+      </c>
+      <c r="C660" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D660" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E660" s="7">
+        <v>13600</v>
+      </c>
+      <c r="F660" s="17" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="661" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B661" s="11">
+        <v>45766</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D661" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E661" s="7">
+        <v>13601</v>
+      </c>
+      <c r="F661" s="17" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="662" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B662" s="11">
+        <v>45767</v>
+      </c>
+      <c r="C662" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D662" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E662" s="7">
+        <v>13602</v>
+      </c>
+      <c r="F662" s="17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="663" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B663" s="11">
+        <v>45768</v>
+      </c>
+      <c r="C663" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D663" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E663" s="7">
+        <v>13603</v>
+      </c>
+      <c r="F663" s="17" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="664" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B664" s="11">
+        <v>45769</v>
+      </c>
+      <c r="C664" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D664" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E664" s="7">
+        <v>13604</v>
+      </c>
+      <c r="F664" s="17" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="665" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B665" s="11">
+        <v>45770</v>
+      </c>
+      <c r="C665" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D665" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E665" s="7">
+        <v>13700</v>
+      </c>
+      <c r="F665" s="17" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="666" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B666" s="11">
+        <v>45771</v>
+      </c>
+      <c r="C666" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D666" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E666" s="7">
+        <v>13701</v>
+      </c>
+      <c r="F666" s="17" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="667" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B667" s="11">
+        <v>45772</v>
+      </c>
+      <c r="C667" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D667" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E667" s="7">
+        <v>13702</v>
+      </c>
+      <c r="F667" s="17" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="668" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B668" s="11">
+        <v>45773</v>
+      </c>
+      <c r="C668" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D668" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E668" s="7">
+        <v>13703</v>
+      </c>
+      <c r="F668" s="17" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="669" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B669" s="11">
+        <v>45774</v>
+      </c>
+      <c r="C669" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D669" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E669" s="7">
+        <v>13704</v>
+      </c>
+      <c r="F669" s="17" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="670" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B670" s="11">
+        <v>45775</v>
+      </c>
+      <c r="C670" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D670" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E670" s="7">
+        <v>13800</v>
+      </c>
+      <c r="F670" s="17" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="671" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B671" s="11">
+        <v>45776</v>
+      </c>
+      <c r="C671" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D671" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E671" s="7">
+        <v>13801</v>
+      </c>
+      <c r="F671" s="17" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="672" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B672" s="11">
+        <v>45777</v>
+      </c>
+      <c r="C672" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D672" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E672" s="7">
+        <v>13802</v>
+      </c>
+      <c r="F672" s="17" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="673" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B673" s="11">
+        <v>45778</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D673" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E673" s="7">
+        <v>13803</v>
+      </c>
+      <c r="F673" s="17" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="674" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B674" s="11">
+        <v>45779</v>
+      </c>
+      <c r="C674" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D674" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E674" s="7">
+        <v>13804</v>
+      </c>
+      <c r="F674" s="17" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="675" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B675" s="11">
+        <v>45780</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D675" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E675" s="7">
+        <v>13900</v>
+      </c>
+      <c r="F675" s="17" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="676" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B676" s="11">
+        <v>45781</v>
+      </c>
+      <c r="C676" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D676" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E676" s="7">
+        <v>13901</v>
+      </c>
+      <c r="F676" s="17" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="677" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B677" s="11">
+        <v>45782</v>
+      </c>
+      <c r="C677" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D677" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E677" s="7">
+        <v>13902</v>
+      </c>
+      <c r="F677" s="17" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="678" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B678" s="11">
+        <v>45783</v>
+      </c>
+      <c r="C678" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D678" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E678" s="7">
+        <v>13903</v>
+      </c>
+      <c r="F678" s="17" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="679" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B679" s="11">
+        <v>45784</v>
+      </c>
+      <c r="C679" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D679" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E679" s="7">
+        <v>13904</v>
+      </c>
+      <c r="F679" s="17" t="s">
+        <v>893</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/번역요청문서.xlsx
+++ b/Data/번역요청문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-147\Desktop\기획 업무 폴더\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B1953B-D9B7-40E2-8DC3-C79466BA3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1042A961-0BC9-488E-AFEB-E38B1B6FAE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
+    <workbookView xWindow="5880" yWindow="345" windowWidth="22125" windowHeight="15255" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
   </bookViews>
   <sheets>
     <sheet name="번역요청" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="874">
   <si>
     <t>수정 날짜</t>
   </si>
@@ -2721,70 +2721,6 @@
   </si>
   <si>
     <t>유남호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹 이벤트 보상</t>
-  </si>
-  <si>
-    <t>(영어)랭킹 이벤트 보상</t>
-  </si>
-  <si>
-    <t>(일어)랭킹 이벤트 보상</t>
-  </si>
-  <si>
-    <t>(간체)랭킹 이벤트 보상</t>
-  </si>
-  <si>
-    <t>(번체)랭킹 이벤트 보상</t>
-  </si>
-  <si>
-    <t>랭킹 이벤트 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>(영어)랭킹 이벤트 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>(일어)랭킹 이벤트 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>(간체)랭킹 이벤트 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>(번체)랭킹 이벤트 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>랭킹 이벤트 순위 보상</t>
-  </si>
-  <si>
-    <t>(영어)랭킹 이벤트 순위 보상</t>
-  </si>
-  <si>
-    <t>(일어)랭킹 이벤트 순위 보상</t>
-  </si>
-  <si>
-    <t>(간체)랭킹 이벤트 순위 보상</t>
-  </si>
-  <si>
-    <t>(번체)랭킹 이벤트 순위 보상</t>
-  </si>
-  <si>
-    <t>랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>(영어)랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>(일어)랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>(간체)랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>(번체)랭킹 이벤트 순위 보상을 지급해드렸어요!</t>
-  </si>
-  <si>
-    <t>ServerText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2922,7 +2858,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2982,9 +2918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3321,11 +3254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5DFF8C-22E4-46D3-AC83-8F4E4E954A6C}">
-  <dimension ref="B1:S679"/>
+  <dimension ref="B1:S659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G579" sqref="G579"/>
+      <pane ySplit="3" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F652" sqref="F652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24749,7 +24682,7 @@
       <c r="C625" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D625" s="20" t="s">
+      <c r="D625" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E625" s="7">
@@ -24766,7 +24699,7 @@
       <c r="C626" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D626" s="20" t="s">
+      <c r="D626" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E626" s="7">
@@ -24783,7 +24716,7 @@
       <c r="C627" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D627" s="20" t="s">
+      <c r="D627" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E627" s="7">
@@ -24800,7 +24733,7 @@
       <c r="C628" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D628" s="20" t="s">
+      <c r="D628" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E628" s="7">
@@ -24817,7 +24750,7 @@
       <c r="C629" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D629" s="20" t="s">
+      <c r="D629" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E629" s="7">
@@ -24834,7 +24767,7 @@
       <c r="C630" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D630" s="20" t="s">
+      <c r="D630" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E630" s="7">
@@ -24851,7 +24784,7 @@
       <c r="C631" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D631" s="20" t="s">
+      <c r="D631" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E631" s="7">
@@ -24868,7 +24801,7 @@
       <c r="C632" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D632" s="20" t="s">
+      <c r="D632" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E632" s="7">
@@ -24885,7 +24818,7 @@
       <c r="C633" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D633" s="20" t="s">
+      <c r="D633" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E633" s="7">
@@ -24902,7 +24835,7 @@
       <c r="C634" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D634" s="20" t="s">
+      <c r="D634" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E634" s="7">
@@ -24919,7 +24852,7 @@
       <c r="C635" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D635" s="20" t="s">
+      <c r="D635" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E635" s="7">
@@ -24936,7 +24869,7 @@
       <c r="C636" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D636" s="20" t="s">
+      <c r="D636" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E636" s="7">
@@ -24953,7 +24886,7 @@
       <c r="C637" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D637" s="20" t="s">
+      <c r="D637" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E637" s="7">
@@ -24970,7 +24903,7 @@
       <c r="C638" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D638" s="20" t="s">
+      <c r="D638" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E638" s="7">
@@ -24987,7 +24920,7 @@
       <c r="C639" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D639" s="20" t="s">
+      <c r="D639" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E639" s="7">
@@ -25004,7 +24937,7 @@
       <c r="C640" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D640" s="20" t="s">
+      <c r="D640" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E640" s="7">
@@ -25021,7 +24954,7 @@
       <c r="C641" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D641" s="20" t="s">
+      <c r="D641" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E641" s="7">
@@ -25038,7 +24971,7 @@
       <c r="C642" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D642" s="20" t="s">
+      <c r="D642" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E642" s="7">
@@ -25055,7 +24988,7 @@
       <c r="C643" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D643" s="20" t="s">
+      <c r="D643" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E643" s="7">
@@ -25072,7 +25005,7 @@
       <c r="C644" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D644" s="20" t="s">
+      <c r="D644" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E644" s="7">
@@ -25089,7 +25022,7 @@
       <c r="C645" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D645" s="20" t="s">
+      <c r="D645" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E645" s="7">
@@ -25106,7 +25039,7 @@
       <c r="C646" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D646" s="20" t="s">
+      <c r="D646" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E646" s="7">
@@ -25123,7 +25056,7 @@
       <c r="C647" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D647" s="20" t="s">
+      <c r="D647" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E647" s="7">
@@ -25140,7 +25073,7 @@
       <c r="C648" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D648" s="20" t="s">
+      <c r="D648" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E648" s="7">
@@ -25157,7 +25090,7 @@
       <c r="C649" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D649" s="20" t="s">
+      <c r="D649" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E649" s="7">
@@ -25174,7 +25107,7 @@
       <c r="C650" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D650" s="20" t="s">
+      <c r="D650" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E650" s="7">
@@ -25191,7 +25124,7 @@
       <c r="C651" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D651" s="20" t="s">
+      <c r="D651" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E651" s="7">
@@ -25208,7 +25141,7 @@
       <c r="C652" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D652" s="20" t="s">
+      <c r="D652" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E652" s="7">
@@ -25225,7 +25158,7 @@
       <c r="C653" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D653" s="20" t="s">
+      <c r="D653" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E653" s="7">
@@ -25242,7 +25175,7 @@
       <c r="C654" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D654" s="20" t="s">
+      <c r="D654" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E654" s="7">
@@ -25259,7 +25192,7 @@
       <c r="C655" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D655" s="20" t="s">
+      <c r="D655" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E655" s="7">
@@ -25276,7 +25209,7 @@
       <c r="C656" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D656" s="20" t="s">
+      <c r="D656" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E656" s="7">
@@ -25293,7 +25226,7 @@
       <c r="C657" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D657" s="20" t="s">
+      <c r="D657" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E657" s="7">
@@ -25310,7 +25243,7 @@
       <c r="C658" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D658" s="20" t="s">
+      <c r="D658" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E658" s="7">
@@ -25327,7 +25260,7 @@
       <c r="C659" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D659" s="20" t="s">
+      <c r="D659" s="5" t="s">
         <v>872</v>
       </c>
       <c r="E659" s="7">
@@ -25335,346 +25268,6 @@
       </c>
       <c r="F659" s="17" t="s">
         <v>871</v>
-      </c>
-    </row>
-    <row r="660" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B660" s="11">
-        <v>45765</v>
-      </c>
-      <c r="C660" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D660" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E660" s="7">
-        <v>13600</v>
-      </c>
-      <c r="F660" s="17" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="661" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B661" s="11">
-        <v>45766</v>
-      </c>
-      <c r="C661" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D661" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E661" s="7">
-        <v>13601</v>
-      </c>
-      <c r="F661" s="17" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="662" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B662" s="11">
-        <v>45767</v>
-      </c>
-      <c r="C662" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D662" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E662" s="7">
-        <v>13602</v>
-      </c>
-      <c r="F662" s="17" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="663" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B663" s="11">
-        <v>45768</v>
-      </c>
-      <c r="C663" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D663" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E663" s="7">
-        <v>13603</v>
-      </c>
-      <c r="F663" s="17" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="664" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B664" s="11">
-        <v>45769</v>
-      </c>
-      <c r="C664" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D664" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E664" s="7">
-        <v>13604</v>
-      </c>
-      <c r="F664" s="17" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="665" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B665" s="11">
-        <v>45770</v>
-      </c>
-      <c r="C665" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D665" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E665" s="7">
-        <v>13700</v>
-      </c>
-      <c r="F665" s="17" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="666" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B666" s="11">
-        <v>45771</v>
-      </c>
-      <c r="C666" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D666" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E666" s="7">
-        <v>13701</v>
-      </c>
-      <c r="F666" s="17" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="667" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B667" s="11">
-        <v>45772</v>
-      </c>
-      <c r="C667" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D667" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E667" s="7">
-        <v>13702</v>
-      </c>
-      <c r="F667" s="17" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="668" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B668" s="11">
-        <v>45773</v>
-      </c>
-      <c r="C668" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D668" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E668" s="7">
-        <v>13703</v>
-      </c>
-      <c r="F668" s="17" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="669" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B669" s="11">
-        <v>45774</v>
-      </c>
-      <c r="C669" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D669" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E669" s="7">
-        <v>13704</v>
-      </c>
-      <c r="F669" s="17" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="670" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B670" s="11">
-        <v>45775</v>
-      </c>
-      <c r="C670" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D670" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E670" s="7">
-        <v>13800</v>
-      </c>
-      <c r="F670" s="17" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="671" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B671" s="11">
-        <v>45776</v>
-      </c>
-      <c r="C671" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D671" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E671" s="7">
-        <v>13801</v>
-      </c>
-      <c r="F671" s="17" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="672" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B672" s="11">
-        <v>45777</v>
-      </c>
-      <c r="C672" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D672" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E672" s="7">
-        <v>13802</v>
-      </c>
-      <c r="F672" s="17" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="673" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B673" s="11">
-        <v>45778</v>
-      </c>
-      <c r="C673" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D673" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E673" s="7">
-        <v>13803</v>
-      </c>
-      <c r="F673" s="17" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="674" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B674" s="11">
-        <v>45779</v>
-      </c>
-      <c r="C674" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D674" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E674" s="7">
-        <v>13804</v>
-      </c>
-      <c r="F674" s="17" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B675" s="11">
-        <v>45780</v>
-      </c>
-      <c r="C675" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D675" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E675" s="7">
-        <v>13900</v>
-      </c>
-      <c r="F675" s="17" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B676" s="11">
-        <v>45781</v>
-      </c>
-      <c r="C676" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D676" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E676" s="7">
-        <v>13901</v>
-      </c>
-      <c r="F676" s="17" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B677" s="11">
-        <v>45782</v>
-      </c>
-      <c r="C677" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D677" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E677" s="7">
-        <v>13902</v>
-      </c>
-      <c r="F677" s="17" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B678" s="11">
-        <v>45783</v>
-      </c>
-      <c r="C678" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D678" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E678" s="7">
-        <v>13903</v>
-      </c>
-      <c r="F678" s="17" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B679" s="11">
-        <v>45784</v>
-      </c>
-      <c r="C679" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D679" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E679" s="7">
-        <v>13904</v>
-      </c>
-      <c r="F679" s="17" t="s">
-        <v>893</v>
       </c>
     </row>
   </sheetData>

--- a/Data/번역요청문서.xlsx
+++ b/Data/번역요청문서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-147\Desktop\기획 업무 폴더\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-61\Desktop\머지 비교\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1042A961-0BC9-488E-AFEB-E38B1B6FAE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB24627-EC4C-4515-A987-4DD890464B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="345" windowWidth="22125" windowHeight="15255" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
   </bookViews>
   <sheets>
     <sheet name="번역요청" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="904">
   <si>
     <t>수정 날짜</t>
   </si>
@@ -2722,6 +2722,98 @@
   <si>
     <t>유남호</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60레벨 달성 패키지</t>
+  </si>
+  <si>
+    <t>넬라의 던전 열쇠 패키지</t>
+  </si>
+  <si>
+    <t>4성 유물 양피지 패키지 2</t>
+  </si>
+  <si>
+    <t>4성 유물 양피지 패키지 3</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 2</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 3</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 4</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 5</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 6</t>
+  </si>
+  <si>
+    <t>50레벨 달성 패키지</t>
+  </si>
+  <si>
+    <t>55레벨 달성 패키지</t>
+  </si>
+  <si>
+    <t>4성 유물 양피지 패키지 1</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 1</t>
+  </si>
+  <si>
+    <t>50레벨 달성 패키지입니다.</t>
+  </si>
+  <si>
+    <t>55레벨 달성 패키지입니다.</t>
+  </si>
+  <si>
+    <t>60레벨 달성 패키지입니다.</t>
+  </si>
+  <si>
+    <t>넬라의 던전 열쇠 패키지입니다.</t>
+  </si>
+  <si>
+    <t>4성 유물 양피지 패키지 1입니다.</t>
+  </si>
+  <si>
+    <t>4성 유물 양피지 패키지 2입니다.</t>
+  </si>
+  <si>
+    <t>4성 유물 양피지 패키지 3입니다.</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 1입니다.</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 2입니다.</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 3입니다.</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 4입니다.</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 5입니다.</t>
+  </si>
+  <si>
+    <t>리엔의 재료 패키지 6입니다.</t>
+  </si>
+  <si>
+    <t>레벨 성장 패키지 2</t>
+  </si>
+  <si>
+    <t>레벨 성장 패키지 2입니다</t>
   </si>
 </sst>
 </file>
@@ -2858,7 +2950,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2919,12 +3011,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 15" xfId="1" xr:uid="{1CF3E7B2-D50C-4D24-9578-278AA691E9E2}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3254,11 +3395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5DFF8C-22E4-46D3-AC83-8F4E4E954A6C}">
-  <dimension ref="B1:S659"/>
+  <dimension ref="B1:S673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F652" sqref="F652"/>
+      <pane ySplit="3" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G669" sqref="G669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3268,10 +3409,11 @@
     <col min="3" max="3" width="9.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="40" style="15" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="6"/>
     <col min="13" max="13" width="30.25" customWidth="1"/>
     <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3284,7 +3426,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -3371,7 +3513,7 @@
       <c r="K4" s="14">
         <v>45734</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>1</v>
       </c>
       <c r="M4" s="13" t="s">
@@ -3404,7 +3546,7 @@
       <c r="K5" s="8">
         <v>45741</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -3441,7 +3583,7 @@
       <c r="K6" s="8">
         <v>45741</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>0</v>
       </c>
       <c r="M6" s="5"/>
@@ -3476,7 +3618,7 @@
       <c r="K7" s="8">
         <v>45741</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="7">
         <v>0</v>
       </c>
       <c r="M7" s="5"/>
@@ -3511,7 +3653,7 @@
       <c r="K8" s="8">
         <v>45741</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="7">
         <v>0</v>
       </c>
       <c r="M8" s="5"/>
@@ -3546,7 +3688,7 @@
       <c r="K9" s="8">
         <v>45741</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="7">
         <v>0</v>
       </c>
       <c r="M9" s="5"/>
@@ -3581,7 +3723,7 @@
       <c r="K10" s="8">
         <v>45741</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="7">
         <v>0</v>
       </c>
       <c r="M10" s="5"/>
@@ -3616,7 +3758,7 @@
       <c r="K11" s="8">
         <v>45741</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="7">
         <v>0</v>
       </c>
       <c r="M11" s="5"/>
@@ -3651,7 +3793,7 @@
       <c r="K12" s="8">
         <v>45741</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="7">
         <v>0</v>
       </c>
       <c r="M12" s="5"/>
@@ -3686,7 +3828,7 @@
       <c r="K13" s="8">
         <v>45741</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="7">
         <v>0</v>
       </c>
       <c r="M13" s="5"/>
@@ -3721,7 +3863,7 @@
       <c r="K14" s="8">
         <v>45741</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="7">
         <v>0</v>
       </c>
       <c r="M14" s="5"/>
@@ -3756,7 +3898,7 @@
       <c r="K15" s="8">
         <v>45741</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="7">
         <v>0</v>
       </c>
       <c r="M15" s="5"/>
@@ -3791,7 +3933,7 @@
       <c r="K16" s="8">
         <v>45741</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="7">
         <v>0</v>
       </c>
       <c r="M16" s="5"/>
@@ -3826,7 +3968,7 @@
       <c r="K17" s="8">
         <v>45741</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="7">
         <v>0</v>
       </c>
       <c r="M17" s="5"/>
@@ -3861,7 +4003,7 @@
       <c r="K18" s="8">
         <v>45741</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="7">
         <v>0</v>
       </c>
       <c r="M18" s="5"/>
@@ -3896,7 +4038,7 @@
       <c r="K19" s="8">
         <v>45741</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="7">
         <v>0</v>
       </c>
       <c r="M19" s="5"/>
@@ -3931,7 +4073,7 @@
       <c r="K20" s="8">
         <v>45741</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="7">
         <v>0</v>
       </c>
       <c r="M20" s="5"/>
@@ -3966,7 +4108,7 @@
       <c r="K21" s="8">
         <v>45741</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="7">
         <v>0</v>
       </c>
       <c r="M21" s="5"/>
@@ -4001,7 +4143,7 @@
       <c r="K22" s="8">
         <v>45741</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="7">
         <v>0</v>
       </c>
       <c r="M22" s="5"/>
@@ -4036,7 +4178,7 @@
       <c r="K23" s="8">
         <v>45741</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="7">
         <v>0</v>
       </c>
       <c r="M23" s="5"/>
@@ -4071,7 +4213,7 @@
       <c r="K24" s="8">
         <v>45741</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="7">
         <v>0</v>
       </c>
       <c r="M24" s="5"/>
@@ -4106,7 +4248,7 @@
       <c r="K25" s="8">
         <v>45741</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="7">
         <v>0</v>
       </c>
       <c r="M25" s="5"/>
@@ -4141,7 +4283,7 @@
       <c r="K26" s="8">
         <v>45741</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="7">
         <v>0</v>
       </c>
       <c r="M26" s="5"/>
@@ -4176,7 +4318,7 @@
       <c r="K27" s="8">
         <v>45741</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="7">
         <v>0</v>
       </c>
       <c r="M27" s="5"/>
@@ -4211,7 +4353,7 @@
       <c r="K28" s="8">
         <v>45741</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="7">
         <v>0</v>
       </c>
       <c r="M28" s="5"/>
@@ -4246,7 +4388,7 @@
       <c r="K29" s="8">
         <v>45741</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="7">
         <v>0</v>
       </c>
       <c r="M29" s="5"/>
@@ -4281,7 +4423,7 @@
       <c r="K30" s="8">
         <v>45741</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>0</v>
       </c>
       <c r="M30" s="5"/>
@@ -4316,7 +4458,7 @@
       <c r="K31" s="8">
         <v>45741</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="7">
         <v>0</v>
       </c>
       <c r="M31" s="5"/>
@@ -4351,7 +4493,7 @@
       <c r="K32" s="8">
         <v>45741</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="7">
         <v>0</v>
       </c>
       <c r="M32" s="5"/>
@@ -4386,7 +4528,7 @@
       <c r="K33" s="8">
         <v>45741</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="7">
         <v>0</v>
       </c>
       <c r="M33" s="5"/>
@@ -4421,7 +4563,7 @@
       <c r="K34" s="8">
         <v>45741</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="7">
         <v>0</v>
       </c>
       <c r="M34" s="5"/>
@@ -4456,7 +4598,7 @@
       <c r="K35" s="8">
         <v>45741</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="7">
         <v>0</v>
       </c>
       <c r="M35" s="5"/>
@@ -4491,7 +4633,7 @@
       <c r="K36" s="8">
         <v>45741</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="7">
         <v>0</v>
       </c>
       <c r="M36" s="5"/>
@@ -4526,7 +4668,7 @@
       <c r="K37" s="8">
         <v>45741</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="7">
         <v>0</v>
       </c>
       <c r="M37" s="5"/>
@@ -4561,7 +4703,7 @@
       <c r="K38" s="8">
         <v>45741</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="7">
         <v>0</v>
       </c>
       <c r="M38" s="5"/>
@@ -4596,7 +4738,7 @@
       <c r="K39" s="8">
         <v>45741</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="7">
         <v>0</v>
       </c>
       <c r="M39" s="5"/>
@@ -4631,7 +4773,7 @@
       <c r="K40" s="8">
         <v>45741</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="7">
         <v>0</v>
       </c>
       <c r="M40" s="5"/>
@@ -4666,7 +4808,7 @@
       <c r="K41" s="8">
         <v>45741</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="7">
         <v>0</v>
       </c>
       <c r="M41" s="5"/>
@@ -4701,7 +4843,7 @@
       <c r="K42" s="8">
         <v>45741</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="7">
         <v>0</v>
       </c>
       <c r="M42" s="5"/>
@@ -4736,7 +4878,7 @@
       <c r="K43" s="8">
         <v>45741</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="7">
         <v>0</v>
       </c>
       <c r="M43" s="5"/>
@@ -4771,7 +4913,7 @@
       <c r="K44" s="8">
         <v>45741</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="7">
         <v>0</v>
       </c>
       <c r="M44" s="5"/>
@@ -4806,7 +4948,7 @@
       <c r="K45" s="8">
         <v>45741</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="7">
         <v>0</v>
       </c>
       <c r="M45" s="5"/>
@@ -4841,7 +4983,7 @@
       <c r="K46" s="8">
         <v>45741</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="7">
         <v>0</v>
       </c>
       <c r="M46" s="5"/>
@@ -4876,7 +5018,7 @@
       <c r="K47" s="8">
         <v>45741</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="7">
         <v>0</v>
       </c>
       <c r="M47" s="5"/>
@@ -4911,7 +5053,7 @@
       <c r="K48" s="8">
         <v>45741</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="7">
         <v>0</v>
       </c>
       <c r="M48" s="5"/>
@@ -4946,7 +5088,7 @@
       <c r="K49" s="8">
         <v>45741</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="7">
         <v>0</v>
       </c>
       <c r="M49" s="5"/>
@@ -4981,7 +5123,7 @@
       <c r="K50" s="8">
         <v>45741</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="7">
         <v>0</v>
       </c>
       <c r="M50" s="5"/>
@@ -5016,7 +5158,7 @@
       <c r="K51" s="8">
         <v>45741</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="7">
         <v>0</v>
       </c>
       <c r="M51" s="5"/>
@@ -5051,7 +5193,7 @@
       <c r="K52" s="8">
         <v>45741</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="7">
         <v>0</v>
       </c>
       <c r="M52" s="5"/>
@@ -5086,7 +5228,7 @@
       <c r="K53" s="8">
         <v>45741</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="7">
         <v>0</v>
       </c>
       <c r="M53" s="5"/>
@@ -5121,7 +5263,7 @@
       <c r="K54" s="8">
         <v>45741</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="7">
         <v>0</v>
       </c>
       <c r="M54" s="5"/>
@@ -5156,7 +5298,7 @@
       <c r="K55" s="8">
         <v>45741</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="7">
         <v>0</v>
       </c>
       <c r="M55" s="5"/>
@@ -5191,7 +5333,7 @@
       <c r="K56" s="8">
         <v>45741</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>0</v>
       </c>
       <c r="M56" s="5"/>
@@ -5226,7 +5368,7 @@
       <c r="K57" s="8">
         <v>45741</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="7">
         <v>0</v>
       </c>
       <c r="M57" s="5"/>
@@ -5261,7 +5403,7 @@
       <c r="K58" s="8">
         <v>45741</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="7">
         <v>0</v>
       </c>
       <c r="M58" s="5"/>
@@ -5296,7 +5438,7 @@
       <c r="K59" s="8">
         <v>45741</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="7">
         <v>0</v>
       </c>
       <c r="M59" s="5"/>
@@ -5331,7 +5473,7 @@
       <c r="K60" s="8">
         <v>45741</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="7">
         <v>0</v>
       </c>
       <c r="M60" s="5"/>
@@ -5366,7 +5508,7 @@
       <c r="K61" s="8">
         <v>45741</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="7">
         <v>0</v>
       </c>
       <c r="M61" s="5"/>
@@ -5401,7 +5543,7 @@
       <c r="K62" s="8">
         <v>45741</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="7">
         <v>0</v>
       </c>
       <c r="M62" s="5"/>
@@ -5436,7 +5578,7 @@
       <c r="K63" s="8">
         <v>45741</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="7">
         <v>0</v>
       </c>
       <c r="M63" s="5"/>
@@ -5471,7 +5613,7 @@
       <c r="K64" s="8">
         <v>45741</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="7">
         <v>0</v>
       </c>
       <c r="M64" s="5"/>
@@ -5506,7 +5648,7 @@
       <c r="K65" s="8">
         <v>45741</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="7">
         <v>0</v>
       </c>
       <c r="M65" s="5"/>
@@ -5541,7 +5683,7 @@
       <c r="K66" s="8">
         <v>45741</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="7">
         <v>0</v>
       </c>
       <c r="M66" s="5"/>
@@ -5576,7 +5718,7 @@
       <c r="K67" s="8">
         <v>45741</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="7">
         <v>0</v>
       </c>
       <c r="M67" s="5"/>
@@ -5611,7 +5753,7 @@
       <c r="K68" s="8">
         <v>45741</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="7">
         <v>0</v>
       </c>
       <c r="M68" s="5"/>
@@ -5646,7 +5788,7 @@
       <c r="K69" s="8">
         <v>45741</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="7">
         <v>0</v>
       </c>
       <c r="M69" s="5"/>
@@ -5681,7 +5823,7 @@
       <c r="K70" s="8">
         <v>45741</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="7">
         <v>0</v>
       </c>
       <c r="M70" s="5"/>
@@ -5716,7 +5858,7 @@
       <c r="K71" s="8">
         <v>45741</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="7">
         <v>0</v>
       </c>
       <c r="M71" s="5"/>
@@ -5751,7 +5893,7 @@
       <c r="K72" s="8">
         <v>45741</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="7">
         <v>0</v>
       </c>
       <c r="M72" s="5"/>
@@ -5786,7 +5928,7 @@
       <c r="K73" s="8">
         <v>45741</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="7">
         <v>0</v>
       </c>
       <c r="M73" s="5"/>
@@ -5821,7 +5963,7 @@
       <c r="K74" s="8">
         <v>45741</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="7">
         <v>0</v>
       </c>
       <c r="M74" s="5"/>
@@ -5856,7 +5998,7 @@
       <c r="K75" s="8">
         <v>45741</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75" s="7">
         <v>0</v>
       </c>
       <c r="M75" s="5"/>
@@ -5891,7 +6033,7 @@
       <c r="K76" s="8">
         <v>45741</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="7">
         <v>0</v>
       </c>
       <c r="M76" s="5"/>
@@ -5926,7 +6068,7 @@
       <c r="K77" s="8">
         <v>45741</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="7">
         <v>0</v>
       </c>
       <c r="M77" s="5"/>
@@ -5961,7 +6103,7 @@
       <c r="K78" s="8">
         <v>45741</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="7">
         <v>0</v>
       </c>
       <c r="M78" s="5"/>
@@ -5996,7 +6138,7 @@
       <c r="K79" s="8">
         <v>45741</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="7">
         <v>0</v>
       </c>
       <c r="M79" s="5"/>
@@ -6031,7 +6173,7 @@
       <c r="K80" s="8">
         <v>45741</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="7">
         <v>0</v>
       </c>
       <c r="M80" s="5"/>
@@ -6066,7 +6208,7 @@
       <c r="K81" s="8">
         <v>45741</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="7">
         <v>0</v>
       </c>
       <c r="M81" s="5"/>
@@ -6101,7 +6243,7 @@
       <c r="K82" s="8">
         <v>45741</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="7">
         <v>0</v>
       </c>
       <c r="M82" s="5"/>
@@ -6136,7 +6278,7 @@
       <c r="K83" s="8">
         <v>45741</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="7">
         <v>0</v>
       </c>
       <c r="M83" s="5"/>
@@ -6171,7 +6313,7 @@
       <c r="K84" s="8">
         <v>45741</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="7">
         <v>0</v>
       </c>
       <c r="M84" s="5"/>
@@ -6206,7 +6348,7 @@
       <c r="K85" s="8">
         <v>45741</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85" s="7">
         <v>0</v>
       </c>
       <c r="M85" s="5"/>
@@ -6241,7 +6383,7 @@
       <c r="K86" s="8">
         <v>45741</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="7">
         <v>0</v>
       </c>
       <c r="M86" s="5"/>
@@ -6276,7 +6418,7 @@
       <c r="K87" s="8">
         <v>45741</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87" s="7">
         <v>0</v>
       </c>
       <c r="M87" s="5"/>
@@ -6311,7 +6453,7 @@
       <c r="K88" s="8">
         <v>45741</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88" s="7">
         <v>0</v>
       </c>
       <c r="M88" s="5"/>
@@ -6346,7 +6488,7 @@
       <c r="K89" s="8">
         <v>45741</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89" s="7">
         <v>0</v>
       </c>
       <c r="M89" s="5"/>
@@ -6381,7 +6523,7 @@
       <c r="K90" s="8">
         <v>45741</v>
       </c>
-      <c r="L90" s="5">
+      <c r="L90" s="7">
         <v>0</v>
       </c>
       <c r="M90" s="5"/>
@@ -6416,7 +6558,7 @@
       <c r="K91" s="8">
         <v>45741</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="7">
         <v>0</v>
       </c>
       <c r="M91" s="5"/>
@@ -6451,7 +6593,7 @@
       <c r="K92" s="8">
         <v>45741</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92" s="7">
         <v>0</v>
       </c>
       <c r="M92" s="5"/>
@@ -6486,7 +6628,7 @@
       <c r="K93" s="8">
         <v>45741</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93" s="7">
         <v>0</v>
       </c>
       <c r="M93" s="5"/>
@@ -6521,7 +6663,7 @@
       <c r="K94" s="8">
         <v>45741</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L94" s="7">
         <v>0</v>
       </c>
       <c r="M94" s="5"/>
@@ -6556,7 +6698,7 @@
       <c r="K95" s="8">
         <v>45741</v>
       </c>
-      <c r="L95" s="5">
+      <c r="L95" s="7">
         <v>0</v>
       </c>
       <c r="M95" s="5"/>
@@ -6591,7 +6733,7 @@
       <c r="K96" s="8">
         <v>45741</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96" s="7">
         <v>0</v>
       </c>
       <c r="M96" s="5"/>
@@ -6626,7 +6768,7 @@
       <c r="K97" s="8">
         <v>45741</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="7">
         <v>0</v>
       </c>
       <c r="M97" s="5"/>
@@ -6661,7 +6803,7 @@
       <c r="K98" s="8">
         <v>45741</v>
       </c>
-      <c r="L98" s="5">
+      <c r="L98" s="7">
         <v>0</v>
       </c>
       <c r="M98" s="5"/>
@@ -6696,7 +6838,7 @@
       <c r="K99" s="8">
         <v>45741</v>
       </c>
-      <c r="L99" s="5">
+      <c r="L99" s="7">
         <v>0</v>
       </c>
       <c r="M99" s="5"/>
@@ -6731,7 +6873,7 @@
       <c r="K100" s="8">
         <v>45741</v>
       </c>
-      <c r="L100" s="5">
+      <c r="L100" s="7">
         <v>0</v>
       </c>
       <c r="M100" s="5"/>
@@ -6766,7 +6908,7 @@
       <c r="K101" s="8">
         <v>45741</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L101" s="7">
         <v>0</v>
       </c>
       <c r="M101" s="5"/>
@@ -6801,7 +6943,7 @@
       <c r="K102" s="8">
         <v>45741</v>
       </c>
-      <c r="L102" s="5">
+      <c r="L102" s="7">
         <v>0</v>
       </c>
       <c r="M102" s="5"/>
@@ -6836,7 +6978,7 @@
       <c r="K103" s="8">
         <v>45741</v>
       </c>
-      <c r="L103" s="5">
+      <c r="L103" s="7">
         <v>0</v>
       </c>
       <c r="M103" s="5"/>
@@ -6869,7 +7011,7 @@
       <c r="K104" s="8">
         <v>45741</v>
       </c>
-      <c r="L104" s="5">
+      <c r="L104" s="7">
         <v>0</v>
       </c>
       <c r="M104" s="5">
@@ -6904,7 +7046,7 @@
       <c r="K105" s="8">
         <v>45741</v>
       </c>
-      <c r="L105" s="5">
+      <c r="L105" s="7">
         <v>0</v>
       </c>
       <c r="M105" s="5">
@@ -6939,7 +7081,7 @@
       <c r="K106" s="8">
         <v>45741</v>
       </c>
-      <c r="L106" s="5">
+      <c r="L106" s="7">
         <v>0</v>
       </c>
       <c r="M106" s="5">
@@ -6974,7 +7116,7 @@
       <c r="K107" s="8">
         <v>45741</v>
       </c>
-      <c r="L107" s="5">
+      <c r="L107" s="7">
         <v>0</v>
       </c>
       <c r="M107" s="5">
@@ -7009,7 +7151,7 @@
       <c r="K108" s="8">
         <v>45741</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>0</v>
       </c>
       <c r="M108" s="5">
@@ -7044,7 +7186,7 @@
       <c r="K109" s="8">
         <v>45741</v>
       </c>
-      <c r="L109" s="5">
+      <c r="L109" s="7">
         <v>0</v>
       </c>
       <c r="M109" s="5">
@@ -7079,7 +7221,7 @@
       <c r="K110" s="8">
         <v>45741</v>
       </c>
-      <c r="L110" s="5">
+      <c r="L110" s="7">
         <v>0</v>
       </c>
       <c r="M110" s="5">
@@ -7114,7 +7256,7 @@
       <c r="K111" s="8">
         <v>45741</v>
       </c>
-      <c r="L111" s="5">
+      <c r="L111" s="7">
         <v>0</v>
       </c>
       <c r="M111" s="5">
@@ -7149,7 +7291,7 @@
       <c r="K112" s="8">
         <v>45741</v>
       </c>
-      <c r="L112" s="5">
+      <c r="L112" s="7">
         <v>0</v>
       </c>
       <c r="M112" s="5">
@@ -7184,7 +7326,7 @@
       <c r="K113" s="8">
         <v>45741</v>
       </c>
-      <c r="L113" s="5">
+      <c r="L113" s="7">
         <v>0</v>
       </c>
       <c r="M113" s="5">
@@ -7219,7 +7361,7 @@
       <c r="K114" s="8">
         <v>45741</v>
       </c>
-      <c r="L114" s="5">
+      <c r="L114" s="7">
         <v>0</v>
       </c>
       <c r="M114" s="5">
@@ -7254,7 +7396,7 @@
       <c r="K115" s="8">
         <v>45741</v>
       </c>
-      <c r="L115" s="5">
+      <c r="L115" s="7">
         <v>0</v>
       </c>
       <c r="M115" s="5">
@@ -7289,7 +7431,7 @@
       <c r="K116" s="8">
         <v>45741</v>
       </c>
-      <c r="L116" s="5">
+      <c r="L116" s="7">
         <v>0</v>
       </c>
       <c r="M116" s="5">
@@ -7324,7 +7466,7 @@
       <c r="K117" s="8">
         <v>45741</v>
       </c>
-      <c r="L117" s="5">
+      <c r="L117" s="7">
         <v>0</v>
       </c>
       <c r="M117" s="5">
@@ -7359,7 +7501,7 @@
       <c r="K118" s="8">
         <v>45741</v>
       </c>
-      <c r="L118" s="5">
+      <c r="L118" s="7">
         <v>0</v>
       </c>
       <c r="M118" s="5">
@@ -7394,7 +7536,7 @@
       <c r="K119" s="8">
         <v>45741</v>
       </c>
-      <c r="L119" s="5">
+      <c r="L119" s="7">
         <v>0</v>
       </c>
       <c r="M119" s="5">
@@ -7429,7 +7571,7 @@
       <c r="K120" s="8">
         <v>45741</v>
       </c>
-      <c r="L120" s="5">
+      <c r="L120" s="7">
         <v>0</v>
       </c>
       <c r="M120" s="5">
@@ -7464,7 +7606,7 @@
       <c r="K121" s="8">
         <v>45741</v>
       </c>
-      <c r="L121" s="5">
+      <c r="L121" s="7">
         <v>0</v>
       </c>
       <c r="M121" s="5">
@@ -7499,7 +7641,7 @@
       <c r="K122" s="8">
         <v>45741</v>
       </c>
-      <c r="L122" s="5">
+      <c r="L122" s="7">
         <v>0</v>
       </c>
       <c r="M122" s="5">
@@ -7534,7 +7676,7 @@
       <c r="K123" s="8">
         <v>45741</v>
       </c>
-      <c r="L123" s="5">
+      <c r="L123" s="7">
         <v>0</v>
       </c>
       <c r="M123" s="5">
@@ -7569,7 +7711,7 @@
       <c r="K124" s="8">
         <v>45741</v>
       </c>
-      <c r="L124" s="5">
+      <c r="L124" s="7">
         <v>0</v>
       </c>
       <c r="M124" s="5">
@@ -7604,7 +7746,7 @@
       <c r="K125" s="8">
         <v>45741</v>
       </c>
-      <c r="L125" s="5">
+      <c r="L125" s="7">
         <v>0</v>
       </c>
       <c r="M125" s="5">
@@ -7639,7 +7781,7 @@
       <c r="K126" s="8">
         <v>45741</v>
       </c>
-      <c r="L126" s="5">
+      <c r="L126" s="7">
         <v>0</v>
       </c>
       <c r="M126" s="5">
@@ -7674,7 +7816,7 @@
       <c r="K127" s="8">
         <v>45741</v>
       </c>
-      <c r="L127" s="5">
+      <c r="L127" s="7">
         <v>0</v>
       </c>
       <c r="M127" s="5">
@@ -7709,7 +7851,7 @@
       <c r="K128" s="8">
         <v>45741</v>
       </c>
-      <c r="L128" s="5">
+      <c r="L128" s="7">
         <v>0</v>
       </c>
       <c r="M128" s="5">
@@ -7744,7 +7886,7 @@
       <c r="K129" s="8">
         <v>45741</v>
       </c>
-      <c r="L129" s="5">
+      <c r="L129" s="7">
         <v>0</v>
       </c>
       <c r="M129" s="5">
@@ -7779,7 +7921,7 @@
       <c r="K130" s="8">
         <v>45741</v>
       </c>
-      <c r="L130" s="5">
+      <c r="L130" s="7">
         <v>0</v>
       </c>
       <c r="M130" s="5">
@@ -7814,7 +7956,7 @@
       <c r="K131" s="8">
         <v>45741</v>
       </c>
-      <c r="L131" s="5">
+      <c r="L131" s="7">
         <v>0</v>
       </c>
       <c r="M131" s="5">
@@ -7849,7 +7991,7 @@
       <c r="K132" s="8">
         <v>45741</v>
       </c>
-      <c r="L132" s="5">
+      <c r="L132" s="7">
         <v>0</v>
       </c>
       <c r="M132" s="5">
@@ -7884,7 +8026,7 @@
       <c r="K133" s="8">
         <v>45741</v>
       </c>
-      <c r="L133" s="5">
+      <c r="L133" s="7">
         <v>0</v>
       </c>
       <c r="M133" s="5">
@@ -7919,7 +8061,7 @@
       <c r="K134" s="8">
         <v>45741</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>0</v>
       </c>
       <c r="M134" s="5">
@@ -7954,7 +8096,7 @@
       <c r="K135" s="8">
         <v>45741</v>
       </c>
-      <c r="L135" s="5">
+      <c r="L135" s="7">
         <v>0</v>
       </c>
       <c r="M135" s="5">
@@ -7989,7 +8131,7 @@
       <c r="K136" s="8">
         <v>45741</v>
       </c>
-      <c r="L136" s="5">
+      <c r="L136" s="7">
         <v>0</v>
       </c>
       <c r="M136" s="5">
@@ -8024,7 +8166,7 @@
       <c r="K137" s="8">
         <v>45741</v>
       </c>
-      <c r="L137" s="5">
+      <c r="L137" s="7">
         <v>0</v>
       </c>
       <c r="M137" s="5">
@@ -8059,7 +8201,7 @@
       <c r="K138" s="8">
         <v>45741</v>
       </c>
-      <c r="L138" s="5">
+      <c r="L138" s="7">
         <v>0</v>
       </c>
       <c r="M138" s="5">
@@ -8094,7 +8236,7 @@
       <c r="K139" s="8">
         <v>45741</v>
       </c>
-      <c r="L139" s="5">
+      <c r="L139" s="7">
         <v>0</v>
       </c>
       <c r="M139" s="5">
@@ -8129,7 +8271,7 @@
       <c r="K140" s="8">
         <v>45741</v>
       </c>
-      <c r="L140" s="5">
+      <c r="L140" s="7">
         <v>0</v>
       </c>
       <c r="M140" s="5">
@@ -8164,7 +8306,7 @@
       <c r="K141" s="8">
         <v>45741</v>
       </c>
-      <c r="L141" s="5">
+      <c r="L141" s="7">
         <v>0</v>
       </c>
       <c r="M141" s="5">
@@ -8199,7 +8341,7 @@
       <c r="K142" s="8">
         <v>45741</v>
       </c>
-      <c r="L142" s="5">
+      <c r="L142" s="7">
         <v>0</v>
       </c>
       <c r="M142" s="5">
@@ -8234,7 +8376,7 @@
       <c r="K143" s="8">
         <v>45741</v>
       </c>
-      <c r="L143" s="5">
+      <c r="L143" s="7">
         <v>0</v>
       </c>
       <c r="M143" s="5">
@@ -8269,7 +8411,7 @@
       <c r="K144" s="8">
         <v>45741</v>
       </c>
-      <c r="L144" s="5">
+      <c r="L144" s="7">
         <v>0</v>
       </c>
       <c r="M144" s="5">
@@ -8304,7 +8446,7 @@
       <c r="K145" s="8">
         <v>45741</v>
       </c>
-      <c r="L145" s="5">
+      <c r="L145" s="7">
         <v>0</v>
       </c>
       <c r="M145" s="5">
@@ -8339,7 +8481,7 @@
       <c r="K146" s="8">
         <v>45741</v>
       </c>
-      <c r="L146" s="5">
+      <c r="L146" s="7">
         <v>0</v>
       </c>
       <c r="M146" s="5">
@@ -8374,7 +8516,7 @@
       <c r="K147" s="8">
         <v>45741</v>
       </c>
-      <c r="L147" s="5">
+      <c r="L147" s="7">
         <v>0</v>
       </c>
       <c r="M147" s="5">
@@ -8409,7 +8551,7 @@
       <c r="K148" s="8">
         <v>45741</v>
       </c>
-      <c r="L148" s="5">
+      <c r="L148" s="7">
         <v>0</v>
       </c>
       <c r="M148" s="5">
@@ -8444,7 +8586,7 @@
       <c r="K149" s="8">
         <v>45741</v>
       </c>
-      <c r="L149" s="5">
+      <c r="L149" s="7">
         <v>0</v>
       </c>
       <c r="M149" s="5">
@@ -8479,7 +8621,7 @@
       <c r="K150" s="8">
         <v>45741</v>
       </c>
-      <c r="L150" s="5">
+      <c r="L150" s="7">
         <v>0</v>
       </c>
       <c r="M150" s="5">
@@ -8514,7 +8656,7 @@
       <c r="K151" s="8">
         <v>45741</v>
       </c>
-      <c r="L151" s="5">
+      <c r="L151" s="7">
         <v>0</v>
       </c>
       <c r="M151" s="5">
@@ -8549,7 +8691,7 @@
       <c r="K152" s="8">
         <v>45741</v>
       </c>
-      <c r="L152" s="5">
+      <c r="L152" s="7">
         <v>0</v>
       </c>
       <c r="M152" s="5">
@@ -8584,7 +8726,7 @@
       <c r="K153" s="8">
         <v>45741</v>
       </c>
-      <c r="L153" s="5">
+      <c r="L153" s="7">
         <v>0</v>
       </c>
       <c r="M153" s="5">
@@ -8619,7 +8761,7 @@
       <c r="K154" s="8">
         <v>45741</v>
       </c>
-      <c r="L154" s="5">
+      <c r="L154" s="7">
         <v>0</v>
       </c>
       <c r="M154" s="5">
@@ -8654,7 +8796,7 @@
       <c r="K155" s="8">
         <v>45741</v>
       </c>
-      <c r="L155" s="5">
+      <c r="L155" s="7">
         <v>0</v>
       </c>
       <c r="M155" s="5">
@@ -8689,7 +8831,7 @@
       <c r="K156" s="8">
         <v>45741</v>
       </c>
-      <c r="L156" s="5">
+      <c r="L156" s="7">
         <v>0</v>
       </c>
       <c r="M156" s="5">
@@ -8724,7 +8866,7 @@
       <c r="K157" s="8">
         <v>45741</v>
       </c>
-      <c r="L157" s="5">
+      <c r="L157" s="7">
         <v>0</v>
       </c>
       <c r="M157" s="5">
@@ -8759,7 +8901,7 @@
       <c r="K158" s="8">
         <v>45741</v>
       </c>
-      <c r="L158" s="5">
+      <c r="L158" s="7">
         <v>0</v>
       </c>
       <c r="M158" s="5">
@@ -8794,7 +8936,7 @@
       <c r="K159" s="8">
         <v>45741</v>
       </c>
-      <c r="L159" s="5">
+      <c r="L159" s="7">
         <v>0</v>
       </c>
       <c r="M159" s="5">
@@ -8829,7 +8971,7 @@
       <c r="K160" s="8">
         <v>45741</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>0</v>
       </c>
       <c r="M160" s="5">
@@ -8864,7 +9006,7 @@
       <c r="K161" s="8">
         <v>45741</v>
       </c>
-      <c r="L161" s="5">
+      <c r="L161" s="7">
         <v>0</v>
       </c>
       <c r="M161" s="5">
@@ -8899,7 +9041,7 @@
       <c r="K162" s="8">
         <v>45741</v>
       </c>
-      <c r="L162" s="5">
+      <c r="L162" s="7">
         <v>0</v>
       </c>
       <c r="M162" s="5">
@@ -8934,7 +9076,7 @@
       <c r="K163" s="8">
         <v>45741</v>
       </c>
-      <c r="L163" s="5">
+      <c r="L163" s="7">
         <v>0</v>
       </c>
       <c r="M163" s="5">
@@ -8969,7 +9111,7 @@
       <c r="K164" s="8">
         <v>45741</v>
       </c>
-      <c r="L164" s="5">
+      <c r="L164" s="7">
         <v>0</v>
       </c>
       <c r="M164" s="5">
@@ -9004,7 +9146,7 @@
       <c r="K165" s="8">
         <v>45741</v>
       </c>
-      <c r="L165" s="5">
+      <c r="L165" s="7">
         <v>0</v>
       </c>
       <c r="M165" s="5">
@@ -9039,7 +9181,7 @@
       <c r="K166" s="8">
         <v>45741</v>
       </c>
-      <c r="L166" s="5">
+      <c r="L166" s="7">
         <v>0</v>
       </c>
       <c r="M166" s="5">
@@ -9074,7 +9216,7 @@
       <c r="K167" s="8">
         <v>45741</v>
       </c>
-      <c r="L167" s="5">
+      <c r="L167" s="7">
         <v>0</v>
       </c>
       <c r="M167" s="5">
@@ -9109,7 +9251,7 @@
       <c r="K168" s="8">
         <v>45741</v>
       </c>
-      <c r="L168" s="5">
+      <c r="L168" s="7">
         <v>0</v>
       </c>
       <c r="M168" s="5">
@@ -9144,7 +9286,7 @@
       <c r="K169" s="8">
         <v>45741</v>
       </c>
-      <c r="L169" s="5">
+      <c r="L169" s="7">
         <v>0</v>
       </c>
       <c r="M169" s="5">
@@ -9179,7 +9321,7 @@
       <c r="K170" s="8">
         <v>45741</v>
       </c>
-      <c r="L170" s="5">
+      <c r="L170" s="7">
         <v>0</v>
       </c>
       <c r="M170" s="5">
@@ -9214,7 +9356,7 @@
       <c r="K171" s="8">
         <v>45741</v>
       </c>
-      <c r="L171" s="5">
+      <c r="L171" s="7">
         <v>0</v>
       </c>
       <c r="M171" s="5">
@@ -9249,7 +9391,7 @@
       <c r="K172" s="8">
         <v>45741</v>
       </c>
-      <c r="L172" s="5">
+      <c r="L172" s="7">
         <v>0</v>
       </c>
       <c r="M172" s="5">
@@ -9284,7 +9426,7 @@
       <c r="K173" s="8">
         <v>45741</v>
       </c>
-      <c r="L173" s="5">
+      <c r="L173" s="7">
         <v>0</v>
       </c>
       <c r="M173" s="5">
@@ -9319,7 +9461,7 @@
       <c r="K174" s="8">
         <v>45741</v>
       </c>
-      <c r="L174" s="5">
+      <c r="L174" s="7">
         <v>0</v>
       </c>
       <c r="M174" s="5">
@@ -9354,7 +9496,7 @@
       <c r="K175" s="8">
         <v>45741</v>
       </c>
-      <c r="L175" s="5">
+      <c r="L175" s="7">
         <v>0</v>
       </c>
       <c r="M175" s="5">
@@ -9389,7 +9531,7 @@
       <c r="K176" s="8">
         <v>45741</v>
       </c>
-      <c r="L176" s="5">
+      <c r="L176" s="7">
         <v>0</v>
       </c>
       <c r="M176" s="5">
@@ -9424,7 +9566,7 @@
       <c r="K177" s="8">
         <v>45741</v>
       </c>
-      <c r="L177" s="5">
+      <c r="L177" s="7">
         <v>0</v>
       </c>
       <c r="M177" s="5">
@@ -9459,7 +9601,7 @@
       <c r="K178" s="8">
         <v>45741</v>
       </c>
-      <c r="L178" s="5">
+      <c r="L178" s="7">
         <v>0</v>
       </c>
       <c r="M178" s="5">
@@ -9494,7 +9636,7 @@
       <c r="K179" s="8">
         <v>45741</v>
       </c>
-      <c r="L179" s="5">
+      <c r="L179" s="7">
         <v>0</v>
       </c>
       <c r="M179" s="5">
@@ -9529,7 +9671,7 @@
       <c r="K180" s="8">
         <v>45741</v>
       </c>
-      <c r="L180" s="5">
+      <c r="L180" s="7">
         <v>0</v>
       </c>
       <c r="M180" s="5">
@@ -9564,7 +9706,7 @@
       <c r="K181" s="8">
         <v>45741</v>
       </c>
-      <c r="L181" s="5">
+      <c r="L181" s="7">
         <v>0</v>
       </c>
       <c r="M181" s="5">
@@ -9599,7 +9741,7 @@
       <c r="K182" s="8">
         <v>45741</v>
       </c>
-      <c r="L182" s="5">
+      <c r="L182" s="7">
         <v>0</v>
       </c>
       <c r="M182" s="5">
@@ -9634,7 +9776,7 @@
       <c r="K183" s="8">
         <v>45741</v>
       </c>
-      <c r="L183" s="5">
+      <c r="L183" s="7">
         <v>0</v>
       </c>
       <c r="M183" s="5">
@@ -9669,7 +9811,7 @@
       <c r="K184" s="8">
         <v>45741</v>
       </c>
-      <c r="L184" s="5">
+      <c r="L184" s="7">
         <v>0</v>
       </c>
       <c r="M184" s="5">
@@ -9704,7 +9846,7 @@
       <c r="K185" s="8">
         <v>45741</v>
       </c>
-      <c r="L185" s="5">
+      <c r="L185" s="7">
         <v>0</v>
       </c>
       <c r="M185" s="5">
@@ -9739,7 +9881,7 @@
       <c r="K186" s="8">
         <v>45741</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="7">
         <v>0</v>
       </c>
       <c r="M186" s="5">
@@ -9774,7 +9916,7 @@
       <c r="K187" s="8">
         <v>45741</v>
       </c>
-      <c r="L187" s="5">
+      <c r="L187" s="7">
         <v>0</v>
       </c>
       <c r="M187" s="5">
@@ -9809,7 +9951,7 @@
       <c r="K188" s="8">
         <v>45741</v>
       </c>
-      <c r="L188" s="5">
+      <c r="L188" s="7">
         <v>0</v>
       </c>
       <c r="M188" s="5">
@@ -9844,7 +9986,7 @@
       <c r="K189" s="8">
         <v>45741</v>
       </c>
-      <c r="L189" s="5">
+      <c r="L189" s="7">
         <v>0</v>
       </c>
       <c r="M189" s="5">
@@ -9879,7 +10021,7 @@
       <c r="K190" s="8">
         <v>45741</v>
       </c>
-      <c r="L190" s="5">
+      <c r="L190" s="7">
         <v>0</v>
       </c>
       <c r="M190" s="5">
@@ -9914,7 +10056,7 @@
       <c r="K191" s="8">
         <v>45741</v>
       </c>
-      <c r="L191" s="5">
+      <c r="L191" s="7">
         <v>0</v>
       </c>
       <c r="M191" s="5">
@@ -9949,7 +10091,7 @@
       <c r="K192" s="8">
         <v>45741</v>
       </c>
-      <c r="L192" s="5">
+      <c r="L192" s="7">
         <v>0</v>
       </c>
       <c r="M192" s="5">
@@ -9984,7 +10126,7 @@
       <c r="K193" s="8">
         <v>45741</v>
       </c>
-      <c r="L193" s="5">
+      <c r="L193" s="7">
         <v>0</v>
       </c>
       <c r="M193" s="5">
@@ -10019,7 +10161,7 @@
       <c r="K194" s="8">
         <v>45741</v>
       </c>
-      <c r="L194" s="5">
+      <c r="L194" s="7">
         <v>0</v>
       </c>
       <c r="M194" s="5">
@@ -10054,7 +10196,7 @@
       <c r="K195" s="8">
         <v>45741</v>
       </c>
-      <c r="L195" s="5">
+      <c r="L195" s="7">
         <v>0</v>
       </c>
       <c r="M195" s="5">
@@ -10089,7 +10231,7 @@
       <c r="K196" s="8">
         <v>45741</v>
       </c>
-      <c r="L196" s="5">
+      <c r="L196" s="7">
         <v>0</v>
       </c>
       <c r="M196" s="5">
@@ -10124,7 +10266,7 @@
       <c r="K197" s="8">
         <v>45741</v>
       </c>
-      <c r="L197" s="5">
+      <c r="L197" s="7">
         <v>0</v>
       </c>
       <c r="M197" s="5">
@@ -10159,7 +10301,7 @@
       <c r="K198" s="8">
         <v>45741</v>
       </c>
-      <c r="L198" s="5">
+      <c r="L198" s="7">
         <v>0</v>
       </c>
       <c r="M198" s="5">
@@ -10194,7 +10336,7 @@
       <c r="K199" s="8">
         <v>45741</v>
       </c>
-      <c r="L199" s="5">
+      <c r="L199" s="7">
         <v>0</v>
       </c>
       <c r="M199" s="5">
@@ -10229,7 +10371,7 @@
       <c r="K200" s="8">
         <v>45741</v>
       </c>
-      <c r="L200" s="5">
+      <c r="L200" s="7">
         <v>0</v>
       </c>
       <c r="M200" s="5">
@@ -10264,7 +10406,7 @@
       <c r="K201" s="8">
         <v>45741</v>
       </c>
-      <c r="L201" s="5">
+      <c r="L201" s="7">
         <v>0</v>
       </c>
       <c r="M201" s="5">
@@ -10299,7 +10441,7 @@
       <c r="K202" s="8">
         <v>45741</v>
       </c>
-      <c r="L202" s="5">
+      <c r="L202" s="7">
         <v>0</v>
       </c>
       <c r="M202" s="5">
@@ -10334,7 +10476,7 @@
       <c r="K203" s="8">
         <v>45741</v>
       </c>
-      <c r="L203" s="5">
+      <c r="L203" s="7">
         <v>0</v>
       </c>
       <c r="M203" s="5">
@@ -10369,7 +10511,7 @@
       <c r="K204" s="8">
         <v>45741</v>
       </c>
-      <c r="L204" s="5">
+      <c r="L204" s="7">
         <v>0</v>
       </c>
       <c r="M204" s="5">
@@ -10404,7 +10546,7 @@
       <c r="K205" s="8">
         <v>45741</v>
       </c>
-      <c r="L205" s="5">
+      <c r="L205" s="7">
         <v>0</v>
       </c>
       <c r="M205" s="5">
@@ -10439,7 +10581,7 @@
       <c r="K206" s="8">
         <v>45741</v>
       </c>
-      <c r="L206" s="5">
+      <c r="L206" s="7">
         <v>0</v>
       </c>
       <c r="M206" s="5">
@@ -10474,7 +10616,7 @@
       <c r="K207" s="8">
         <v>45741</v>
       </c>
-      <c r="L207" s="5">
+      <c r="L207" s="7">
         <v>0</v>
       </c>
       <c r="M207" s="5">
@@ -10509,7 +10651,7 @@
       <c r="K208" s="8">
         <v>45741</v>
       </c>
-      <c r="L208" s="5">
+      <c r="L208" s="7">
         <v>0</v>
       </c>
       <c r="M208" s="5">
@@ -10544,7 +10686,7 @@
       <c r="K209" s="8">
         <v>45741</v>
       </c>
-      <c r="L209" s="5">
+      <c r="L209" s="7">
         <v>0</v>
       </c>
       <c r="M209" s="5">
@@ -10579,7 +10721,7 @@
       <c r="K210" s="8">
         <v>45741</v>
       </c>
-      <c r="L210" s="5">
+      <c r="L210" s="7">
         <v>0</v>
       </c>
       <c r="M210" s="5">
@@ -10614,7 +10756,7 @@
       <c r="K211" s="8">
         <v>45741</v>
       </c>
-      <c r="L211" s="5">
+      <c r="L211" s="7">
         <v>0</v>
       </c>
       <c r="M211" s="5">
@@ -10649,7 +10791,7 @@
       <c r="K212" s="8">
         <v>45741</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="7">
         <v>0</v>
       </c>
       <c r="M212" s="5">
@@ -10684,7 +10826,7 @@
       <c r="K213" s="8">
         <v>45741</v>
       </c>
-      <c r="L213" s="5">
+      <c r="L213" s="7">
         <v>0</v>
       </c>
       <c r="M213" s="5">
@@ -10719,7 +10861,7 @@
       <c r="K214" s="8">
         <v>45741</v>
       </c>
-      <c r="L214" s="5">
+      <c r="L214" s="7">
         <v>0</v>
       </c>
       <c r="M214" s="5">
@@ -10754,7 +10896,7 @@
       <c r="K215" s="8">
         <v>45741</v>
       </c>
-      <c r="L215" s="5">
+      <c r="L215" s="7">
         <v>0</v>
       </c>
       <c r="M215" s="5">
@@ -10789,7 +10931,7 @@
       <c r="K216" s="8">
         <v>45741</v>
       </c>
-      <c r="L216" s="5">
+      <c r="L216" s="7">
         <v>0</v>
       </c>
       <c r="M216" s="5">
@@ -10824,7 +10966,7 @@
       <c r="K217" s="8">
         <v>45741</v>
       </c>
-      <c r="L217" s="5">
+      <c r="L217" s="7">
         <v>0</v>
       </c>
       <c r="M217" s="5">
@@ -10859,7 +11001,7 @@
       <c r="K218" s="8">
         <v>45741</v>
       </c>
-      <c r="L218" s="5">
+      <c r="L218" s="7">
         <v>0</v>
       </c>
       <c r="M218" s="5">
@@ -10894,7 +11036,7 @@
       <c r="K219" s="8">
         <v>45741</v>
       </c>
-      <c r="L219" s="5">
+      <c r="L219" s="7">
         <v>0</v>
       </c>
       <c r="M219" s="5">
@@ -10929,7 +11071,7 @@
       <c r="K220" s="8">
         <v>45741</v>
       </c>
-      <c r="L220" s="5">
+      <c r="L220" s="7">
         <v>0</v>
       </c>
       <c r="M220" s="5">
@@ -10964,7 +11106,7 @@
       <c r="K221" s="8">
         <v>45741</v>
       </c>
-      <c r="L221" s="5">
+      <c r="L221" s="7">
         <v>0</v>
       </c>
       <c r="M221" s="5">
@@ -10999,7 +11141,7 @@
       <c r="K222" s="8">
         <v>45741</v>
       </c>
-      <c r="L222" s="5">
+      <c r="L222" s="7">
         <v>0</v>
       </c>
       <c r="M222" s="5">
@@ -11034,7 +11176,7 @@
       <c r="K223" s="8">
         <v>45741</v>
       </c>
-      <c r="L223" s="5">
+      <c r="L223" s="7">
         <v>0</v>
       </c>
       <c r="M223" s="5">
@@ -11069,7 +11211,7 @@
       <c r="K224" s="8">
         <v>45741</v>
       </c>
-      <c r="L224" s="5">
+      <c r="L224" s="7">
         <v>0</v>
       </c>
       <c r="M224" s="5">
@@ -11104,7 +11246,7 @@
       <c r="K225" s="8">
         <v>45741</v>
       </c>
-      <c r="L225" s="5">
+      <c r="L225" s="7">
         <v>0</v>
       </c>
       <c r="M225" s="5">
@@ -11139,7 +11281,7 @@
       <c r="K226" s="8">
         <v>45741</v>
       </c>
-      <c r="L226" s="5">
+      <c r="L226" s="7">
         <v>0</v>
       </c>
       <c r="M226" s="5">
@@ -11174,7 +11316,7 @@
       <c r="K227" s="8">
         <v>45741</v>
       </c>
-      <c r="L227" s="5">
+      <c r="L227" s="7">
         <v>0</v>
       </c>
       <c r="M227" s="5">
@@ -11209,7 +11351,7 @@
       <c r="K228" s="8">
         <v>45741</v>
       </c>
-      <c r="L228" s="5">
+      <c r="L228" s="7">
         <v>0</v>
       </c>
       <c r="M228" s="5">
@@ -11244,7 +11386,7 @@
       <c r="K229" s="8">
         <v>45741</v>
       </c>
-      <c r="L229" s="5">
+      <c r="L229" s="7">
         <v>0</v>
       </c>
       <c r="M229" s="5">
@@ -11279,7 +11421,7 @@
       <c r="K230" s="8">
         <v>45741</v>
       </c>
-      <c r="L230" s="5">
+      <c r="L230" s="7">
         <v>0</v>
       </c>
       <c r="M230" s="5">
@@ -11314,7 +11456,7 @@
       <c r="K231" s="8">
         <v>45741</v>
       </c>
-      <c r="L231" s="5">
+      <c r="L231" s="7">
         <v>0</v>
       </c>
       <c r="M231" s="5">
@@ -11349,7 +11491,7 @@
       <c r="K232" s="8">
         <v>45741</v>
       </c>
-      <c r="L232" s="5">
+      <c r="L232" s="7">
         <v>0</v>
       </c>
       <c r="M232" s="5">
@@ -11384,7 +11526,7 @@
       <c r="K233" s="8">
         <v>45741</v>
       </c>
-      <c r="L233" s="5">
+      <c r="L233" s="7">
         <v>0</v>
       </c>
       <c r="M233" s="5">
@@ -11419,7 +11561,7 @@
       <c r="K234" s="8">
         <v>45741</v>
       </c>
-      <c r="L234" s="5">
+      <c r="L234" s="7">
         <v>0</v>
       </c>
       <c r="M234" s="5">
@@ -11454,7 +11596,7 @@
       <c r="K235" s="8">
         <v>45741</v>
       </c>
-      <c r="L235" s="5">
+      <c r="L235" s="7">
         <v>0</v>
       </c>
       <c r="M235" s="5">
@@ -11489,7 +11631,7 @@
       <c r="K236" s="8">
         <v>45741</v>
       </c>
-      <c r="L236" s="5">
+      <c r="L236" s="7">
         <v>0</v>
       </c>
       <c r="M236" s="5">
@@ -11524,7 +11666,7 @@
       <c r="K237" s="8">
         <v>45741</v>
       </c>
-      <c r="L237" s="5">
+      <c r="L237" s="7">
         <v>0</v>
       </c>
       <c r="M237" s="5">
@@ -11559,7 +11701,7 @@
       <c r="K238" s="8">
         <v>45741</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="7">
         <v>0</v>
       </c>
       <c r="M238" s="5">
@@ -11594,7 +11736,7 @@
       <c r="K239" s="8">
         <v>45741</v>
       </c>
-      <c r="L239" s="5">
+      <c r="L239" s="7">
         <v>0</v>
       </c>
       <c r="M239" s="5">
@@ -11629,7 +11771,7 @@
       <c r="K240" s="8">
         <v>45741</v>
       </c>
-      <c r="L240" s="5">
+      <c r="L240" s="7">
         <v>0</v>
       </c>
       <c r="M240" s="5">
@@ -11664,7 +11806,7 @@
       <c r="K241" s="8">
         <v>45741</v>
       </c>
-      <c r="L241" s="5">
+      <c r="L241" s="7">
         <v>0</v>
       </c>
       <c r="M241" s="5">
@@ -11699,7 +11841,7 @@
       <c r="K242" s="8">
         <v>45741</v>
       </c>
-      <c r="L242" s="5">
+      <c r="L242" s="7">
         <v>0</v>
       </c>
       <c r="M242" s="5">
@@ -11734,7 +11876,7 @@
       <c r="K243" s="8">
         <v>45741</v>
       </c>
-      <c r="L243" s="5">
+      <c r="L243" s="7">
         <v>0</v>
       </c>
       <c r="M243" s="5">
@@ -11769,7 +11911,7 @@
       <c r="K244" s="8">
         <v>45741</v>
       </c>
-      <c r="L244" s="5">
+      <c r="L244" s="7">
         <v>0</v>
       </c>
       <c r="M244" s="5">
@@ -11804,7 +11946,7 @@
       <c r="K245" s="8">
         <v>45741</v>
       </c>
-      <c r="L245" s="5">
+      <c r="L245" s="7">
         <v>0</v>
       </c>
       <c r="M245" s="5">
@@ -11839,7 +11981,7 @@
       <c r="K246" s="8">
         <v>45741</v>
       </c>
-      <c r="L246" s="5">
+      <c r="L246" s="7">
         <v>0</v>
       </c>
       <c r="M246" s="5">
@@ -11874,7 +12016,7 @@
       <c r="K247" s="8">
         <v>45741</v>
       </c>
-      <c r="L247" s="5">
+      <c r="L247" s="7">
         <v>0</v>
       </c>
       <c r="M247" s="5">
@@ -11909,7 +12051,7 @@
       <c r="K248" s="8">
         <v>45741</v>
       </c>
-      <c r="L248" s="5">
+      <c r="L248" s="7">
         <v>0</v>
       </c>
       <c r="M248" s="5">
@@ -11944,7 +12086,7 @@
       <c r="K249" s="8">
         <v>45741</v>
       </c>
-      <c r="L249" s="5">
+      <c r="L249" s="7">
         <v>0</v>
       </c>
       <c r="M249" s="5">
@@ -11979,7 +12121,7 @@
       <c r="K250" s="8">
         <v>45741</v>
       </c>
-      <c r="L250" s="5">
+      <c r="L250" s="7">
         <v>0</v>
       </c>
       <c r="M250" s="5">
@@ -12014,7 +12156,7 @@
       <c r="K251" s="8">
         <v>45741</v>
       </c>
-      <c r="L251" s="5">
+      <c r="L251" s="7">
         <v>0</v>
       </c>
       <c r="M251" s="5">
@@ -12049,7 +12191,7 @@
       <c r="K252" s="8">
         <v>45741</v>
       </c>
-      <c r="L252" s="5">
+      <c r="L252" s="7">
         <v>0</v>
       </c>
       <c r="M252" s="5">
@@ -12084,7 +12226,7 @@
       <c r="K253" s="8">
         <v>45741</v>
       </c>
-      <c r="L253" s="5">
+      <c r="L253" s="7">
         <v>0</v>
       </c>
       <c r="M253" s="5">
@@ -12119,7 +12261,7 @@
       <c r="K254" s="8">
         <v>45741</v>
       </c>
-      <c r="L254" s="5">
+      <c r="L254" s="7">
         <v>0</v>
       </c>
       <c r="M254" s="5">
@@ -12154,7 +12296,7 @@
       <c r="K255" s="8">
         <v>45741</v>
       </c>
-      <c r="L255" s="5">
+      <c r="L255" s="7">
         <v>0</v>
       </c>
       <c r="M255" s="5">
@@ -12189,7 +12331,7 @@
       <c r="K256" s="8">
         <v>45741</v>
       </c>
-      <c r="L256" s="5">
+      <c r="L256" s="7">
         <v>0</v>
       </c>
       <c r="M256" s="5">
@@ -12224,7 +12366,7 @@
       <c r="K257" s="8">
         <v>45741</v>
       </c>
-      <c r="L257" s="5">
+      <c r="L257" s="7">
         <v>0</v>
       </c>
       <c r="M257" s="5">
@@ -12259,7 +12401,7 @@
       <c r="K258" s="8">
         <v>45741</v>
       </c>
-      <c r="L258" s="5">
+      <c r="L258" s="7">
         <v>0</v>
       </c>
       <c r="M258" s="5">
@@ -12294,7 +12436,7 @@
       <c r="K259" s="8">
         <v>45741</v>
       </c>
-      <c r="L259" s="5">
+      <c r="L259" s="7">
         <v>0</v>
       </c>
       <c r="M259" s="5">
@@ -12329,7 +12471,7 @@
       <c r="K260" s="8">
         <v>45741</v>
       </c>
-      <c r="L260" s="5">
+      <c r="L260" s="7">
         <v>0</v>
       </c>
       <c r="M260" s="5">
@@ -12364,7 +12506,7 @@
       <c r="K261" s="8">
         <v>45741</v>
       </c>
-      <c r="L261" s="5">
+      <c r="L261" s="7">
         <v>0</v>
       </c>
       <c r="M261" s="5">
@@ -12399,7 +12541,7 @@
       <c r="K262" s="8">
         <v>45741</v>
       </c>
-      <c r="L262" s="5">
+      <c r="L262" s="7">
         <v>0</v>
       </c>
       <c r="M262" s="5">
@@ -12434,7 +12576,7 @@
       <c r="K263" s="8">
         <v>45741</v>
       </c>
-      <c r="L263" s="5">
+      <c r="L263" s="7">
         <v>0</v>
       </c>
       <c r="M263" s="5">
@@ -12469,7 +12611,7 @@
       <c r="K264" s="8">
         <v>45741</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="7">
         <v>0</v>
       </c>
       <c r="M264" s="5">
@@ -12504,7 +12646,7 @@
       <c r="K265" s="8">
         <v>45741</v>
       </c>
-      <c r="L265" s="5">
+      <c r="L265" s="7">
         <v>0</v>
       </c>
       <c r="M265" s="5">
@@ -12539,7 +12681,7 @@
       <c r="K266" s="8">
         <v>45741</v>
       </c>
-      <c r="L266" s="5">
+      <c r="L266" s="7">
         <v>0</v>
       </c>
       <c r="M266" s="5">
@@ -12574,7 +12716,7 @@
       <c r="K267" s="8">
         <v>45741</v>
       </c>
-      <c r="L267" s="5">
+      <c r="L267" s="7">
         <v>0</v>
       </c>
       <c r="M267" s="5">
@@ -12609,7 +12751,7 @@
       <c r="K268" s="8">
         <v>45741</v>
       </c>
-      <c r="L268" s="5">
+      <c r="L268" s="7">
         <v>0</v>
       </c>
       <c r="M268" s="5">
@@ -12644,7 +12786,7 @@
       <c r="K269" s="8">
         <v>45741</v>
       </c>
-      <c r="L269" s="5">
+      <c r="L269" s="7">
         <v>0</v>
       </c>
       <c r="M269" s="5">
@@ -12679,7 +12821,7 @@
       <c r="K270" s="8">
         <v>45741</v>
       </c>
-      <c r="L270" s="5">
+      <c r="L270" s="7">
         <v>0</v>
       </c>
       <c r="M270" s="5">
@@ -12714,7 +12856,7 @@
       <c r="K271" s="8">
         <v>45741</v>
       </c>
-      <c r="L271" s="5">
+      <c r="L271" s="7">
         <v>0</v>
       </c>
       <c r="M271" s="5">
@@ -12749,7 +12891,7 @@
       <c r="K272" s="8">
         <v>45741</v>
       </c>
-      <c r="L272" s="5">
+      <c r="L272" s="7">
         <v>0</v>
       </c>
       <c r="M272" s="5">
@@ -12784,7 +12926,7 @@
       <c r="K273" s="8">
         <v>45741</v>
       </c>
-      <c r="L273" s="5">
+      <c r="L273" s="7">
         <v>0</v>
       </c>
       <c r="M273" s="5">
@@ -12819,7 +12961,7 @@
       <c r="K274" s="8">
         <v>45741</v>
       </c>
-      <c r="L274" s="5">
+      <c r="L274" s="7">
         <v>0</v>
       </c>
       <c r="M274" s="5">
@@ -12854,7 +12996,7 @@
       <c r="K275" s="8">
         <v>45741</v>
       </c>
-      <c r="L275" s="5">
+      <c r="L275" s="7">
         <v>0</v>
       </c>
       <c r="M275" s="5">
@@ -12889,7 +13031,7 @@
       <c r="K276" s="8">
         <v>45741</v>
       </c>
-      <c r="L276" s="5">
+      <c r="L276" s="7">
         <v>0</v>
       </c>
       <c r="M276" s="5">
@@ -12924,7 +13066,7 @@
       <c r="K277" s="8">
         <v>45741</v>
       </c>
-      <c r="L277" s="5">
+      <c r="L277" s="7">
         <v>0</v>
       </c>
       <c r="M277" s="5">
@@ -12959,7 +13101,7 @@
       <c r="K278" s="8">
         <v>45741</v>
       </c>
-      <c r="L278" s="5">
+      <c r="L278" s="7">
         <v>0</v>
       </c>
       <c r="M278" s="5">
@@ -12994,7 +13136,7 @@
       <c r="K279" s="8">
         <v>45741</v>
       </c>
-      <c r="L279" s="5">
+      <c r="L279" s="7">
         <v>0</v>
       </c>
       <c r="M279" s="5">
@@ -13029,7 +13171,7 @@
       <c r="K280" s="8">
         <v>45741</v>
       </c>
-      <c r="L280" s="5">
+      <c r="L280" s="7">
         <v>0</v>
       </c>
       <c r="M280" s="5">
@@ -13064,7 +13206,7 @@
       <c r="K281" s="8">
         <v>45741</v>
       </c>
-      <c r="L281" s="5">
+      <c r="L281" s="7">
         <v>0</v>
       </c>
       <c r="M281" s="5">
@@ -13099,7 +13241,7 @@
       <c r="K282" s="8">
         <v>45741</v>
       </c>
-      <c r="L282" s="5">
+      <c r="L282" s="7">
         <v>0</v>
       </c>
       <c r="M282" s="5">
@@ -13134,7 +13276,7 @@
       <c r="K283" s="8">
         <v>45741</v>
       </c>
-      <c r="L283" s="5">
+      <c r="L283" s="7">
         <v>0</v>
       </c>
       <c r="M283" s="5">
@@ -13169,7 +13311,7 @@
       <c r="K284" s="8">
         <v>45741</v>
       </c>
-      <c r="L284" s="5">
+      <c r="L284" s="7">
         <v>0</v>
       </c>
       <c r="M284" s="5">
@@ -13204,7 +13346,7 @@
       <c r="K285" s="8">
         <v>45741</v>
       </c>
-      <c r="L285" s="5">
+      <c r="L285" s="7">
         <v>0</v>
       </c>
       <c r="M285" s="5">
@@ -13239,7 +13381,7 @@
       <c r="K286" s="8">
         <v>45741</v>
       </c>
-      <c r="L286" s="5">
+      <c r="L286" s="7">
         <v>0</v>
       </c>
       <c r="M286" s="5">
@@ -13274,7 +13416,7 @@
       <c r="K287" s="8">
         <v>45741</v>
       </c>
-      <c r="L287" s="5">
+      <c r="L287" s="7">
         <v>0</v>
       </c>
       <c r="M287" s="5">
@@ -13309,7 +13451,7 @@
       <c r="K288" s="8">
         <v>45741</v>
       </c>
-      <c r="L288" s="5">
+      <c r="L288" s="7">
         <v>0</v>
       </c>
       <c r="M288" s="5">
@@ -13344,7 +13486,7 @@
       <c r="K289" s="8">
         <v>45741</v>
       </c>
-      <c r="L289" s="5">
+      <c r="L289" s="7">
         <v>0</v>
       </c>
       <c r="M289" s="5">
@@ -13379,7 +13521,7 @@
       <c r="K290" s="8">
         <v>45741</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="7">
         <v>0</v>
       </c>
       <c r="M290" s="5">
@@ -13414,7 +13556,7 @@
       <c r="K291" s="8">
         <v>45741</v>
       </c>
-      <c r="L291" s="5">
+      <c r="L291" s="7">
         <v>0</v>
       </c>
       <c r="M291" s="5">
@@ -13449,7 +13591,7 @@
       <c r="K292" s="8">
         <v>45741</v>
       </c>
-      <c r="L292" s="5">
+      <c r="L292" s="7">
         <v>0</v>
       </c>
       <c r="M292" s="5">
@@ -13484,7 +13626,7 @@
       <c r="K293" s="8">
         <v>45741</v>
       </c>
-      <c r="L293" s="5">
+      <c r="L293" s="7">
         <v>0</v>
       </c>
       <c r="M293" s="5">
@@ -13519,7 +13661,7 @@
       <c r="K294" s="8">
         <v>45741</v>
       </c>
-      <c r="L294" s="5">
+      <c r="L294" s="7">
         <v>0</v>
       </c>
       <c r="M294" s="5">
@@ -13554,7 +13696,7 @@
       <c r="K295" s="8">
         <v>45741</v>
       </c>
-      <c r="L295" s="5">
+      <c r="L295" s="7">
         <v>0</v>
       </c>
       <c r="M295" s="5">
@@ -13589,7 +13731,7 @@
       <c r="K296" s="8">
         <v>45741</v>
       </c>
-      <c r="L296" s="5">
+      <c r="L296" s="7">
         <v>0</v>
       </c>
       <c r="M296" s="5">
@@ -13624,7 +13766,7 @@
       <c r="K297" s="8">
         <v>45741</v>
       </c>
-      <c r="L297" s="5">
+      <c r="L297" s="7">
         <v>0</v>
       </c>
       <c r="M297" s="5">
@@ -13659,7 +13801,7 @@
       <c r="K298" s="8">
         <v>45741</v>
       </c>
-      <c r="L298" s="5">
+      <c r="L298" s="7">
         <v>0</v>
       </c>
       <c r="M298" s="5">
@@ -13694,7 +13836,7 @@
       <c r="K299" s="8">
         <v>45741</v>
       </c>
-      <c r="L299" s="5">
+      <c r="L299" s="7">
         <v>0</v>
       </c>
       <c r="M299" s="5">
@@ -13729,7 +13871,7 @@
       <c r="K300" s="8">
         <v>45741</v>
       </c>
-      <c r="L300" s="5">
+      <c r="L300" s="7">
         <v>0</v>
       </c>
       <c r="M300" s="5">
@@ -13764,7 +13906,7 @@
       <c r="K301" s="8">
         <v>45741</v>
       </c>
-      <c r="L301" s="5">
+      <c r="L301" s="7">
         <v>0</v>
       </c>
       <c r="M301" s="5">
@@ -13799,7 +13941,7 @@
       <c r="K302" s="8">
         <v>45741</v>
       </c>
-      <c r="L302" s="5">
+      <c r="L302" s="7">
         <v>0</v>
       </c>
       <c r="M302" s="5">
@@ -13834,7 +13976,7 @@
       <c r="K303" s="8">
         <v>45741</v>
       </c>
-      <c r="L303" s="5">
+      <c r="L303" s="7">
         <v>0</v>
       </c>
       <c r="M303" s="5">
@@ -13869,7 +14011,7 @@
       <c r="K304" s="8">
         <v>45741</v>
       </c>
-      <c r="L304" s="5">
+      <c r="L304" s="7">
         <v>0</v>
       </c>
       <c r="M304" s="5">
@@ -13904,7 +14046,7 @@
       <c r="K305" s="8">
         <v>45741</v>
       </c>
-      <c r="L305" s="5">
+      <c r="L305" s="7">
         <v>0</v>
       </c>
       <c r="M305" s="5">
@@ -13939,7 +14081,7 @@
       <c r="K306" s="8">
         <v>45741</v>
       </c>
-      <c r="L306" s="5">
+      <c r="L306" s="7">
         <v>0</v>
       </c>
       <c r="M306" s="5">
@@ -13974,7 +14116,7 @@
       <c r="K307" s="8">
         <v>45741</v>
       </c>
-      <c r="L307" s="5">
+      <c r="L307" s="7">
         <v>0</v>
       </c>
       <c r="M307" s="5">
@@ -14009,7 +14151,7 @@
       <c r="K308" s="8">
         <v>45741</v>
       </c>
-      <c r="L308" s="5">
+      <c r="L308" s="7">
         <v>0</v>
       </c>
       <c r="M308" s="5">
@@ -14044,7 +14186,7 @@
       <c r="K309" s="8">
         <v>45741</v>
       </c>
-      <c r="L309" s="5">
+      <c r="L309" s="7">
         <v>0</v>
       </c>
       <c r="M309" s="5">
@@ -14079,7 +14221,7 @@
       <c r="K310" s="8">
         <v>45741</v>
       </c>
-      <c r="L310" s="5">
+      <c r="L310" s="7">
         <v>0</v>
       </c>
       <c r="M310" s="5">
@@ -14114,7 +14256,7 @@
       <c r="K311" s="8">
         <v>45741</v>
       </c>
-      <c r="L311" s="5">
+      <c r="L311" s="7">
         <v>0</v>
       </c>
       <c r="M311" s="5">
@@ -14149,7 +14291,7 @@
       <c r="K312" s="8">
         <v>45741</v>
       </c>
-      <c r="L312" s="5">
+      <c r="L312" s="7">
         <v>0</v>
       </c>
       <c r="M312" s="5">
@@ -14184,7 +14326,7 @@
       <c r="K313" s="8">
         <v>45741</v>
       </c>
-      <c r="L313" s="5">
+      <c r="L313" s="7">
         <v>0</v>
       </c>
       <c r="M313" s="5">
@@ -14219,7 +14361,7 @@
       <c r="K314" s="8">
         <v>45741</v>
       </c>
-      <c r="L314" s="5">
+      <c r="L314" s="7">
         <v>0</v>
       </c>
       <c r="M314" s="5">
@@ -14254,7 +14396,7 @@
       <c r="K315" s="8">
         <v>45741</v>
       </c>
-      <c r="L315" s="5">
+      <c r="L315" s="7">
         <v>0</v>
       </c>
       <c r="M315" s="5">
@@ -14289,7 +14431,7 @@
       <c r="K316" s="8">
         <v>45741</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="7">
         <v>0</v>
       </c>
       <c r="M316" s="5">
@@ -14324,7 +14466,7 @@
       <c r="K317" s="8">
         <v>45741</v>
       </c>
-      <c r="L317" s="5">
+      <c r="L317" s="7">
         <v>0</v>
       </c>
       <c r="M317" s="5">
@@ -14359,7 +14501,7 @@
       <c r="K318" s="8">
         <v>45741</v>
       </c>
-      <c r="L318" s="5">
+      <c r="L318" s="7">
         <v>0</v>
       </c>
       <c r="M318" s="5">
@@ -14394,7 +14536,7 @@
       <c r="K319" s="8">
         <v>45741</v>
       </c>
-      <c r="L319" s="5">
+      <c r="L319" s="7">
         <v>0</v>
       </c>
       <c r="M319" s="5">
@@ -14429,7 +14571,7 @@
       <c r="K320" s="8">
         <v>45741</v>
       </c>
-      <c r="L320" s="5">
+      <c r="L320" s="7">
         <v>0</v>
       </c>
       <c r="M320" s="5">
@@ -14464,7 +14606,7 @@
       <c r="K321" s="8">
         <v>45741</v>
       </c>
-      <c r="L321" s="5">
+      <c r="L321" s="7">
         <v>0</v>
       </c>
       <c r="M321" s="5">
@@ -14499,7 +14641,7 @@
       <c r="K322" s="8">
         <v>45741</v>
       </c>
-      <c r="L322" s="5">
+      <c r="L322" s="7">
         <v>0</v>
       </c>
       <c r="M322" s="5">
@@ -14534,7 +14676,7 @@
       <c r="K323" s="8">
         <v>45741</v>
       </c>
-      <c r="L323" s="5">
+      <c r="L323" s="7">
         <v>0</v>
       </c>
       <c r="M323" s="5">
@@ -14569,7 +14711,7 @@
       <c r="K324" s="8">
         <v>45741</v>
       </c>
-      <c r="L324" s="5">
+      <c r="L324" s="7">
         <v>0</v>
       </c>
       <c r="M324" s="5">
@@ -14604,7 +14746,7 @@
       <c r="K325" s="8">
         <v>45741</v>
       </c>
-      <c r="L325" s="5">
+      <c r="L325" s="7">
         <v>0</v>
       </c>
       <c r="M325" s="5">
@@ -14639,7 +14781,7 @@
       <c r="K326" s="8">
         <v>45741</v>
       </c>
-      <c r="L326" s="5">
+      <c r="L326" s="7">
         <v>0</v>
       </c>
       <c r="M326" s="5">
@@ -14674,7 +14816,7 @@
       <c r="K327" s="8">
         <v>45741</v>
       </c>
-      <c r="L327" s="5">
+      <c r="L327" s="7">
         <v>0</v>
       </c>
       <c r="M327" s="5">
@@ -14709,7 +14851,7 @@
       <c r="K328" s="8">
         <v>45741</v>
       </c>
-      <c r="L328" s="5">
+      <c r="L328" s="7">
         <v>0</v>
       </c>
       <c r="M328" s="5">
@@ -14744,7 +14886,7 @@
       <c r="K329" s="8">
         <v>45741</v>
       </c>
-      <c r="L329" s="5">
+      <c r="L329" s="7">
         <v>0</v>
       </c>
       <c r="M329" s="5">
@@ -14779,7 +14921,7 @@
       <c r="K330" s="8">
         <v>45741</v>
       </c>
-      <c r="L330" s="5">
+      <c r="L330" s="7">
         <v>0</v>
       </c>
       <c r="M330" s="5">
@@ -14814,7 +14956,7 @@
       <c r="K331" s="8">
         <v>45741</v>
       </c>
-      <c r="L331" s="5">
+      <c r="L331" s="7">
         <v>0</v>
       </c>
       <c r="M331" s="5">
@@ -14849,7 +14991,7 @@
       <c r="K332" s="8">
         <v>45741</v>
       </c>
-      <c r="L332" s="5">
+      <c r="L332" s="7">
         <v>0</v>
       </c>
       <c r="M332" s="5">
@@ -14884,7 +15026,7 @@
       <c r="K333" s="8">
         <v>45741</v>
       </c>
-      <c r="L333" s="5">
+      <c r="L333" s="7">
         <v>0</v>
       </c>
       <c r="M333" s="5">
@@ -14919,7 +15061,7 @@
       <c r="K334" s="8">
         <v>45741</v>
       </c>
-      <c r="L334" s="5">
+      <c r="L334" s="7">
         <v>0</v>
       </c>
       <c r="M334" s="5">
@@ -14954,7 +15096,7 @@
       <c r="K335" s="8">
         <v>45741</v>
       </c>
-      <c r="L335" s="5">
+      <c r="L335" s="7">
         <v>0</v>
       </c>
       <c r="M335" s="5">
@@ -14989,7 +15131,7 @@
       <c r="K336" s="8">
         <v>45741</v>
       </c>
-      <c r="L336" s="5">
+      <c r="L336" s="7">
         <v>0</v>
       </c>
       <c r="M336" s="5">
@@ -15024,7 +15166,7 @@
       <c r="K337" s="8">
         <v>45741</v>
       </c>
-      <c r="L337" s="5">
+      <c r="L337" s="7">
         <v>0</v>
       </c>
       <c r="M337" s="5">
@@ -15059,7 +15201,7 @@
       <c r="K338" s="8">
         <v>45741</v>
       </c>
-      <c r="L338" s="5">
+      <c r="L338" s="7">
         <v>0</v>
       </c>
       <c r="M338" s="5">
@@ -15094,7 +15236,7 @@
       <c r="K339" s="8">
         <v>45741</v>
       </c>
-      <c r="L339" s="5">
+      <c r="L339" s="7">
         <v>0</v>
       </c>
       <c r="M339" s="5">
@@ -15129,7 +15271,7 @@
       <c r="K340" s="8">
         <v>45741</v>
       </c>
-      <c r="L340" s="5">
+      <c r="L340" s="7">
         <v>0</v>
       </c>
       <c r="M340" s="5">
@@ -15164,7 +15306,7 @@
       <c r="K341" s="8">
         <v>45741</v>
       </c>
-      <c r="L341" s="5">
+      <c r="L341" s="7">
         <v>0</v>
       </c>
       <c r="M341" s="5">
@@ -15199,7 +15341,7 @@
       <c r="K342" s="8">
         <v>45741</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="7">
         <v>0</v>
       </c>
       <c r="M342" s="5">
@@ -15234,7 +15376,7 @@
       <c r="K343" s="8">
         <v>45741</v>
       </c>
-      <c r="L343" s="5">
+      <c r="L343" s="7">
         <v>0</v>
       </c>
       <c r="M343" s="5">
@@ -15269,7 +15411,7 @@
       <c r="K344" s="8">
         <v>45741</v>
       </c>
-      <c r="L344" s="5">
+      <c r="L344" s="7">
         <v>0</v>
       </c>
       <c r="M344" s="5">
@@ -15304,7 +15446,7 @@
       <c r="K345" s="8">
         <v>45741</v>
       </c>
-      <c r="L345" s="5">
+      <c r="L345" s="7">
         <v>0</v>
       </c>
       <c r="M345" s="5">
@@ -15339,7 +15481,7 @@
       <c r="K346" s="8">
         <v>45741</v>
       </c>
-      <c r="L346" s="5">
+      <c r="L346" s="7">
         <v>0</v>
       </c>
       <c r="M346" s="5">
@@ -15374,7 +15516,7 @@
       <c r="K347" s="8">
         <v>45741</v>
       </c>
-      <c r="L347" s="5">
+      <c r="L347" s="7">
         <v>0</v>
       </c>
       <c r="M347" s="5">
@@ -15409,7 +15551,7 @@
       <c r="K348" s="8">
         <v>45741</v>
       </c>
-      <c r="L348" s="5">
+      <c r="L348" s="7">
         <v>0</v>
       </c>
       <c r="M348" s="5">
@@ -15444,7 +15586,7 @@
       <c r="K349" s="8">
         <v>45741</v>
       </c>
-      <c r="L349" s="5">
+      <c r="L349" s="7">
         <v>0</v>
       </c>
       <c r="M349" s="5">
@@ -15479,7 +15621,7 @@
       <c r="K350" s="8">
         <v>45741</v>
       </c>
-      <c r="L350" s="5">
+      <c r="L350" s="7">
         <v>0</v>
       </c>
       <c r="M350" s="5">
@@ -15514,7 +15656,7 @@
       <c r="K351" s="8">
         <v>45741</v>
       </c>
-      <c r="L351" s="5">
+      <c r="L351" s="7">
         <v>0</v>
       </c>
       <c r="M351" s="5">
@@ -15549,7 +15691,7 @@
       <c r="K352" s="8">
         <v>45741</v>
       </c>
-      <c r="L352" s="5">
+      <c r="L352" s="7">
         <v>0</v>
       </c>
       <c r="M352" s="5">
@@ -15584,7 +15726,7 @@
       <c r="K353" s="8">
         <v>45741</v>
       </c>
-      <c r="L353" s="5">
+      <c r="L353" s="7">
         <v>0</v>
       </c>
       <c r="M353" s="5">
@@ -15619,7 +15761,7 @@
       <c r="K354" s="8">
         <v>45741</v>
       </c>
-      <c r="L354" s="5">
+      <c r="L354" s="7">
         <v>0</v>
       </c>
       <c r="M354" s="5">
@@ -15654,7 +15796,7 @@
       <c r="K355" s="8">
         <v>45741</v>
       </c>
-      <c r="L355" s="5">
+      <c r="L355" s="7">
         <v>0</v>
       </c>
       <c r="M355" s="5">
@@ -15689,7 +15831,7 @@
       <c r="K356" s="8">
         <v>45741</v>
       </c>
-      <c r="L356" s="5">
+      <c r="L356" s="7">
         <v>0</v>
       </c>
       <c r="M356" s="5">
@@ -15724,7 +15866,7 @@
       <c r="K357" s="8">
         <v>45741</v>
       </c>
-      <c r="L357" s="5">
+      <c r="L357" s="7">
         <v>0</v>
       </c>
       <c r="M357" s="5">
@@ -15759,7 +15901,7 @@
       <c r="K358" s="8">
         <v>45741</v>
       </c>
-      <c r="L358" s="5">
+      <c r="L358" s="7">
         <v>0</v>
       </c>
       <c r="M358" s="5">
@@ -15794,7 +15936,7 @@
       <c r="K359" s="8">
         <v>45741</v>
       </c>
-      <c r="L359" s="5">
+      <c r="L359" s="7">
         <v>0</v>
       </c>
       <c r="M359" s="5">
@@ -15829,7 +15971,7 @@
       <c r="K360" s="8">
         <v>45741</v>
       </c>
-      <c r="L360" s="5">
+      <c r="L360" s="7">
         <v>0</v>
       </c>
       <c r="M360" s="5">
@@ -15864,7 +16006,7 @@
       <c r="K361" s="8">
         <v>45741</v>
       </c>
-      <c r="L361" s="5">
+      <c r="L361" s="7">
         <v>0</v>
       </c>
       <c r="M361" s="5">
@@ -15899,7 +16041,7 @@
       <c r="K362" s="8">
         <v>45741</v>
       </c>
-      <c r="L362" s="5">
+      <c r="L362" s="7">
         <v>0</v>
       </c>
       <c r="M362" s="5">
@@ -15934,7 +16076,7 @@
       <c r="K363" s="8">
         <v>45741</v>
       </c>
-      <c r="L363" s="5">
+      <c r="L363" s="7">
         <v>0</v>
       </c>
       <c r="M363" s="5">
@@ -15969,7 +16111,7 @@
       <c r="K364" s="8">
         <v>45741</v>
       </c>
-      <c r="L364" s="5">
+      <c r="L364" s="7">
         <v>0</v>
       </c>
       <c r="M364" s="5">
@@ -16004,7 +16146,7 @@
       <c r="K365" s="8">
         <v>45741</v>
       </c>
-      <c r="L365" s="5">
+      <c r="L365" s="7">
         <v>0</v>
       </c>
       <c r="M365" s="5">
@@ -16039,7 +16181,7 @@
       <c r="K366" s="8">
         <v>45741</v>
       </c>
-      <c r="L366" s="5">
+      <c r="L366" s="7">
         <v>0</v>
       </c>
       <c r="M366" s="5">
@@ -16074,7 +16216,7 @@
       <c r="K367" s="8">
         <v>45741</v>
       </c>
-      <c r="L367" s="5">
+      <c r="L367" s="7">
         <v>0</v>
       </c>
       <c r="M367" s="5">
@@ -16109,7 +16251,7 @@
       <c r="K368" s="8">
         <v>45741</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="7">
         <v>0</v>
       </c>
       <c r="M368" s="5">
@@ -16144,7 +16286,7 @@
       <c r="K369" s="8">
         <v>45741</v>
       </c>
-      <c r="L369" s="5">
+      <c r="L369" s="7">
         <v>0</v>
       </c>
       <c r="M369" s="5">
@@ -16179,7 +16321,7 @@
       <c r="K370" s="8">
         <v>45741</v>
       </c>
-      <c r="L370" s="5">
+      <c r="L370" s="7">
         <v>0</v>
       </c>
       <c r="M370" s="5">
@@ -16214,7 +16356,7 @@
       <c r="K371" s="8">
         <v>45741</v>
       </c>
-      <c r="L371" s="5">
+      <c r="L371" s="7">
         <v>0</v>
       </c>
       <c r="M371" s="5">
@@ -16249,7 +16391,7 @@
       <c r="K372" s="8">
         <v>45741</v>
       </c>
-      <c r="L372" s="5">
+      <c r="L372" s="7">
         <v>0</v>
       </c>
       <c r="M372" s="5">
@@ -16284,7 +16426,7 @@
       <c r="K373" s="8">
         <v>45741</v>
       </c>
-      <c r="L373" s="5">
+      <c r="L373" s="7">
         <v>0</v>
       </c>
       <c r="M373" s="5">
@@ -16319,7 +16461,7 @@
       <c r="K374" s="8">
         <v>45741</v>
       </c>
-      <c r="L374" s="5">
+      <c r="L374" s="7">
         <v>0</v>
       </c>
       <c r="M374" s="5">
@@ -16354,7 +16496,7 @@
       <c r="K375" s="8">
         <v>45741</v>
       </c>
-      <c r="L375" s="5">
+      <c r="L375" s="7">
         <v>0</v>
       </c>
       <c r="M375" s="5">
@@ -16389,7 +16531,7 @@
       <c r="K376" s="8">
         <v>45741</v>
       </c>
-      <c r="L376" s="5">
+      <c r="L376" s="7">
         <v>0</v>
       </c>
       <c r="M376" s="5">
@@ -16424,7 +16566,7 @@
       <c r="K377" s="8">
         <v>45741</v>
       </c>
-      <c r="L377" s="5">
+      <c r="L377" s="7">
         <v>0</v>
       </c>
       <c r="M377" s="5">
@@ -16459,7 +16601,7 @@
       <c r="K378" s="8">
         <v>45741</v>
       </c>
-      <c r="L378" s="5">
+      <c r="L378" s="7">
         <v>0</v>
       </c>
       <c r="M378" s="5">
@@ -16494,7 +16636,7 @@
       <c r="K379" s="8">
         <v>45741</v>
       </c>
-      <c r="L379" s="5">
+      <c r="L379" s="7">
         <v>0</v>
       </c>
       <c r="M379" s="5">
@@ -16529,7 +16671,7 @@
       <c r="K380" s="8">
         <v>45741</v>
       </c>
-      <c r="L380" s="5">
+      <c r="L380" s="7">
         <v>0</v>
       </c>
       <c r="M380" s="5">
@@ -16564,7 +16706,7 @@
       <c r="K381" s="8">
         <v>45741</v>
       </c>
-      <c r="L381" s="5">
+      <c r="L381" s="7">
         <v>0</v>
       </c>
       <c r="M381" s="5">
@@ -16599,7 +16741,7 @@
       <c r="K382" s="8">
         <v>45741</v>
       </c>
-      <c r="L382" s="5">
+      <c r="L382" s="7">
         <v>0</v>
       </c>
       <c r="M382" s="5">
@@ -16634,7 +16776,7 @@
       <c r="K383" s="8">
         <v>45741</v>
       </c>
-      <c r="L383" s="5">
+      <c r="L383" s="7">
         <v>0</v>
       </c>
       <c r="M383" s="5">
@@ -16669,7 +16811,7 @@
       <c r="K384" s="8">
         <v>45741</v>
       </c>
-      <c r="L384" s="5">
+      <c r="L384" s="7">
         <v>0</v>
       </c>
       <c r="M384" s="5">
@@ -16704,7 +16846,7 @@
       <c r="K385" s="8">
         <v>45741</v>
       </c>
-      <c r="L385" s="5">
+      <c r="L385" s="7">
         <v>0</v>
       </c>
       <c r="M385" s="5">
@@ -16739,7 +16881,7 @@
       <c r="K386" s="8">
         <v>45741</v>
       </c>
-      <c r="L386" s="5">
+      <c r="L386" s="7">
         <v>0</v>
       </c>
       <c r="M386" s="5">
@@ -16774,7 +16916,7 @@
       <c r="K387" s="8">
         <v>45741</v>
       </c>
-      <c r="L387" s="5">
+      <c r="L387" s="7">
         <v>0</v>
       </c>
       <c r="M387" s="5">
@@ -16809,7 +16951,7 @@
       <c r="K388" s="8">
         <v>45741</v>
       </c>
-      <c r="L388" s="5">
+      <c r="L388" s="7">
         <v>0</v>
       </c>
       <c r="M388" s="5">
@@ -16844,7 +16986,7 @@
       <c r="K389" s="8">
         <v>45741</v>
       </c>
-      <c r="L389" s="5">
+      <c r="L389" s="7">
         <v>0</v>
       </c>
       <c r="M389" s="5">
@@ -16879,7 +17021,7 @@
       <c r="K390" s="8">
         <v>45741</v>
       </c>
-      <c r="L390" s="5">
+      <c r="L390" s="7">
         <v>0</v>
       </c>
       <c r="M390" s="5">
@@ -16914,7 +17056,7 @@
       <c r="K391" s="8">
         <v>45741</v>
       </c>
-      <c r="L391" s="5">
+      <c r="L391" s="7">
         <v>0</v>
       </c>
       <c r="M391" s="5">
@@ -16949,7 +17091,7 @@
       <c r="K392" s="8">
         <v>45741</v>
       </c>
-      <c r="L392" s="5">
+      <c r="L392" s="7">
         <v>0</v>
       </c>
       <c r="M392" s="5">
@@ -16984,7 +17126,7 @@
       <c r="K393" s="8">
         <v>45741</v>
       </c>
-      <c r="L393" s="5">
+      <c r="L393" s="7">
         <v>0</v>
       </c>
       <c r="M393" s="5">
@@ -17019,7 +17161,7 @@
       <c r="K394" s="8">
         <v>45741</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="7">
         <v>0</v>
       </c>
       <c r="M394" s="5">
@@ -17054,7 +17196,7 @@
       <c r="K395" s="8">
         <v>45741</v>
       </c>
-      <c r="L395" s="5">
+      <c r="L395" s="7">
         <v>0</v>
       </c>
       <c r="M395" s="5">
@@ -17089,7 +17231,7 @@
       <c r="K396" s="8">
         <v>45741</v>
       </c>
-      <c r="L396" s="5">
+      <c r="L396" s="7">
         <v>0</v>
       </c>
       <c r="M396" s="5">
@@ -17124,7 +17266,7 @@
       <c r="K397" s="8">
         <v>45741</v>
       </c>
-      <c r="L397" s="5">
+      <c r="L397" s="7">
         <v>0</v>
       </c>
       <c r="M397" s="5">
@@ -17159,7 +17301,7 @@
       <c r="K398" s="8">
         <v>45741</v>
       </c>
-      <c r="L398" s="5">
+      <c r="L398" s="7">
         <v>0</v>
       </c>
       <c r="M398" s="5">
@@ -17194,7 +17336,7 @@
       <c r="K399" s="8">
         <v>45741</v>
       </c>
-      <c r="L399" s="5">
+      <c r="L399" s="7">
         <v>0</v>
       </c>
       <c r="M399" s="5">
@@ -17229,7 +17371,7 @@
       <c r="K400" s="8">
         <v>45741</v>
       </c>
-      <c r="L400" s="5">
+      <c r="L400" s="7">
         <v>0</v>
       </c>
       <c r="M400" s="5">
@@ -17264,7 +17406,7 @@
       <c r="K401" s="8">
         <v>45741</v>
       </c>
-      <c r="L401" s="5">
+      <c r="L401" s="7">
         <v>0</v>
       </c>
       <c r="M401" s="5">
@@ -17299,7 +17441,7 @@
       <c r="K402" s="8">
         <v>45741</v>
       </c>
-      <c r="L402" s="5">
+      <c r="L402" s="7">
         <v>0</v>
       </c>
       <c r="M402" s="5">
@@ -17334,7 +17476,7 @@
       <c r="K403" s="8">
         <v>45741</v>
       </c>
-      <c r="L403" s="5">
+      <c r="L403" s="7">
         <v>0</v>
       </c>
       <c r="M403" s="5">
@@ -17369,7 +17511,7 @@
       <c r="K404" s="8">
         <v>45741</v>
       </c>
-      <c r="L404" s="5">
+      <c r="L404" s="7">
         <v>0</v>
       </c>
       <c r="M404" s="5">
@@ -17404,7 +17546,7 @@
       <c r="K405" s="8">
         <v>45741</v>
       </c>
-      <c r="L405" s="5">
+      <c r="L405" s="7">
         <v>0</v>
       </c>
       <c r="M405" s="5">
@@ -17439,7 +17581,7 @@
       <c r="K406" s="8">
         <v>45741</v>
       </c>
-      <c r="L406" s="5">
+      <c r="L406" s="7">
         <v>0</v>
       </c>
       <c r="M406" s="5">
@@ -17474,7 +17616,7 @@
       <c r="K407" s="8">
         <v>45741</v>
       </c>
-      <c r="L407" s="5">
+      <c r="L407" s="7">
         <v>0</v>
       </c>
       <c r="M407" s="5">
@@ -17509,7 +17651,7 @@
       <c r="K408" s="8">
         <v>45741</v>
       </c>
-      <c r="L408" s="5">
+      <c r="L408" s="7">
         <v>0</v>
       </c>
       <c r="M408" s="5">
@@ -17544,7 +17686,7 @@
       <c r="K409" s="8">
         <v>45741</v>
       </c>
-      <c r="L409" s="5">
+      <c r="L409" s="7">
         <v>0</v>
       </c>
       <c r="M409" s="5">
@@ -17579,7 +17721,7 @@
       <c r="K410" s="8">
         <v>45741</v>
       </c>
-      <c r="L410" s="5">
+      <c r="L410" s="7">
         <v>0</v>
       </c>
       <c r="M410" s="5">
@@ -17614,7 +17756,7 @@
       <c r="K411" s="8">
         <v>45741</v>
       </c>
-      <c r="L411" s="5">
+      <c r="L411" s="7">
         <v>0</v>
       </c>
       <c r="M411" s="5">
@@ -17649,7 +17791,7 @@
       <c r="K412" s="8">
         <v>45741</v>
       </c>
-      <c r="L412" s="5">
+      <c r="L412" s="7">
         <v>0</v>
       </c>
       <c r="M412" s="5">
@@ -17684,7 +17826,7 @@
       <c r="K413" s="8">
         <v>45741</v>
       </c>
-      <c r="L413" s="5">
+      <c r="L413" s="7">
         <v>0</v>
       </c>
       <c r="M413" s="5">
@@ -17719,7 +17861,7 @@
       <c r="K414" s="8">
         <v>45741</v>
       </c>
-      <c r="L414" s="5">
+      <c r="L414" s="7">
         <v>0</v>
       </c>
       <c r="M414" s="5">
@@ -17754,7 +17896,7 @@
       <c r="K415" s="8">
         <v>45741</v>
       </c>
-      <c r="L415" s="5">
+      <c r="L415" s="7">
         <v>0</v>
       </c>
       <c r="M415" s="5">
@@ -17789,7 +17931,7 @@
       <c r="K416" s="8">
         <v>45741</v>
       </c>
-      <c r="L416" s="5">
+      <c r="L416" s="7">
         <v>0</v>
       </c>
       <c r="M416" s="5">
@@ -17824,7 +17966,7 @@
       <c r="K417" s="8">
         <v>45741</v>
       </c>
-      <c r="L417" s="5">
+      <c r="L417" s="7">
         <v>0</v>
       </c>
       <c r="M417" s="5">
@@ -17859,7 +18001,7 @@
       <c r="K418" s="8">
         <v>45741</v>
       </c>
-      <c r="L418" s="5">
+      <c r="L418" s="7">
         <v>0</v>
       </c>
       <c r="M418" s="5">
@@ -17894,7 +18036,7 @@
       <c r="K419" s="8">
         <v>45741</v>
       </c>
-      <c r="L419" s="5">
+      <c r="L419" s="7">
         <v>0</v>
       </c>
       <c r="M419" s="5">
@@ -17929,7 +18071,7 @@
       <c r="K420" s="8">
         <v>45741</v>
       </c>
-      <c r="L420" s="5">
+      <c r="L420" s="7">
         <v>0</v>
       </c>
       <c r="M420" s="5">
@@ -17964,7 +18106,7 @@
       <c r="K421" s="8">
         <v>45741</v>
       </c>
-      <c r="L421" s="5">
+      <c r="L421" s="7">
         <v>0</v>
       </c>
       <c r="M421" s="5">
@@ -17999,7 +18141,7 @@
       <c r="K422" s="8">
         <v>45741</v>
       </c>
-      <c r="L422" s="5">
+      <c r="L422" s="7">
         <v>0</v>
       </c>
       <c r="M422" s="5">
@@ -18034,7 +18176,7 @@
       <c r="K423" s="8">
         <v>45741</v>
       </c>
-      <c r="L423" s="5">
+      <c r="L423" s="7">
         <v>0</v>
       </c>
       <c r="M423" s="5">
@@ -18069,7 +18211,7 @@
       <c r="K424" s="8">
         <v>45741</v>
       </c>
-      <c r="L424" s="5">
+      <c r="L424" s="7">
         <v>0</v>
       </c>
       <c r="M424" s="5">
@@ -18104,7 +18246,7 @@
       <c r="K425" s="8">
         <v>45741</v>
       </c>
-      <c r="L425" s="5">
+      <c r="L425" s="7">
         <v>0</v>
       </c>
       <c r="M425" s="5">
@@ -18139,7 +18281,7 @@
       <c r="K426" s="8">
         <v>45741</v>
       </c>
-      <c r="L426" s="5">
+      <c r="L426" s="7">
         <v>0</v>
       </c>
       <c r="M426" s="5">
@@ -18174,7 +18316,7 @@
       <c r="K427" s="8">
         <v>45741</v>
       </c>
-      <c r="L427" s="5">
+      <c r="L427" s="7">
         <v>0</v>
       </c>
       <c r="M427" s="5">
@@ -18209,7 +18351,7 @@
       <c r="K428" s="8">
         <v>45741</v>
       </c>
-      <c r="L428" s="5">
+      <c r="L428" s="7">
         <v>0</v>
       </c>
       <c r="M428" s="5">
@@ -18244,7 +18386,7 @@
       <c r="K429" s="8">
         <v>45741</v>
       </c>
-      <c r="L429" s="5">
+      <c r="L429" s="7">
         <v>0</v>
       </c>
       <c r="M429" s="5">
@@ -18279,7 +18421,7 @@
       <c r="K430" s="8">
         <v>45741</v>
       </c>
-      <c r="L430" s="5">
+      <c r="L430" s="7">
         <v>0</v>
       </c>
       <c r="M430" s="5">
@@ -18314,7 +18456,7 @@
       <c r="K431" s="8">
         <v>45741</v>
       </c>
-      <c r="L431" s="5">
+      <c r="L431" s="7">
         <v>0</v>
       </c>
       <c r="M431" s="5">
@@ -18349,7 +18491,7 @@
       <c r="K432" s="8">
         <v>45741</v>
       </c>
-      <c r="L432" s="5">
+      <c r="L432" s="7">
         <v>0</v>
       </c>
       <c r="M432" s="5">
@@ -18384,7 +18526,7 @@
       <c r="K433" s="8">
         <v>45741</v>
       </c>
-      <c r="L433" s="5">
+      <c r="L433" s="7">
         <v>0</v>
       </c>
       <c r="M433" s="5">
@@ -18419,7 +18561,7 @@
       <c r="K434" s="8">
         <v>45741</v>
       </c>
-      <c r="L434" s="5">
+      <c r="L434" s="7">
         <v>0</v>
       </c>
       <c r="M434" s="5">
@@ -18454,7 +18596,7 @@
       <c r="K435" s="8">
         <v>45741</v>
       </c>
-      <c r="L435" s="5">
+      <c r="L435" s="7">
         <v>0</v>
       </c>
       <c r="M435" s="5">
@@ -18489,7 +18631,7 @@
       <c r="K436" s="8">
         <v>45741</v>
       </c>
-      <c r="L436" s="5">
+      <c r="L436" s="7">
         <v>0</v>
       </c>
       <c r="M436" s="5">
@@ -18524,7 +18666,7 @@
       <c r="K437" s="8">
         <v>45741</v>
       </c>
-      <c r="L437" s="5">
+      <c r="L437" s="7">
         <v>0</v>
       </c>
       <c r="M437" s="5">
@@ -18559,7 +18701,7 @@
       <c r="K438" s="8">
         <v>45741</v>
       </c>
-      <c r="L438" s="5">
+      <c r="L438" s="7">
         <v>0</v>
       </c>
       <c r="M438" s="5">
@@ -18594,7 +18736,7 @@
       <c r="K439" s="8">
         <v>45741</v>
       </c>
-      <c r="L439" s="5">
+      <c r="L439" s="7">
         <v>0</v>
       </c>
       <c r="M439" s="5">
@@ -18629,7 +18771,7 @@
       <c r="K440" s="8">
         <v>45741</v>
       </c>
-      <c r="L440" s="5">
+      <c r="L440" s="7">
         <v>0</v>
       </c>
       <c r="M440" s="5">
@@ -18664,7 +18806,7 @@
       <c r="K441" s="8">
         <v>45741</v>
       </c>
-      <c r="L441" s="5">
+      <c r="L441" s="7">
         <v>0</v>
       </c>
       <c r="M441" s="5">
@@ -18699,7 +18841,7 @@
       <c r="K442" s="8">
         <v>45741</v>
       </c>
-      <c r="L442" s="5">
+      <c r="L442" s="7">
         <v>0</v>
       </c>
       <c r="M442" s="5">
@@ -18734,7 +18876,7 @@
       <c r="K443" s="8">
         <v>45741</v>
       </c>
-      <c r="L443" s="5">
+      <c r="L443" s="7">
         <v>0</v>
       </c>
       <c r="M443" s="5">
@@ -18769,7 +18911,7 @@
       <c r="K444" s="8">
         <v>45741</v>
       </c>
-      <c r="L444" s="5">
+      <c r="L444" s="7">
         <v>0</v>
       </c>
       <c r="M444" s="5">
@@ -18804,7 +18946,7 @@
       <c r="K445" s="8">
         <v>45741</v>
       </c>
-      <c r="L445" s="5">
+      <c r="L445" s="7">
         <v>0</v>
       </c>
       <c r="M445" s="5">
@@ -18839,7 +18981,7 @@
       <c r="K446" s="8">
         <v>45741</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="7">
         <v>0</v>
       </c>
       <c r="M446" s="5">
@@ -18874,7 +19016,7 @@
       <c r="K447" s="8">
         <v>45741</v>
       </c>
-      <c r="L447" s="5">
+      <c r="L447" s="7">
         <v>0</v>
       </c>
       <c r="M447" s="5">
@@ -18909,7 +19051,7 @@
       <c r="K448" s="8">
         <v>45741</v>
       </c>
-      <c r="L448" s="5">
+      <c r="L448" s="7">
         <v>0</v>
       </c>
       <c r="M448" s="5">
@@ -18944,7 +19086,7 @@
       <c r="K449" s="8">
         <v>45741</v>
       </c>
-      <c r="L449" s="5">
+      <c r="L449" s="7">
         <v>0</v>
       </c>
       <c r="M449" s="5">
@@ -18979,7 +19121,7 @@
       <c r="K450" s="8">
         <v>45741</v>
       </c>
-      <c r="L450" s="5">
+      <c r="L450" s="7">
         <v>0</v>
       </c>
       <c r="M450" s="5">
@@ -19014,7 +19156,7 @@
       <c r="K451" s="8">
         <v>45741</v>
       </c>
-      <c r="L451" s="5">
+      <c r="L451" s="7">
         <v>0</v>
       </c>
       <c r="M451" s="5">
@@ -19049,7 +19191,7 @@
       <c r="K452" s="8">
         <v>45741</v>
       </c>
-      <c r="L452" s="5">
+      <c r="L452" s="7">
         <v>0</v>
       </c>
       <c r="M452" s="5">
@@ -19084,7 +19226,7 @@
       <c r="K453" s="8">
         <v>45741</v>
       </c>
-      <c r="L453" s="5">
+      <c r="L453" s="7">
         <v>0</v>
       </c>
       <c r="M453" s="5">
@@ -19119,7 +19261,7 @@
       <c r="K454" s="8">
         <v>45741</v>
       </c>
-      <c r="L454" s="5">
+      <c r="L454" s="7">
         <v>0</v>
       </c>
       <c r="M454" s="5">
@@ -19154,7 +19296,7 @@
       <c r="K455" s="8">
         <v>45741</v>
       </c>
-      <c r="L455" s="5">
+      <c r="L455" s="7">
         <v>0</v>
       </c>
       <c r="M455" s="5">
@@ -19189,7 +19331,7 @@
       <c r="K456" s="8">
         <v>45741</v>
       </c>
-      <c r="L456" s="5">
+      <c r="L456" s="7">
         <v>0</v>
       </c>
       <c r="M456" s="5">
@@ -19224,7 +19366,7 @@
       <c r="K457" s="8">
         <v>45741</v>
       </c>
-      <c r="L457" s="5">
+      <c r="L457" s="7">
         <v>0</v>
       </c>
       <c r="M457" s="5">
@@ -19259,7 +19401,7 @@
       <c r="K458" s="8">
         <v>45741</v>
       </c>
-      <c r="L458" s="5">
+      <c r="L458" s="7">
         <v>0</v>
       </c>
       <c r="M458" s="5">
@@ -19294,7 +19436,7 @@
       <c r="K459" s="8">
         <v>45741</v>
       </c>
-      <c r="L459" s="5">
+      <c r="L459" s="7">
         <v>0</v>
       </c>
       <c r="M459" s="5">
@@ -19329,7 +19471,7 @@
       <c r="K460" s="8">
         <v>45741</v>
       </c>
-      <c r="L460" s="5">
+      <c r="L460" s="7">
         <v>0</v>
       </c>
       <c r="M460" s="5">
@@ -19364,7 +19506,7 @@
       <c r="K461" s="8">
         <v>45741</v>
       </c>
-      <c r="L461" s="5">
+      <c r="L461" s="7">
         <v>0</v>
       </c>
       <c r="M461" s="5">
@@ -19399,7 +19541,7 @@
       <c r="K462" s="8">
         <v>45741</v>
       </c>
-      <c r="L462" s="5">
+      <c r="L462" s="7">
         <v>0</v>
       </c>
       <c r="M462" s="5">
@@ -19434,7 +19576,7 @@
       <c r="K463" s="8">
         <v>45741</v>
       </c>
-      <c r="L463" s="5">
+      <c r="L463" s="7">
         <v>0</v>
       </c>
       <c r="M463" s="5">
@@ -19469,7 +19611,7 @@
       <c r="K464" s="8">
         <v>45741</v>
       </c>
-      <c r="L464" s="5">
+      <c r="L464" s="7">
         <v>0</v>
       </c>
       <c r="M464" s="5">
@@ -19504,7 +19646,7 @@
       <c r="K465" s="8">
         <v>45741</v>
       </c>
-      <c r="L465" s="5">
+      <c r="L465" s="7">
         <v>0</v>
       </c>
       <c r="M465" s="5">
@@ -19539,7 +19681,7 @@
       <c r="K466" s="8">
         <v>45741</v>
       </c>
-      <c r="L466" s="5">
+      <c r="L466" s="7">
         <v>0</v>
       </c>
       <c r="M466" s="5">
@@ -19574,7 +19716,7 @@
       <c r="K467" s="8">
         <v>45741</v>
       </c>
-      <c r="L467" s="5">
+      <c r="L467" s="7">
         <v>0</v>
       </c>
       <c r="M467" s="5">
@@ -19609,7 +19751,7 @@
       <c r="K468" s="8">
         <v>45741</v>
       </c>
-      <c r="L468" s="5">
+      <c r="L468" s="7">
         <v>0</v>
       </c>
       <c r="M468" s="5">
@@ -19644,7 +19786,7 @@
       <c r="K469" s="8">
         <v>45741</v>
       </c>
-      <c r="L469" s="5">
+      <c r="L469" s="7">
         <v>0</v>
       </c>
       <c r="M469" s="5">
@@ -19679,7 +19821,7 @@
       <c r="K470" s="8">
         <v>45741</v>
       </c>
-      <c r="L470" s="5">
+      <c r="L470" s="7">
         <v>0</v>
       </c>
       <c r="M470" s="5">
@@ -19714,7 +19856,7 @@
       <c r="K471" s="8">
         <v>45741</v>
       </c>
-      <c r="L471" s="5">
+      <c r="L471" s="7">
         <v>0</v>
       </c>
       <c r="M471" s="5">
@@ -19749,7 +19891,7 @@
       <c r="K472" s="8">
         <v>45741</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="7">
         <v>0</v>
       </c>
       <c r="M472" s="5">
@@ -19784,7 +19926,7 @@
       <c r="K473" s="8">
         <v>45741</v>
       </c>
-      <c r="L473" s="5">
+      <c r="L473" s="7">
         <v>0</v>
       </c>
       <c r="M473" s="5">
@@ -19819,7 +19961,7 @@
       <c r="K474" s="8">
         <v>45741</v>
       </c>
-      <c r="L474" s="5">
+      <c r="L474" s="7">
         <v>0</v>
       </c>
       <c r="M474" s="5">
@@ -19854,7 +19996,7 @@
       <c r="K475" s="8">
         <v>45741</v>
       </c>
-      <c r="L475" s="5">
+      <c r="L475" s="7">
         <v>0</v>
       </c>
       <c r="M475" s="5">
@@ -19889,7 +20031,7 @@
       <c r="K476" s="8">
         <v>45741</v>
       </c>
-      <c r="L476" s="5">
+      <c r="L476" s="7">
         <v>0</v>
       </c>
       <c r="M476" s="5">
@@ -19924,7 +20066,7 @@
       <c r="K477" s="8">
         <v>45741</v>
       </c>
-      <c r="L477" s="5">
+      <c r="L477" s="7">
         <v>0</v>
       </c>
       <c r="M477" s="5">
@@ -19959,7 +20101,7 @@
       <c r="K478" s="8">
         <v>45741</v>
       </c>
-      <c r="L478" s="5">
+      <c r="L478" s="7">
         <v>0</v>
       </c>
       <c r="M478" s="5">
@@ -19994,7 +20136,7 @@
       <c r="K479" s="8">
         <v>45741</v>
       </c>
-      <c r="L479" s="5">
+      <c r="L479" s="7">
         <v>0</v>
       </c>
       <c r="M479" s="5">
@@ -20029,7 +20171,7 @@
       <c r="K480" s="8">
         <v>45741</v>
       </c>
-      <c r="L480" s="5">
+      <c r="L480" s="7">
         <v>0</v>
       </c>
       <c r="M480" s="5">
@@ -20064,7 +20206,7 @@
       <c r="K481" s="8">
         <v>45741</v>
       </c>
-      <c r="L481" s="5">
+      <c r="L481" s="7">
         <v>0</v>
       </c>
       <c r="M481" s="5">
@@ -20099,7 +20241,7 @@
       <c r="K482" s="8">
         <v>45741</v>
       </c>
-      <c r="L482" s="5">
+      <c r="L482" s="7">
         <v>0</v>
       </c>
       <c r="M482" s="5">
@@ -20134,7 +20276,7 @@
       <c r="K483" s="8">
         <v>45741</v>
       </c>
-      <c r="L483" s="5">
+      <c r="L483" s="7">
         <v>0</v>
       </c>
       <c r="M483" s="5">
@@ -20169,7 +20311,7 @@
       <c r="K484" s="8">
         <v>45741</v>
       </c>
-      <c r="L484" s="5">
+      <c r="L484" s="7">
         <v>0</v>
       </c>
       <c r="M484" s="5">
@@ -20204,7 +20346,7 @@
       <c r="K485" s="8">
         <v>45741</v>
       </c>
-      <c r="L485" s="5">
+      <c r="L485" s="7">
         <v>0</v>
       </c>
       <c r="M485" s="5">
@@ -20239,7 +20381,7 @@
       <c r="K486" s="8">
         <v>45741</v>
       </c>
-      <c r="L486" s="5">
+      <c r="L486" s="7">
         <v>0</v>
       </c>
       <c r="M486" s="5">
@@ -20274,7 +20416,7 @@
       <c r="K487" s="8">
         <v>45741</v>
       </c>
-      <c r="L487" s="5">
+      <c r="L487" s="7">
         <v>0</v>
       </c>
       <c r="M487" s="5">
@@ -20309,7 +20451,7 @@
       <c r="K488" s="8">
         <v>45741</v>
       </c>
-      <c r="L488" s="5">
+      <c r="L488" s="7">
         <v>0</v>
       </c>
       <c r="M488" s="5">
@@ -20344,7 +20486,7 @@
       <c r="K489" s="8">
         <v>45741</v>
       </c>
-      <c r="L489" s="5">
+      <c r="L489" s="7">
         <v>0</v>
       </c>
       <c r="M489" s="5">
@@ -20379,7 +20521,7 @@
       <c r="K490" s="8">
         <v>45741</v>
       </c>
-      <c r="L490" s="5">
+      <c r="L490" s="7">
         <v>0</v>
       </c>
       <c r="M490" s="5">
@@ -20414,7 +20556,7 @@
       <c r="K491" s="8">
         <v>45741</v>
       </c>
-      <c r="L491" s="5">
+      <c r="L491" s="7">
         <v>0</v>
       </c>
       <c r="M491" s="5">
@@ -20449,7 +20591,7 @@
       <c r="K492" s="8">
         <v>45741</v>
       </c>
-      <c r="L492" s="5">
+      <c r="L492" s="7">
         <v>0</v>
       </c>
       <c r="M492" s="5">
@@ -20484,7 +20626,7 @@
       <c r="K493" s="8">
         <v>45741</v>
       </c>
-      <c r="L493" s="5">
+      <c r="L493" s="7">
         <v>0</v>
       </c>
       <c r="M493" s="5">
@@ -20519,7 +20661,7 @@
       <c r="K494" s="8">
         <v>45741</v>
       </c>
-      <c r="L494" s="5">
+      <c r="L494" s="7">
         <v>0</v>
       </c>
       <c r="M494" s="5">
@@ -20554,7 +20696,7 @@
       <c r="K495" s="8">
         <v>45741</v>
       </c>
-      <c r="L495" s="5">
+      <c r="L495" s="7">
         <v>0</v>
       </c>
       <c r="M495" s="5">
@@ -20589,7 +20731,7 @@
       <c r="K496" s="8">
         <v>45741</v>
       </c>
-      <c r="L496" s="5">
+      <c r="L496" s="7">
         <v>0</v>
       </c>
       <c r="M496" s="5">
@@ -20624,7 +20766,7 @@
       <c r="K497" s="8">
         <v>45741</v>
       </c>
-      <c r="L497" s="5">
+      <c r="L497" s="7">
         <v>0</v>
       </c>
       <c r="M497" s="5">
@@ -20659,7 +20801,7 @@
       <c r="K498" s="8">
         <v>45741</v>
       </c>
-      <c r="L498" s="5">
+      <c r="L498" s="7">
         <v>0</v>
       </c>
       <c r="M498" s="5">
@@ -20694,7 +20836,7 @@
       <c r="K499" s="8">
         <v>45741</v>
       </c>
-      <c r="L499" s="5">
+      <c r="L499" s="7">
         <v>0</v>
       </c>
       <c r="M499" s="5">
@@ -20729,7 +20871,7 @@
       <c r="K500" s="8">
         <v>45741</v>
       </c>
-      <c r="L500" s="5">
+      <c r="L500" s="7">
         <v>0</v>
       </c>
       <c r="M500" s="5">
@@ -20764,7 +20906,7 @@
       <c r="K501" s="8">
         <v>45741</v>
       </c>
-      <c r="L501" s="5">
+      <c r="L501" s="7">
         <v>0</v>
       </c>
       <c r="M501" s="5">
@@ -20799,7 +20941,7 @@
       <c r="K502" s="8">
         <v>45741</v>
       </c>
-      <c r="L502" s="5">
+      <c r="L502" s="7">
         <v>0</v>
       </c>
       <c r="M502" s="5">
@@ -20834,7 +20976,7 @@
       <c r="K503" s="8">
         <v>45741</v>
       </c>
-      <c r="L503" s="5">
+      <c r="L503" s="7">
         <v>0</v>
       </c>
       <c r="M503" s="5">
@@ -20869,7 +21011,7 @@
       <c r="K504" s="8">
         <v>45741</v>
       </c>
-      <c r="L504" s="5">
+      <c r="L504" s="7">
         <v>0</v>
       </c>
       <c r="M504" s="5">
@@ -20904,7 +21046,7 @@
       <c r="K505" s="8">
         <v>45741</v>
       </c>
-      <c r="L505" s="5">
+      <c r="L505" s="7">
         <v>0</v>
       </c>
       <c r="M505" s="5">
@@ -20939,7 +21081,7 @@
       <c r="K506" s="8">
         <v>45741</v>
       </c>
-      <c r="L506" s="5">
+      <c r="L506" s="7">
         <v>0</v>
       </c>
       <c r="M506" s="5">
@@ -20974,7 +21116,7 @@
       <c r="K507" s="8">
         <v>45741</v>
       </c>
-      <c r="L507" s="5">
+      <c r="L507" s="7">
         <v>0</v>
       </c>
       <c r="M507" s="5">
@@ -21009,7 +21151,7 @@
       <c r="K508" s="8">
         <v>45741</v>
       </c>
-      <c r="L508" s="5">
+      <c r="L508" s="7">
         <v>0</v>
       </c>
       <c r="M508" s="5">
@@ -21044,7 +21186,7 @@
       <c r="K509" s="8">
         <v>45741</v>
       </c>
-      <c r="L509" s="5">
+      <c r="L509" s="7">
         <v>0</v>
       </c>
       <c r="M509" s="5">
@@ -21079,7 +21221,7 @@
       <c r="K510" s="8">
         <v>45741</v>
       </c>
-      <c r="L510" s="5">
+      <c r="L510" s="7">
         <v>0</v>
       </c>
       <c r="M510" s="5">
@@ -21114,7 +21256,7 @@
       <c r="K511" s="8">
         <v>45741</v>
       </c>
-      <c r="L511" s="5">
+      <c r="L511" s="7">
         <v>0</v>
       </c>
       <c r="M511" s="5">
@@ -21149,7 +21291,7 @@
       <c r="K512" s="8">
         <v>45741</v>
       </c>
-      <c r="L512" s="5">
+      <c r="L512" s="7">
         <v>0</v>
       </c>
       <c r="M512" s="5">
@@ -21184,7 +21326,7 @@
       <c r="K513" s="8">
         <v>45741</v>
       </c>
-      <c r="L513" s="5">
+      <c r="L513" s="7">
         <v>0</v>
       </c>
       <c r="M513" s="5">
@@ -21219,7 +21361,7 @@
       <c r="K514" s="8">
         <v>45741</v>
       </c>
-      <c r="L514" s="5">
+      <c r="L514" s="7">
         <v>0</v>
       </c>
       <c r="M514" s="5">
@@ -21254,7 +21396,7 @@
       <c r="K515" s="8">
         <v>45741</v>
       </c>
-      <c r="L515" s="5">
+      <c r="L515" s="7">
         <v>0</v>
       </c>
       <c r="M515" s="5">
@@ -21289,7 +21431,7 @@
       <c r="K516" s="8">
         <v>45741</v>
       </c>
-      <c r="L516" s="5">
+      <c r="L516" s="7">
         <v>0</v>
       </c>
       <c r="M516" s="5">
@@ -21324,7 +21466,7 @@
       <c r="K517" s="8">
         <v>45741</v>
       </c>
-      <c r="L517" s="5">
+      <c r="L517" s="7">
         <v>0</v>
       </c>
       <c r="M517" s="5">
@@ -21359,7 +21501,7 @@
       <c r="K518" s="8">
         <v>45741</v>
       </c>
-      <c r="L518" s="5">
+      <c r="L518" s="7">
         <v>0</v>
       </c>
       <c r="M518" s="5">
@@ -21394,7 +21536,7 @@
       <c r="K519" s="8">
         <v>45741</v>
       </c>
-      <c r="L519" s="5">
+      <c r="L519" s="7">
         <v>0</v>
       </c>
       <c r="M519" s="5">
@@ -21429,7 +21571,7 @@
       <c r="K520" s="8">
         <v>45741</v>
       </c>
-      <c r="L520" s="5">
+      <c r="L520" s="7">
         <v>0</v>
       </c>
       <c r="M520" s="5">
@@ -21464,7 +21606,7 @@
       <c r="K521" s="8">
         <v>45741</v>
       </c>
-      <c r="L521" s="5">
+      <c r="L521" s="7">
         <v>0</v>
       </c>
       <c r="M521" s="5">
@@ -21499,7 +21641,7 @@
       <c r="K522" s="8">
         <v>45741</v>
       </c>
-      <c r="L522" s="5">
+      <c r="L522" s="7">
         <v>0</v>
       </c>
       <c r="M522" s="5">
@@ -21534,7 +21676,7 @@
       <c r="K523" s="8">
         <v>45741</v>
       </c>
-      <c r="L523" s="5">
+      <c r="L523" s="7">
         <v>0</v>
       </c>
       <c r="M523" s="5">
@@ -21569,7 +21711,7 @@
       <c r="K524" s="8">
         <v>45741</v>
       </c>
-      <c r="L524" s="5">
+      <c r="L524" s="7">
         <v>0</v>
       </c>
       <c r="M524" s="5">
@@ -21604,7 +21746,7 @@
       <c r="K525" s="8">
         <v>45741</v>
       </c>
-      <c r="L525" s="5">
+      <c r="L525" s="7">
         <v>0</v>
       </c>
       <c r="M525" s="5">
@@ -21639,7 +21781,7 @@
       <c r="K526" s="8">
         <v>45741</v>
       </c>
-      <c r="L526" s="5">
+      <c r="L526" s="7">
         <v>0</v>
       </c>
       <c r="M526" s="5">
@@ -21674,7 +21816,7 @@
       <c r="K527" s="8">
         <v>45741</v>
       </c>
-      <c r="L527" s="5">
+      <c r="L527" s="7">
         <v>0</v>
       </c>
       <c r="M527" s="5">
@@ -21709,7 +21851,7 @@
       <c r="K528" s="8">
         <v>45741</v>
       </c>
-      <c r="L528" s="5">
+      <c r="L528" s="7">
         <v>0</v>
       </c>
       <c r="M528" s="5">
@@ -21744,7 +21886,7 @@
       <c r="K529" s="8">
         <v>45741</v>
       </c>
-      <c r="L529" s="5">
+      <c r="L529" s="7">
         <v>0</v>
       </c>
       <c r="M529" s="5">
@@ -21779,7 +21921,7 @@
       <c r="K530" s="8">
         <v>45741</v>
       </c>
-      <c r="L530" s="5">
+      <c r="L530" s="7">
         <v>0</v>
       </c>
       <c r="M530" s="5">
@@ -21814,7 +21956,7 @@
       <c r="K531" s="8">
         <v>45741</v>
       </c>
-      <c r="L531" s="5">
+      <c r="L531" s="7">
         <v>0</v>
       </c>
       <c r="M531" s="5">
@@ -21849,7 +21991,7 @@
       <c r="K532" s="8">
         <v>45741</v>
       </c>
-      <c r="L532" s="5">
+      <c r="L532" s="7">
         <v>0</v>
       </c>
       <c r="M532" s="5">
@@ -21884,7 +22026,7 @@
       <c r="K533" s="8">
         <v>45741</v>
       </c>
-      <c r="L533" s="5">
+      <c r="L533" s="7">
         <v>0</v>
       </c>
       <c r="M533" s="5">
@@ -21919,7 +22061,7 @@
       <c r="K534" s="8">
         <v>45741</v>
       </c>
-      <c r="L534" s="5">
+      <c r="L534" s="7">
         <v>0</v>
       </c>
       <c r="M534" s="5">
@@ -21954,7 +22096,7 @@
       <c r="K535" s="8">
         <v>45741</v>
       </c>
-      <c r="L535" s="5">
+      <c r="L535" s="7">
         <v>0</v>
       </c>
       <c r="M535" s="5">
@@ -21989,7 +22131,7 @@
       <c r="K536" s="8">
         <v>45741</v>
       </c>
-      <c r="L536" s="5">
+      <c r="L536" s="7">
         <v>0</v>
       </c>
       <c r="M536" s="5">
@@ -22024,7 +22166,7 @@
       <c r="K537" s="8">
         <v>45741</v>
       </c>
-      <c r="L537" s="5">
+      <c r="L537" s="7">
         <v>0</v>
       </c>
       <c r="M537" s="5">
@@ -22059,7 +22201,7 @@
       <c r="K538" s="8">
         <v>45741</v>
       </c>
-      <c r="L538" s="5">
+      <c r="L538" s="7">
         <v>0</v>
       </c>
       <c r="M538" s="5">
@@ -22094,7 +22236,7 @@
       <c r="K539" s="8">
         <v>45741</v>
       </c>
-      <c r="L539" s="5">
+      <c r="L539" s="7">
         <v>0</v>
       </c>
       <c r="M539" s="5">
@@ -22129,7 +22271,7 @@
       <c r="K540" s="8">
         <v>45741</v>
       </c>
-      <c r="L540" s="5">
+      <c r="L540" s="7">
         <v>0</v>
       </c>
       <c r="M540" s="5">
@@ -22164,7 +22306,7 @@
       <c r="K541" s="8">
         <v>45741</v>
       </c>
-      <c r="L541" s="5">
+      <c r="L541" s="7">
         <v>0</v>
       </c>
       <c r="M541" s="5">
@@ -22199,7 +22341,7 @@
       <c r="K542" s="8">
         <v>45741</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="7">
         <v>0</v>
       </c>
       <c r="M542" s="5">
@@ -22234,7 +22376,7 @@
       <c r="K543" s="8">
         <v>45741</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="7">
         <v>0</v>
       </c>
       <c r="M543" s="5">
@@ -22269,7 +22411,7 @@
       <c r="K544" s="8">
         <v>45741</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="7">
         <v>0</v>
       </c>
       <c r="M544" s="5">
@@ -22304,7 +22446,7 @@
       <c r="K545" s="8">
         <v>45741</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="7">
         <v>0</v>
       </c>
       <c r="M545" s="5">
@@ -22339,7 +22481,7 @@
       <c r="K546" s="8">
         <v>45741</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="7">
         <v>0</v>
       </c>
       <c r="M546" s="5">
@@ -22374,7 +22516,7 @@
       <c r="K547" s="8">
         <v>45741</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="7">
         <v>0</v>
       </c>
       <c r="M547" s="5">
@@ -22409,7 +22551,7 @@
       <c r="K548" s="8">
         <v>45741</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="7">
         <v>0</v>
       </c>
       <c r="M548" s="5">
@@ -22444,7 +22586,7 @@
       <c r="K549" s="8">
         <v>45741</v>
       </c>
-      <c r="L549" s="5">
+      <c r="L549" s="7">
         <v>0</v>
       </c>
       <c r="M549" s="5">
@@ -22479,7 +22621,7 @@
       <c r="K550" s="8">
         <v>45741</v>
       </c>
-      <c r="L550" s="5">
+      <c r="L550" s="7">
         <v>0</v>
       </c>
       <c r="M550" s="5">
@@ -22514,7 +22656,7 @@
       <c r="K551" s="8">
         <v>45741</v>
       </c>
-      <c r="L551" s="5">
+      <c r="L551" s="7">
         <v>0</v>
       </c>
       <c r="M551" s="5">
@@ -22549,7 +22691,7 @@
       <c r="K552" s="8">
         <v>45741</v>
       </c>
-      <c r="L552" s="5">
+      <c r="L552" s="7">
         <v>0</v>
       </c>
       <c r="M552" s="5">
@@ -22584,7 +22726,7 @@
       <c r="K553" s="8">
         <v>45741</v>
       </c>
-      <c r="L553" s="5">
+      <c r="L553" s="7">
         <v>0</v>
       </c>
       <c r="M553" s="5">
@@ -22619,7 +22761,7 @@
       <c r="K554" s="8">
         <v>45741</v>
       </c>
-      <c r="L554" s="5">
+      <c r="L554" s="7">
         <v>0</v>
       </c>
       <c r="M554" s="5">
@@ -22654,7 +22796,7 @@
       <c r="K555" s="8">
         <v>45741</v>
       </c>
-      <c r="L555" s="5">
+      <c r="L555" s="7">
         <v>0</v>
       </c>
       <c r="M555" s="5">
@@ -22689,7 +22831,7 @@
       <c r="K556" s="8">
         <v>45741</v>
       </c>
-      <c r="L556" s="5">
+      <c r="L556" s="7">
         <v>0</v>
       </c>
       <c r="M556" s="5">
@@ -22724,7 +22866,7 @@
       <c r="K557" s="8">
         <v>45741</v>
       </c>
-      <c r="L557" s="5">
+      <c r="L557" s="7">
         <v>0</v>
       </c>
       <c r="M557" s="5">
@@ -22759,7 +22901,7 @@
       <c r="K558" s="8">
         <v>45741</v>
       </c>
-      <c r="L558" s="5">
+      <c r="L558" s="7">
         <v>0</v>
       </c>
       <c r="M558" s="5">
@@ -22794,7 +22936,7 @@
       <c r="K559" s="8">
         <v>45741</v>
       </c>
-      <c r="L559" s="5">
+      <c r="L559" s="7">
         <v>0</v>
       </c>
       <c r="M559" s="5">
@@ -22829,7 +22971,7 @@
       <c r="K560" s="8">
         <v>45741</v>
       </c>
-      <c r="L560" s="5">
+      <c r="L560" s="7">
         <v>0</v>
       </c>
       <c r="M560" s="5">
@@ -22864,7 +23006,7 @@
       <c r="K561" s="8">
         <v>45741</v>
       </c>
-      <c r="L561" s="5">
+      <c r="L561" s="7">
         <v>0</v>
       </c>
       <c r="M561" s="5">
@@ -22899,7 +23041,7 @@
       <c r="K562" s="8">
         <v>45741</v>
       </c>
-      <c r="L562" s="5">
+      <c r="L562" s="7">
         <v>0</v>
       </c>
       <c r="M562" s="5">
@@ -22934,7 +23076,7 @@
       <c r="K563" s="8">
         <v>45741</v>
       </c>
-      <c r="L563" s="5">
+      <c r="L563" s="7">
         <v>0</v>
       </c>
       <c r="M563" s="5">
@@ -22969,7 +23111,7 @@
       <c r="K564" s="8">
         <v>45741</v>
       </c>
-      <c r="L564" s="5">
+      <c r="L564" s="7">
         <v>0</v>
       </c>
       <c r="M564" s="5">
@@ -23004,7 +23146,7 @@
       <c r="K565" s="8">
         <v>45741</v>
       </c>
-      <c r="L565" s="5">
+      <c r="L565" s="7">
         <v>0</v>
       </c>
       <c r="M565" s="5">
@@ -23039,7 +23181,7 @@
       <c r="K566" s="8">
         <v>45741</v>
       </c>
-      <c r="L566" s="5">
+      <c r="L566" s="7">
         <v>0</v>
       </c>
       <c r="M566" s="5">
@@ -23074,7 +23216,7 @@
       <c r="K567" s="8">
         <v>45741</v>
       </c>
-      <c r="L567" s="5">
+      <c r="L567" s="7">
         <v>0</v>
       </c>
       <c r="M567" s="5">
@@ -23109,7 +23251,7 @@
       <c r="K568" s="8">
         <v>45741</v>
       </c>
-      <c r="L568" s="5">
+      <c r="L568" s="7">
         <v>0</v>
       </c>
       <c r="M568" s="5">
@@ -23144,7 +23286,7 @@
       <c r="K569" s="8">
         <v>45741</v>
       </c>
-      <c r="L569" s="5">
+      <c r="L569" s="7">
         <v>0</v>
       </c>
       <c r="M569" s="5">
@@ -23179,7 +23321,7 @@
       <c r="K570" s="8">
         <v>45741</v>
       </c>
-      <c r="L570" s="5">
+      <c r="L570" s="7">
         <v>0</v>
       </c>
       <c r="M570" s="5">
@@ -23214,7 +23356,7 @@
       <c r="K571" s="8">
         <v>45741</v>
       </c>
-      <c r="L571" s="5">
+      <c r="L571" s="7">
         <v>0</v>
       </c>
       <c r="M571" s="5">
@@ -23249,7 +23391,7 @@
       <c r="K572" s="8">
         <v>45741</v>
       </c>
-      <c r="L572" s="5">
+      <c r="L572" s="7">
         <v>0</v>
       </c>
       <c r="M572" s="5">
@@ -23284,7 +23426,7 @@
       <c r="K573" s="8">
         <v>45741</v>
       </c>
-      <c r="L573" s="5">
+      <c r="L573" s="7">
         <v>0</v>
       </c>
       <c r="M573" s="5">
@@ -23319,7 +23461,7 @@
       <c r="K574" s="8">
         <v>45741</v>
       </c>
-      <c r="L574" s="5">
+      <c r="L574" s="7">
         <v>0</v>
       </c>
       <c r="M574" s="5">
@@ -23354,7 +23496,7 @@
       <c r="K575" s="8">
         <v>45741</v>
       </c>
-      <c r="L575" s="5">
+      <c r="L575" s="7">
         <v>0</v>
       </c>
       <c r="M575" s="5">
@@ -23389,7 +23531,7 @@
       <c r="K576" s="8">
         <v>45741</v>
       </c>
-      <c r="L576" s="5">
+      <c r="L576" s="7">
         <v>0</v>
       </c>
       <c r="M576" s="5">
@@ -23424,7 +23566,7 @@
       <c r="K577" s="8">
         <v>45741</v>
       </c>
-      <c r="L577" s="5">
+      <c r="L577" s="7">
         <v>0</v>
       </c>
       <c r="M577" s="5">
@@ -23459,7 +23601,7 @@
       <c r="K578" s="8">
         <v>45741</v>
       </c>
-      <c r="L578" s="5">
+      <c r="L578" s="7">
         <v>0</v>
       </c>
       <c r="M578" s="5">
@@ -23494,7 +23636,7 @@
       <c r="K579" s="8">
         <v>45741</v>
       </c>
-      <c r="L579" s="5">
+      <c r="L579" s="7">
         <v>0</v>
       </c>
       <c r="M579" s="5">
@@ -23529,7 +23671,7 @@
       <c r="K580" s="8">
         <v>45741</v>
       </c>
-      <c r="L580" s="5">
+      <c r="L580" s="7">
         <v>0</v>
       </c>
       <c r="M580" s="5">
@@ -23564,7 +23706,7 @@
       <c r="K581" s="8">
         <v>45741</v>
       </c>
-      <c r="L581" s="5">
+      <c r="L581" s="7">
         <v>0</v>
       </c>
       <c r="M581" s="5">
@@ -23599,7 +23741,7 @@
       <c r="K582" s="8">
         <v>45741</v>
       </c>
-      <c r="L582" s="5">
+      <c r="L582" s="7">
         <v>0</v>
       </c>
       <c r="M582" s="5">
@@ -23632,7 +23774,7 @@
       <c r="I583" s="5"/>
       <c r="J583" s="5"/>
       <c r="K583" s="5"/>
-      <c r="L583" s="5"/>
+      <c r="L583" s="7"/>
       <c r="M583" s="5"/>
     </row>
     <row r="584" spans="2:15" x14ac:dyDescent="0.3">
@@ -23658,7 +23800,7 @@
       <c r="I584" s="5"/>
       <c r="J584" s="5"/>
       <c r="K584" s="5"/>
-      <c r="L584" s="5"/>
+      <c r="L584" s="7"/>
       <c r="M584" s="5"/>
     </row>
     <row r="585" spans="2:15" x14ac:dyDescent="0.3">
@@ -23684,7 +23826,7 @@
       <c r="I585" s="5"/>
       <c r="J585" s="5"/>
       <c r="K585" s="5"/>
-      <c r="L585" s="5"/>
+      <c r="L585" s="7"/>
       <c r="M585" s="5"/>
     </row>
     <row r="586" spans="2:15" x14ac:dyDescent="0.3">
@@ -23710,7 +23852,7 @@
       <c r="I586" s="5"/>
       <c r="J586" s="5"/>
       <c r="K586" s="5"/>
-      <c r="L586" s="5"/>
+      <c r="L586" s="7"/>
       <c r="M586" s="5"/>
     </row>
     <row r="587" spans="2:15" x14ac:dyDescent="0.3">
@@ -23736,7 +23878,7 @@
       <c r="I587" s="5"/>
       <c r="J587" s="5"/>
       <c r="K587" s="5"/>
-      <c r="L587" s="5"/>
+      <c r="L587" s="7"/>
       <c r="M587" s="5"/>
     </row>
     <row r="588" spans="2:15" x14ac:dyDescent="0.3">
@@ -23762,7 +23904,7 @@
       <c r="I588" s="5"/>
       <c r="J588" s="5"/>
       <c r="K588" s="5"/>
-      <c r="L588" s="5"/>
+      <c r="L588" s="7"/>
       <c r="M588" s="5"/>
     </row>
     <row r="589" spans="2:15" x14ac:dyDescent="0.3">
@@ -23788,7 +23930,7 @@
       <c r="I589" s="5"/>
       <c r="J589" s="5"/>
       <c r="K589" s="5"/>
-      <c r="L589" s="5"/>
+      <c r="L589" s="7"/>
       <c r="M589" s="5"/>
     </row>
     <row r="590" spans="2:15" x14ac:dyDescent="0.3">
@@ -23814,7 +23956,7 @@
       <c r="I590" s="5"/>
       <c r="J590" s="5"/>
       <c r="K590" s="5"/>
-      <c r="L590" s="5"/>
+      <c r="L590" s="7"/>
       <c r="M590" s="5"/>
     </row>
     <row r="591" spans="2:15" x14ac:dyDescent="0.3">
@@ -23840,7 +23982,7 @@
       <c r="I591" s="5"/>
       <c r="J591" s="5"/>
       <c r="K591" s="5"/>
-      <c r="L591" s="5"/>
+      <c r="L591" s="7"/>
       <c r="M591" s="5"/>
     </row>
     <row r="592" spans="2:15" x14ac:dyDescent="0.3">
@@ -23866,7 +24008,7 @@
       <c r="I592" s="5"/>
       <c r="J592" s="5"/>
       <c r="K592" s="5"/>
-      <c r="L592" s="5"/>
+      <c r="L592" s="7"/>
       <c r="M592" s="5"/>
     </row>
     <row r="593" spans="2:13" x14ac:dyDescent="0.3">
@@ -23892,7 +24034,7 @@
       <c r="I593" s="5"/>
       <c r="J593" s="5"/>
       <c r="K593" s="5"/>
-      <c r="L593" s="5"/>
+      <c r="L593" s="7"/>
       <c r="M593" s="5"/>
     </row>
     <row r="594" spans="2:13" x14ac:dyDescent="0.3">
@@ -23918,7 +24060,7 @@
       <c r="I594" s="5"/>
       <c r="J594" s="5"/>
       <c r="K594" s="5"/>
-      <c r="L594" s="5"/>
+      <c r="L594" s="7"/>
       <c r="M594" s="5"/>
     </row>
     <row r="595" spans="2:13" x14ac:dyDescent="0.3">
@@ -23944,7 +24086,7 @@
       <c r="I595" s="5"/>
       <c r="J595" s="5"/>
       <c r="K595" s="5"/>
-      <c r="L595" s="5"/>
+      <c r="L595" s="7"/>
       <c r="M595" s="5"/>
     </row>
     <row r="596" spans="2:13" x14ac:dyDescent="0.3">
@@ -23970,7 +24112,7 @@
       <c r="I596" s="5"/>
       <c r="J596" s="5"/>
       <c r="K596" s="5"/>
-      <c r="L596" s="5"/>
+      <c r="L596" s="7"/>
       <c r="M596" s="5"/>
     </row>
     <row r="597" spans="2:13" x14ac:dyDescent="0.3">
@@ -23996,7 +24138,7 @@
       <c r="I597" s="5"/>
       <c r="J597" s="5"/>
       <c r="K597" s="5"/>
-      <c r="L597" s="5"/>
+      <c r="L597" s="7"/>
       <c r="M597" s="5"/>
     </row>
     <row r="598" spans="2:13" x14ac:dyDescent="0.3">
@@ -24022,7 +24164,7 @@
       <c r="I598" s="5"/>
       <c r="J598" s="5"/>
       <c r="K598" s="5"/>
-      <c r="L598" s="5"/>
+      <c r="L598" s="7"/>
       <c r="M598" s="5"/>
     </row>
     <row r="599" spans="2:13" x14ac:dyDescent="0.3">
@@ -24048,7 +24190,7 @@
       <c r="I599" s="5"/>
       <c r="J599" s="5"/>
       <c r="K599" s="5"/>
-      <c r="L599" s="5"/>
+      <c r="L599" s="7"/>
       <c r="M599" s="5"/>
     </row>
     <row r="600" spans="2:13" x14ac:dyDescent="0.3">
@@ -24074,7 +24216,7 @@
       <c r="I600" s="5"/>
       <c r="J600" s="5"/>
       <c r="K600" s="5"/>
-      <c r="L600" s="5"/>
+      <c r="L600" s="7"/>
       <c r="M600" s="5"/>
     </row>
     <row r="601" spans="2:13" x14ac:dyDescent="0.3">
@@ -24100,7 +24242,7 @@
       <c r="I601" s="5"/>
       <c r="J601" s="5"/>
       <c r="K601" s="5"/>
-      <c r="L601" s="5"/>
+      <c r="L601" s="7"/>
       <c r="M601" s="5"/>
     </row>
     <row r="602" spans="2:13" x14ac:dyDescent="0.3">
@@ -24126,7 +24268,7 @@
       <c r="I602" s="5"/>
       <c r="J602" s="5"/>
       <c r="K602" s="5"/>
-      <c r="L602" s="5"/>
+      <c r="L602" s="7"/>
       <c r="M602" s="5"/>
     </row>
     <row r="603" spans="2:13" x14ac:dyDescent="0.3">
@@ -24152,7 +24294,7 @@
       <c r="I603" s="5"/>
       <c r="J603" s="5"/>
       <c r="K603" s="5"/>
-      <c r="L603" s="5"/>
+      <c r="L603" s="7"/>
       <c r="M603" s="5"/>
     </row>
     <row r="604" spans="2:13" x14ac:dyDescent="0.3">
@@ -24178,7 +24320,7 @@
       <c r="I604" s="5"/>
       <c r="J604" s="5"/>
       <c r="K604" s="5"/>
-      <c r="L604" s="5"/>
+      <c r="L604" s="7"/>
       <c r="M604" s="5"/>
     </row>
     <row r="605" spans="2:13" x14ac:dyDescent="0.3">
@@ -24204,7 +24346,7 @@
       <c r="I605" s="5"/>
       <c r="J605" s="5"/>
       <c r="K605" s="5"/>
-      <c r="L605" s="5"/>
+      <c r="L605" s="7"/>
       <c r="M605" s="5"/>
     </row>
     <row r="606" spans="2:13" x14ac:dyDescent="0.3">
@@ -24230,7 +24372,7 @@
       <c r="I606" s="5"/>
       <c r="J606" s="5"/>
       <c r="K606" s="5"/>
-      <c r="L606" s="5"/>
+      <c r="L606" s="7"/>
       <c r="M606" s="5"/>
     </row>
     <row r="607" spans="2:13" x14ac:dyDescent="0.3">
@@ -24256,7 +24398,7 @@
       <c r="I607" s="5"/>
       <c r="J607" s="5"/>
       <c r="K607" s="5"/>
-      <c r="L607" s="5"/>
+      <c r="L607" s="7"/>
       <c r="M607" s="5"/>
     </row>
     <row r="608" spans="2:13" x14ac:dyDescent="0.3">
@@ -24282,7 +24424,7 @@
       <c r="I608" s="5"/>
       <c r="J608" s="5"/>
       <c r="K608" s="5"/>
-      <c r="L608" s="5"/>
+      <c r="L608" s="7"/>
       <c r="M608" s="5"/>
     </row>
     <row r="609" spans="2:13" x14ac:dyDescent="0.3">
@@ -24308,7 +24450,7 @@
       <c r="I609" s="5"/>
       <c r="J609" s="5"/>
       <c r="K609" s="5"/>
-      <c r="L609" s="5"/>
+      <c r="L609" s="7"/>
       <c r="M609" s="5"/>
     </row>
     <row r="610" spans="2:13" x14ac:dyDescent="0.3">
@@ -24334,7 +24476,7 @@
       <c r="I610" s="5"/>
       <c r="J610" s="5"/>
       <c r="K610" s="5"/>
-      <c r="L610" s="5"/>
+      <c r="L610" s="7"/>
       <c r="M610" s="5"/>
     </row>
     <row r="611" spans="2:13" x14ac:dyDescent="0.3">
@@ -24360,7 +24502,7 @@
       <c r="I611" s="5"/>
       <c r="J611" s="5"/>
       <c r="K611" s="5"/>
-      <c r="L611" s="5"/>
+      <c r="L611" s="7"/>
       <c r="M611" s="5"/>
     </row>
     <row r="612" spans="2:13" x14ac:dyDescent="0.3">
@@ -24384,7 +24526,7 @@
       <c r="I612" s="5"/>
       <c r="J612" s="5"/>
       <c r="K612" s="5"/>
-      <c r="L612" s="5"/>
+      <c r="L612" s="7"/>
       <c r="M612" s="5"/>
     </row>
     <row r="613" spans="2:13" x14ac:dyDescent="0.3">
@@ -24408,7 +24550,7 @@
       <c r="I613" s="5"/>
       <c r="J613" s="5"/>
       <c r="K613" s="5"/>
-      <c r="L613" s="5"/>
+      <c r="L613" s="7"/>
       <c r="M613" s="5"/>
     </row>
     <row r="614" spans="2:13" x14ac:dyDescent="0.3">
@@ -24432,7 +24574,7 @@
       <c r="I614" s="5"/>
       <c r="J614" s="5"/>
       <c r="K614" s="5"/>
-      <c r="L614" s="5"/>
+      <c r="L614" s="7"/>
       <c r="M614" s="5"/>
     </row>
     <row r="615" spans="2:13" x14ac:dyDescent="0.3">
@@ -24456,7 +24598,7 @@
       <c r="I615" s="5"/>
       <c r="J615" s="5"/>
       <c r="K615" s="5"/>
-      <c r="L615" s="5"/>
+      <c r="L615" s="7"/>
       <c r="M615" s="5"/>
     </row>
     <row r="616" spans="2:13" x14ac:dyDescent="0.3">
@@ -24480,7 +24622,7 @@
       <c r="I616" s="5"/>
       <c r="J616" s="5"/>
       <c r="K616" s="5"/>
-      <c r="L616" s="5"/>
+      <c r="L616" s="7"/>
       <c r="M616" s="5"/>
     </row>
     <row r="617" spans="2:13" x14ac:dyDescent="0.3">
@@ -24504,7 +24646,7 @@
       <c r="I617" s="5"/>
       <c r="J617" s="5"/>
       <c r="K617" s="5"/>
-      <c r="L617" s="5"/>
+      <c r="L617" s="7"/>
       <c r="M617" s="5"/>
     </row>
     <row r="618" spans="2:13" x14ac:dyDescent="0.3">
@@ -24528,7 +24670,7 @@
       <c r="I618" s="5"/>
       <c r="J618" s="5"/>
       <c r="K618" s="5"/>
-      <c r="L618" s="5"/>
+      <c r="L618" s="7"/>
       <c r="M618" s="5"/>
     </row>
     <row r="619" spans="2:13" x14ac:dyDescent="0.3">
@@ -24552,7 +24694,7 @@
       <c r="I619" s="5"/>
       <c r="J619" s="5"/>
       <c r="K619" s="5"/>
-      <c r="L619" s="5"/>
+      <c r="L619" s="7"/>
       <c r="M619" s="5"/>
     </row>
     <row r="620" spans="2:13" x14ac:dyDescent="0.3">
@@ -24576,7 +24718,7 @@
       <c r="I620" s="5"/>
       <c r="J620" s="5"/>
       <c r="K620" s="5"/>
-      <c r="L620" s="5"/>
+      <c r="L620" s="7"/>
       <c r="M620" s="5"/>
     </row>
     <row r="621" spans="2:13" x14ac:dyDescent="0.3">
@@ -24600,7 +24742,7 @@
       <c r="I621" s="5"/>
       <c r="J621" s="5"/>
       <c r="K621" s="5"/>
-      <c r="L621" s="5"/>
+      <c r="L621" s="7"/>
       <c r="M621" s="5"/>
     </row>
     <row r="622" spans="2:13" x14ac:dyDescent="0.3">
@@ -24624,7 +24766,7 @@
       <c r="I622" s="5"/>
       <c r="J622" s="5"/>
       <c r="K622" s="5"/>
-      <c r="L622" s="5"/>
+      <c r="L622" s="7"/>
       <c r="M622" s="5"/>
     </row>
     <row r="623" spans="2:13" x14ac:dyDescent="0.3">
@@ -24648,7 +24790,7 @@
       <c r="I623" s="5"/>
       <c r="J623" s="5"/>
       <c r="K623" s="5"/>
-      <c r="L623" s="5"/>
+      <c r="L623" s="7"/>
       <c r="M623" s="5"/>
     </row>
     <row r="624" spans="2:13" x14ac:dyDescent="0.3">
@@ -24672,12 +24814,12 @@
       <c r="I624" s="5"/>
       <c r="J624" s="5"/>
       <c r="K624" s="5"/>
-      <c r="L624" s="5"/>
+      <c r="L624" s="7"/>
       <c r="M624" s="5"/>
     </row>
-    <row r="625" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B625" s="11">
-        <v>45730</v>
+        <v>45729</v>
       </c>
       <c r="C625" s="7" t="s">
         <v>873</v>
@@ -24691,10 +24833,17 @@
       <c r="F625" s="17" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="626" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G625" s="5"/>
+      <c r="H625" s="5"/>
+      <c r="I625" s="5"/>
+      <c r="J625" s="5"/>
+      <c r="K625" s="5"/>
+      <c r="L625" s="7"/>
+      <c r="M625" s="5"/>
+    </row>
+    <row r="626" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B626" s="11">
-        <v>45731</v>
+        <v>45729</v>
       </c>
       <c r="C626" s="7" t="s">
         <v>873</v>
@@ -24708,10 +24857,17 @@
       <c r="F626" s="17" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="627" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G626" s="5"/>
+      <c r="H626" s="5"/>
+      <c r="I626" s="5"/>
+      <c r="J626" s="5"/>
+      <c r="K626" s="5"/>
+      <c r="L626" s="7"/>
+      <c r="M626" s="5"/>
+    </row>
+    <row r="627" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B627" s="11">
-        <v>45732</v>
+        <v>45729</v>
       </c>
       <c r="C627" s="7" t="s">
         <v>873</v>
@@ -24725,10 +24881,17 @@
       <c r="F627" s="17" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="628" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G627" s="5"/>
+      <c r="H627" s="5"/>
+      <c r="I627" s="5"/>
+      <c r="J627" s="5"/>
+      <c r="K627" s="5"/>
+      <c r="L627" s="7"/>
+      <c r="M627" s="5"/>
+    </row>
+    <row r="628" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B628" s="11">
-        <v>45733</v>
+        <v>45729</v>
       </c>
       <c r="C628" s="7" t="s">
         <v>873</v>
@@ -24737,15 +24900,22 @@
         <v>872</v>
       </c>
       <c r="E628" s="7">
-        <v>480000</v>
+        <v>48000</v>
       </c>
       <c r="F628" s="17" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="629" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G628" s="5"/>
+      <c r="H628" s="5"/>
+      <c r="I628" s="5"/>
+      <c r="J628" s="5"/>
+      <c r="K628" s="5"/>
+      <c r="L628" s="7"/>
+      <c r="M628" s="5"/>
+    </row>
+    <row r="629" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B629" s="11">
-        <v>45734</v>
+        <v>45729</v>
       </c>
       <c r="C629" s="7" t="s">
         <v>873</v>
@@ -24754,15 +24924,22 @@
         <v>872</v>
       </c>
       <c r="E629" s="7">
-        <v>480001</v>
+        <v>48001</v>
       </c>
       <c r="F629" s="17" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="630" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G629" s="5"/>
+      <c r="H629" s="5"/>
+      <c r="I629" s="5"/>
+      <c r="J629" s="5"/>
+      <c r="K629" s="5"/>
+      <c r="L629" s="7"/>
+      <c r="M629" s="5"/>
+    </row>
+    <row r="630" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B630" s="11">
-        <v>45735</v>
+        <v>45729</v>
       </c>
       <c r="C630" s="7" t="s">
         <v>873</v>
@@ -24771,15 +24948,22 @@
         <v>872</v>
       </c>
       <c r="E630" s="7">
-        <v>480002</v>
+        <v>48002</v>
       </c>
       <c r="F630" s="17" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="631" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G630" s="5"/>
+      <c r="H630" s="5"/>
+      <c r="I630" s="5"/>
+      <c r="J630" s="5"/>
+      <c r="K630" s="5"/>
+      <c r="L630" s="7"/>
+      <c r="M630" s="5"/>
+    </row>
+    <row r="631" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B631" s="11">
-        <v>45736</v>
+        <v>45729</v>
       </c>
       <c r="C631" s="7" t="s">
         <v>873</v>
@@ -24788,15 +24972,22 @@
         <v>872</v>
       </c>
       <c r="E631" s="7">
-        <v>480003</v>
+        <v>48003</v>
       </c>
       <c r="F631" s="17" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="632" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G631" s="5"/>
+      <c r="H631" s="5"/>
+      <c r="I631" s="5"/>
+      <c r="J631" s="5"/>
+      <c r="K631" s="5"/>
+      <c r="L631" s="7"/>
+      <c r="M631" s="5"/>
+    </row>
+    <row r="632" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B632" s="11">
-        <v>45737</v>
+        <v>45729</v>
       </c>
       <c r="C632" s="7" t="s">
         <v>873</v>
@@ -24805,15 +24996,22 @@
         <v>872</v>
       </c>
       <c r="E632" s="7">
-        <v>480004</v>
+        <v>48004</v>
       </c>
       <c r="F632" s="17" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="633" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G632" s="5"/>
+      <c r="H632" s="5"/>
+      <c r="I632" s="5"/>
+      <c r="J632" s="5"/>
+      <c r="K632" s="5"/>
+      <c r="L632" s="7"/>
+      <c r="M632" s="5"/>
+    </row>
+    <row r="633" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B633" s="11">
-        <v>45738</v>
+        <v>45729</v>
       </c>
       <c r="C633" s="7" t="s">
         <v>873</v>
@@ -24822,15 +25020,22 @@
         <v>872</v>
       </c>
       <c r="E633" s="7">
-        <v>480005</v>
+        <v>48005</v>
       </c>
       <c r="F633" s="17" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="634" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G633" s="5"/>
+      <c r="H633" s="5"/>
+      <c r="I633" s="5"/>
+      <c r="J633" s="5"/>
+      <c r="K633" s="5"/>
+      <c r="L633" s="7"/>
+      <c r="M633" s="5"/>
+    </row>
+    <row r="634" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B634" s="11">
-        <v>45739</v>
+        <v>45729</v>
       </c>
       <c r="C634" s="7" t="s">
         <v>873</v>
@@ -24839,15 +25044,22 @@
         <v>872</v>
       </c>
       <c r="E634" s="7">
-        <v>480006</v>
+        <v>48006</v>
       </c>
       <c r="F634" s="17" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="635" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G634" s="5"/>
+      <c r="H634" s="5"/>
+      <c r="I634" s="5"/>
+      <c r="J634" s="5"/>
+      <c r="K634" s="5"/>
+      <c r="L634" s="7"/>
+      <c r="M634" s="5"/>
+    </row>
+    <row r="635" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B635" s="11">
-        <v>45740</v>
+        <v>45729</v>
       </c>
       <c r="C635" s="7" t="s">
         <v>873</v>
@@ -24856,15 +25068,22 @@
         <v>872</v>
       </c>
       <c r="E635" s="7">
-        <v>480007</v>
+        <v>48007</v>
       </c>
       <c r="F635" s="17" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="636" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G635" s="5"/>
+      <c r="H635" s="5"/>
+      <c r="I635" s="5"/>
+      <c r="J635" s="5"/>
+      <c r="K635" s="5"/>
+      <c r="L635" s="7"/>
+      <c r="M635" s="5"/>
+    </row>
+    <row r="636" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B636" s="11">
-        <v>45741</v>
+        <v>45729</v>
       </c>
       <c r="C636" s="7" t="s">
         <v>873</v>
@@ -24873,15 +25092,22 @@
         <v>872</v>
       </c>
       <c r="E636" s="7">
-        <v>480008</v>
+        <v>48008</v>
       </c>
       <c r="F636" s="17" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="637" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G636" s="5"/>
+      <c r="H636" s="5"/>
+      <c r="I636" s="5"/>
+      <c r="J636" s="5"/>
+      <c r="K636" s="5"/>
+      <c r="L636" s="7"/>
+      <c r="M636" s="5"/>
+    </row>
+    <row r="637" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B637" s="11">
-        <v>45742</v>
+        <v>45729</v>
       </c>
       <c r="C637" s="7" t="s">
         <v>873</v>
@@ -24890,15 +25116,22 @@
         <v>872</v>
       </c>
       <c r="E637" s="7">
-        <v>480009</v>
+        <v>48009</v>
       </c>
       <c r="F637" s="17" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="638" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G637" s="5"/>
+      <c r="H637" s="5"/>
+      <c r="I637" s="5"/>
+      <c r="J637" s="5"/>
+      <c r="K637" s="5"/>
+      <c r="L637" s="7"/>
+      <c r="M637" s="5"/>
+    </row>
+    <row r="638" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B638" s="11">
-        <v>45743</v>
+        <v>45729</v>
       </c>
       <c r="C638" s="7" t="s">
         <v>873</v>
@@ -24907,15 +25140,22 @@
         <v>872</v>
       </c>
       <c r="E638" s="7">
-        <v>480010</v>
+        <v>48010</v>
       </c>
       <c r="F638" s="17" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="639" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G638" s="5"/>
+      <c r="H638" s="5"/>
+      <c r="I638" s="5"/>
+      <c r="J638" s="5"/>
+      <c r="K638" s="5"/>
+      <c r="L638" s="7"/>
+      <c r="M638" s="5"/>
+    </row>
+    <row r="639" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B639" s="11">
-        <v>45744</v>
+        <v>45729</v>
       </c>
       <c r="C639" s="7" t="s">
         <v>873</v>
@@ -24924,15 +25164,22 @@
         <v>872</v>
       </c>
       <c r="E639" s="7">
-        <v>480011</v>
+        <v>48011</v>
       </c>
       <c r="F639" s="17" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="640" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G639" s="5"/>
+      <c r="H639" s="5"/>
+      <c r="I639" s="5"/>
+      <c r="J639" s="5"/>
+      <c r="K639" s="5"/>
+      <c r="L639" s="7"/>
+      <c r="M639" s="5"/>
+    </row>
+    <row r="640" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B640" s="11">
-        <v>45745</v>
+        <v>45729</v>
       </c>
       <c r="C640" s="7" t="s">
         <v>873</v>
@@ -24941,15 +25188,22 @@
         <v>872</v>
       </c>
       <c r="E640" s="7">
-        <v>480012</v>
+        <v>48012</v>
       </c>
       <c r="F640" s="17" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="641" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G640" s="5"/>
+      <c r="H640" s="5"/>
+      <c r="I640" s="5"/>
+      <c r="J640" s="5"/>
+      <c r="K640" s="5"/>
+      <c r="L640" s="7"/>
+      <c r="M640" s="5"/>
+    </row>
+    <row r="641" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B641" s="11">
-        <v>45746</v>
+        <v>45729</v>
       </c>
       <c r="C641" s="7" t="s">
         <v>873</v>
@@ -24958,15 +25212,22 @@
         <v>872</v>
       </c>
       <c r="E641" s="7">
-        <v>480013</v>
+        <v>48013</v>
       </c>
       <c r="F641" s="17" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="642" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G641" s="5"/>
+      <c r="H641" s="5"/>
+      <c r="I641" s="5"/>
+      <c r="J641" s="5"/>
+      <c r="K641" s="5"/>
+      <c r="L641" s="7"/>
+      <c r="M641" s="5"/>
+    </row>
+    <row r="642" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B642" s="11">
-        <v>45747</v>
+        <v>45729</v>
       </c>
       <c r="C642" s="7" t="s">
         <v>873</v>
@@ -24975,15 +25236,22 @@
         <v>872</v>
       </c>
       <c r="E642" s="7">
-        <v>480014</v>
+        <v>48014</v>
       </c>
       <c r="F642" s="17" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="643" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G642" s="5"/>
+      <c r="H642" s="5"/>
+      <c r="I642" s="5"/>
+      <c r="J642" s="5"/>
+      <c r="K642" s="5"/>
+      <c r="L642" s="7"/>
+      <c r="M642" s="5"/>
+    </row>
+    <row r="643" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B643" s="11">
-        <v>45748</v>
+        <v>45729</v>
       </c>
       <c r="C643" s="7" t="s">
         <v>873</v>
@@ -24992,15 +25260,22 @@
         <v>872</v>
       </c>
       <c r="E643" s="7">
-        <v>480015</v>
+        <v>48015</v>
       </c>
       <c r="F643" s="17" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="644" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G643" s="5"/>
+      <c r="H643" s="5"/>
+      <c r="I643" s="5"/>
+      <c r="J643" s="5"/>
+      <c r="K643" s="5"/>
+      <c r="L643" s="7"/>
+      <c r="M643" s="5"/>
+    </row>
+    <row r="644" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B644" s="11">
-        <v>45749</v>
+        <v>45729</v>
       </c>
       <c r="C644" s="7" t="s">
         <v>873</v>
@@ -25009,15 +25284,22 @@
         <v>872</v>
       </c>
       <c r="E644" s="7">
-        <v>480016</v>
+        <v>48016</v>
       </c>
       <c r="F644" s="17" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="645" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G644" s="5"/>
+      <c r="H644" s="5"/>
+      <c r="I644" s="5"/>
+      <c r="J644" s="5"/>
+      <c r="K644" s="5"/>
+      <c r="L644" s="7"/>
+      <c r="M644" s="5"/>
+    </row>
+    <row r="645" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B645" s="11">
-        <v>45750</v>
+        <v>45729</v>
       </c>
       <c r="C645" s="7" t="s">
         <v>873</v>
@@ -25026,15 +25308,22 @@
         <v>872</v>
       </c>
       <c r="E645" s="7">
-        <v>480017</v>
+        <v>48017</v>
       </c>
       <c r="F645" s="17" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="646" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G645" s="5"/>
+      <c r="H645" s="5"/>
+      <c r="I645" s="5"/>
+      <c r="J645" s="5"/>
+      <c r="K645" s="5"/>
+      <c r="L645" s="7"/>
+      <c r="M645" s="5"/>
+    </row>
+    <row r="646" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B646" s="11">
-        <v>45751</v>
+        <v>45729</v>
       </c>
       <c r="C646" s="7" t="s">
         <v>873</v>
@@ -25043,15 +25332,22 @@
         <v>872</v>
       </c>
       <c r="E646" s="7">
-        <v>480018</v>
+        <v>48018</v>
       </c>
       <c r="F646" s="17" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="647" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G646" s="5"/>
+      <c r="H646" s="5"/>
+      <c r="I646" s="5"/>
+      <c r="J646" s="5"/>
+      <c r="K646" s="5"/>
+      <c r="L646" s="7"/>
+      <c r="M646" s="5"/>
+    </row>
+    <row r="647" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B647" s="11">
-        <v>45752</v>
+        <v>45729</v>
       </c>
       <c r="C647" s="7" t="s">
         <v>873</v>
@@ -25060,15 +25356,22 @@
         <v>872</v>
       </c>
       <c r="E647" s="7">
-        <v>480019</v>
+        <v>48019</v>
       </c>
       <c r="F647" s="17" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G647" s="5"/>
+      <c r="H647" s="5"/>
+      <c r="I647" s="5"/>
+      <c r="J647" s="5"/>
+      <c r="K647" s="5"/>
+      <c r="L647" s="7"/>
+      <c r="M647" s="5"/>
+    </row>
+    <row r="648" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B648" s="11">
-        <v>45753</v>
+        <v>45729</v>
       </c>
       <c r="C648" s="7" t="s">
         <v>873</v>
@@ -25077,15 +25380,22 @@
         <v>872</v>
       </c>
       <c r="E648" s="7">
-        <v>480020</v>
+        <v>48020</v>
       </c>
       <c r="F648" s="17" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G648" s="5"/>
+      <c r="H648" s="5"/>
+      <c r="I648" s="5"/>
+      <c r="J648" s="5"/>
+      <c r="K648" s="5"/>
+      <c r="L648" s="7"/>
+      <c r="M648" s="5"/>
+    </row>
+    <row r="649" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B649" s="11">
-        <v>45754</v>
+        <v>45729</v>
       </c>
       <c r="C649" s="7" t="s">
         <v>873</v>
@@ -25094,15 +25404,22 @@
         <v>872</v>
       </c>
       <c r="E649" s="7">
-        <v>480021</v>
+        <v>48021</v>
       </c>
       <c r="F649" s="17" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G649" s="5"/>
+      <c r="H649" s="5"/>
+      <c r="I649" s="5"/>
+      <c r="J649" s="5"/>
+      <c r="K649" s="5"/>
+      <c r="L649" s="7"/>
+      <c r="M649" s="5"/>
+    </row>
+    <row r="650" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B650" s="11">
-        <v>45755</v>
+        <v>45729</v>
       </c>
       <c r="C650" s="7" t="s">
         <v>873</v>
@@ -25111,15 +25428,22 @@
         <v>872</v>
       </c>
       <c r="E650" s="7">
-        <v>480022</v>
+        <v>48022</v>
       </c>
       <c r="F650" s="17" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G650" s="5"/>
+      <c r="H650" s="5"/>
+      <c r="I650" s="5"/>
+      <c r="J650" s="5"/>
+      <c r="K650" s="5"/>
+      <c r="L650" s="7"/>
+      <c r="M650" s="5"/>
+    </row>
+    <row r="651" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B651" s="11">
-        <v>45756</v>
+        <v>45729</v>
       </c>
       <c r="C651" s="7" t="s">
         <v>873</v>
@@ -25128,15 +25452,22 @@
         <v>872</v>
       </c>
       <c r="E651" s="7">
-        <v>480023</v>
+        <v>48023</v>
       </c>
       <c r="F651" s="17" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G651" s="5"/>
+      <c r="H651" s="5"/>
+      <c r="I651" s="5"/>
+      <c r="J651" s="5"/>
+      <c r="K651" s="5"/>
+      <c r="L651" s="7"/>
+      <c r="M651" s="5"/>
+    </row>
+    <row r="652" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B652" s="11">
-        <v>45757</v>
+        <v>45729</v>
       </c>
       <c r="C652" s="7" t="s">
         <v>873</v>
@@ -25145,15 +25476,22 @@
         <v>872</v>
       </c>
       <c r="E652" s="7">
-        <v>480024</v>
+        <v>48024</v>
       </c>
       <c r="F652" s="17" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G652" s="5"/>
+      <c r="H652" s="5"/>
+      <c r="I652" s="5"/>
+      <c r="J652" s="5"/>
+      <c r="K652" s="5"/>
+      <c r="L652" s="7"/>
+      <c r="M652" s="5"/>
+    </row>
+    <row r="653" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B653" s="11">
-        <v>45758</v>
+        <v>45729</v>
       </c>
       <c r="C653" s="7" t="s">
         <v>873</v>
@@ -25162,15 +25500,22 @@
         <v>872</v>
       </c>
       <c r="E653" s="7">
-        <v>480025</v>
+        <v>48025</v>
       </c>
       <c r="F653" s="17" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G653" s="5"/>
+      <c r="H653" s="5"/>
+      <c r="I653" s="5"/>
+      <c r="J653" s="5"/>
+      <c r="K653" s="5"/>
+      <c r="L653" s="7"/>
+      <c r="M653" s="5"/>
+    </row>
+    <row r="654" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B654" s="11">
-        <v>45759</v>
+        <v>45729</v>
       </c>
       <c r="C654" s="7" t="s">
         <v>873</v>
@@ -25179,15 +25524,22 @@
         <v>872</v>
       </c>
       <c r="E654" s="7">
-        <v>480026</v>
+        <v>48026</v>
       </c>
       <c r="F654" s="17" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G654" s="5"/>
+      <c r="H654" s="5"/>
+      <c r="I654" s="5"/>
+      <c r="J654" s="5"/>
+      <c r="K654" s="5"/>
+      <c r="L654" s="7"/>
+      <c r="M654" s="5"/>
+    </row>
+    <row r="655" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B655" s="11">
-        <v>45760</v>
+        <v>45729</v>
       </c>
       <c r="C655" s="7" t="s">
         <v>873</v>
@@ -25196,15 +25548,22 @@
         <v>872</v>
       </c>
       <c r="E655" s="7">
-        <v>480027</v>
+        <v>48027</v>
       </c>
       <c r="F655" s="17" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G655" s="5"/>
+      <c r="H655" s="5"/>
+      <c r="I655" s="5"/>
+      <c r="J655" s="5"/>
+      <c r="K655" s="5"/>
+      <c r="L655" s="7"/>
+      <c r="M655" s="5"/>
+    </row>
+    <row r="656" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B656" s="11">
-        <v>45761</v>
+        <v>45729</v>
       </c>
       <c r="C656" s="7" t="s">
         <v>873</v>
@@ -25213,15 +25572,22 @@
         <v>872</v>
       </c>
       <c r="E656" s="7">
-        <v>480028</v>
+        <v>48028</v>
       </c>
       <c r="F656" s="17" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G656" s="5"/>
+      <c r="H656" s="5"/>
+      <c r="I656" s="5"/>
+      <c r="J656" s="5"/>
+      <c r="K656" s="5"/>
+      <c r="L656" s="7"/>
+      <c r="M656" s="5"/>
+    </row>
+    <row r="657" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B657" s="11">
-        <v>45762</v>
+        <v>45729</v>
       </c>
       <c r="C657" s="7" t="s">
         <v>873</v>
@@ -25230,15 +25596,22 @@
         <v>872</v>
       </c>
       <c r="E657" s="7">
-        <v>480029</v>
+        <v>48029</v>
       </c>
       <c r="F657" s="17" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="658" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G657" s="5"/>
+      <c r="H657" s="5"/>
+      <c r="I657" s="5"/>
+      <c r="J657" s="5"/>
+      <c r="K657" s="5"/>
+      <c r="L657" s="7"/>
+      <c r="M657" s="5"/>
+    </row>
+    <row r="658" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B658" s="11">
-        <v>45763</v>
+        <v>45729</v>
       </c>
       <c r="C658" s="7" t="s">
         <v>873</v>
@@ -25247,15 +25620,22 @@
         <v>872</v>
       </c>
       <c r="E658" s="7">
-        <v>480030</v>
+        <v>48030</v>
       </c>
       <c r="F658" s="17" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="659" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G658" s="5"/>
+      <c r="H658" s="5"/>
+      <c r="I658" s="5"/>
+      <c r="J658" s="5"/>
+      <c r="K658" s="5"/>
+      <c r="L658" s="7"/>
+      <c r="M658" s="5"/>
+    </row>
+    <row r="659" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B659" s="11">
-        <v>45764</v>
+        <v>45729</v>
       </c>
       <c r="C659" s="7" t="s">
         <v>873</v>
@@ -25264,11 +25644,410 @@
         <v>872</v>
       </c>
       <c r="E659" s="7">
-        <v>480031</v>
+        <v>48031</v>
       </c>
       <c r="F659" s="17" t="s">
         <v>871</v>
       </c>
+      <c r="G659" s="5"/>
+      <c r="H659" s="5"/>
+      <c r="I659" s="5"/>
+      <c r="J659" s="5"/>
+      <c r="K659" s="5"/>
+      <c r="L659" s="7"/>
+      <c r="M659" s="5"/>
+    </row>
+    <row r="660" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B660" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C660" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E660" s="7">
+        <v>222</v>
+      </c>
+      <c r="F660" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="G660" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H660" s="5"/>
+      <c r="I660" s="5"/>
+      <c r="J660" s="5"/>
+      <c r="K660" s="5"/>
+      <c r="L660" s="7">
+        <v>0</v>
+      </c>
+      <c r="M660" s="5"/>
+    </row>
+    <row r="661" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B661" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D661" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E661" s="7">
+        <v>223</v>
+      </c>
+      <c r="F661" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="G661" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="H661" s="5"/>
+      <c r="I661" s="5"/>
+      <c r="J661" s="5"/>
+      <c r="K661" s="5"/>
+      <c r="L661" s="7">
+        <v>0</v>
+      </c>
+      <c r="M661" s="5"/>
+    </row>
+    <row r="662" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B662" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C662" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D662" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E662" s="7">
+        <v>224</v>
+      </c>
+      <c r="F662" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="G662" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="H662" s="5"/>
+      <c r="I662" s="5"/>
+      <c r="J662" s="5"/>
+      <c r="K662" s="5"/>
+      <c r="L662" s="7">
+        <v>0</v>
+      </c>
+      <c r="M662" s="5"/>
+    </row>
+    <row r="663" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B663" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C663" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D663" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E663" s="7">
+        <v>225</v>
+      </c>
+      <c r="F663" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="G663" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="H663" s="5"/>
+      <c r="I663" s="5"/>
+      <c r="J663" s="5"/>
+      <c r="K663" s="5"/>
+      <c r="L663" s="7">
+        <v>0</v>
+      </c>
+      <c r="M663" s="5"/>
+    </row>
+    <row r="664" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B664" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C664" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D664" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E664" s="7">
+        <v>226</v>
+      </c>
+      <c r="F664" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="G664" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="H664" s="5"/>
+      <c r="I664" s="5"/>
+      <c r="J664" s="5"/>
+      <c r="K664" s="5"/>
+      <c r="L664" s="7">
+        <v>0</v>
+      </c>
+      <c r="M664" s="5"/>
+    </row>
+    <row r="665" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B665" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C665" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D665" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E665" s="7">
+        <v>227</v>
+      </c>
+      <c r="F665" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G665" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="H665" s="5"/>
+      <c r="I665" s="5"/>
+      <c r="J665" s="5"/>
+      <c r="K665" s="5"/>
+      <c r="L665" s="7">
+        <v>0</v>
+      </c>
+      <c r="M665" s="5"/>
+    </row>
+    <row r="666" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B666" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C666" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D666" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E666" s="7">
+        <v>228</v>
+      </c>
+      <c r="F666" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="G666" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="H666" s="5"/>
+      <c r="I666" s="5"/>
+      <c r="J666" s="5"/>
+      <c r="K666" s="5"/>
+      <c r="L666" s="7">
+        <v>0</v>
+      </c>
+      <c r="M666" s="5"/>
+    </row>
+    <row r="667" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B667" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C667" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D667" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E667" s="7">
+        <v>229</v>
+      </c>
+      <c r="F667" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="G667" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="H667" s="5"/>
+      <c r="I667" s="5"/>
+      <c r="J667" s="5"/>
+      <c r="K667" s="5"/>
+      <c r="L667" s="7">
+        <v>0</v>
+      </c>
+      <c r="M667" s="5"/>
+    </row>
+    <row r="668" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B668" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C668" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E668" s="7">
+        <v>230</v>
+      </c>
+      <c r="F668" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="G668" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H668" s="5"/>
+      <c r="I668" s="5"/>
+      <c r="J668" s="5"/>
+      <c r="K668" s="5"/>
+      <c r="L668" s="7">
+        <v>0</v>
+      </c>
+      <c r="M668" s="5"/>
+    </row>
+    <row r="669" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B669" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C669" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D669" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E669" s="7">
+        <v>231</v>
+      </c>
+      <c r="F669" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="G669" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H669" s="5"/>
+      <c r="I669" s="5"/>
+      <c r="J669" s="5"/>
+      <c r="K669" s="5"/>
+      <c r="L669" s="7">
+        <v>0</v>
+      </c>
+      <c r="M669" s="5"/>
+    </row>
+    <row r="670" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B670" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C670" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D670" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E670" s="7">
+        <v>232</v>
+      </c>
+      <c r="F670" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="G670" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="H670" s="5"/>
+      <c r="I670" s="5"/>
+      <c r="J670" s="5"/>
+      <c r="K670" s="5"/>
+      <c r="L670" s="7">
+        <v>0</v>
+      </c>
+      <c r="M670" s="5"/>
+    </row>
+    <row r="671" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B671" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C671" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D671" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E671" s="7">
+        <v>233</v>
+      </c>
+      <c r="F671" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="G671" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="H671" s="5"/>
+      <c r="I671" s="5"/>
+      <c r="J671" s="5"/>
+      <c r="K671" s="5"/>
+      <c r="L671" s="7">
+        <v>0</v>
+      </c>
+      <c r="M671" s="5"/>
+    </row>
+    <row r="672" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B672" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C672" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D672" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E672" s="7">
+        <v>234</v>
+      </c>
+      <c r="F672" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="G672" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="H672" s="5"/>
+      <c r="I672" s="5"/>
+      <c r="J672" s="5"/>
+      <c r="K672" s="5"/>
+      <c r="L672" s="7">
+        <v>0</v>
+      </c>
+      <c r="M672" s="5"/>
+    </row>
+    <row r="673" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B673" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D673" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E673" s="7">
+        <v>5001</v>
+      </c>
+      <c r="F673" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="G673" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="H673" s="5"/>
+      <c r="I673" s="5"/>
+      <c r="J673" s="5"/>
+      <c r="K673" s="5"/>
+      <c r="L673" s="7">
+        <v>0</v>
+      </c>
+      <c r="M673" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/번역요청문서.xlsx
+++ b/Data/번역요청문서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-61\Desktop\머지 비교\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-147\Desktop\기획 업무 폴더\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB24627-EC4C-4515-A987-4DD890464B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32376006-7BB3-43B8-9CD7-DDCDB02E5306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
+    <workbookView xWindow="6525" yWindow="795" windowWidth="21150" windowHeight="14970" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
   </bookViews>
   <sheets>
     <sheet name="번역요청" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="907">
   <si>
     <t>수정 날짜</t>
   </si>
@@ -2814,6 +2814,18 @@
   </si>
   <si>
     <t>레벨 성장 패키지 2입니다</t>
+  </si>
+  <si>
+    <t>신규 지역 오픈 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만우절 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2950,7 +2962,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3014,58 +3026,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 15" xfId="1" xr:uid="{1CF3E7B2-D50C-4D24-9578-278AA691E9E2}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3395,11 +3364,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5DFF8C-22E4-46D3-AC83-8F4E4E954A6C}">
-  <dimension ref="B1:S673"/>
+  <dimension ref="B1:S675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G669" sqref="G669"/>
+      <selection pane="bottomLeft" activeCell="F660" sqref="F660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26049,6 +26018,40 @@
       </c>
       <c r="M673" s="5"/>
     </row>
+    <row r="674" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B674" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C674" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D674" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="E674" s="7">
+        <v>110004</v>
+      </c>
+      <c r="F674" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="675" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B675" s="11">
+        <v>45729</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D675" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="E675" s="7">
+        <v>110005</v>
+      </c>
+      <c r="F675" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/번역요청문서.xlsx
+++ b/Data/번역요청문서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-90\Desktop\깃깃\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANDY-61\Desktop\머지 비교\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39553619-36FE-4356-9D3F-AEB56BF7E6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0159152-4E0D-4A6D-8A35-AD24EEBF619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7F5896F4-681B-4C70-93B9-646F720378E2}"/>
   </bookViews>
   <sheets>
     <sheet name="번역요청1차" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10384" uniqueCount="4817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10434" uniqueCount="4840">
   <si>
     <t>수정 날짜</t>
   </si>
@@ -15287,6 +15287,79 @@
   </si>
   <si>
     <t>彷佛神圣的鹿形神兽。披着让人联想到月亮神的斗篷。</t>
+  </si>
+  <si>
+    <t>MagicList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재단 마법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼼꼼하게 재단하는 마법이에요</t>
+  </si>
+  <si>
+    <t>AbilityType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재단 시간 {0}% 감소</t>
+  </si>
+  <si>
+    <t>재단 시간 감소</t>
+  </si>
+  <si>
+    <t>포근따스한 재단소 제작 슬롯 {0}칸 증가</t>
+  </si>
+  <si>
+    <t>포근따스한 재단소 슬롯 증가</t>
+  </si>
+  <si>
+    <t>name과 description 수정</t>
+  </si>
+  <si>
+    <t>세공 마법</t>
+  </si>
+  <si>
+    <t>섬세하게 세공하는 마법이에요.</t>
+  </si>
+  <si>
+    <t>CollectionList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리 장미</t>
+  </si>
+  <si>
+    <t>모나리자</t>
+  </si>
+  <si>
+    <t>그라나사도 달걀</t>
+  </si>
+  <si>
+    <t>생명의 모래시계</t>
+  </si>
+  <si>
+    <t>황금 가시 눈</t>
+  </si>
+  <si>
+    <t>물의 신 조각상</t>
+  </si>
+  <si>
+    <t>균형을 이루는 생명의 저울</t>
+  </si>
+  <si>
+    <t>친구의 HP {0}% 이상으로 클리어하기</t>
+  </si>
+  <si>
+    <t>친구가 사망하지 않고 클리어하기</t>
+  </si>
+  <si>
+    <t>함정에 {0}회 이하로 피격 당하고 클리어하기</t>
+  </si>
+  <si>
+    <t>DungeonMissionList</t>
   </si>
 </sst>
 </file>
@@ -15565,12 +15638,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -15715,10 +15789,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 10" xfId="2" xr:uid="{5162D75D-84FF-472A-B7F1-153B45D505A7}"/>
     <cellStyle name="표준 15" xfId="1" xr:uid="{1CF3E7B2-D50C-4D24-9578-278AA691E9E2}"/>
+    <cellStyle name="표준 4 2" xfId="3" xr:uid="{35C52CE1-0EC3-41D3-8C3B-C7CD3EAB31E1}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -16067,11 +16142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5DFF8C-22E4-46D3-AC83-8F4E4E954A6C}">
   <dimension ref="B1:AD754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G733" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G660" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E744" sqref="E744"/>
+      <selection pane="bottomRight" activeCell="A665" sqref="A665:XFD665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -68614,13 +68689,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2142BF-D31A-4E82-8A3F-A392D568D448}">
-  <dimension ref="B1:AD4"/>
+  <dimension ref="B1:AD18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -68809,6 +68884,612 @@
       <c r="AC4" s="12"/>
       <c r="AD4" s="31"/>
     </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E5" s="6">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>4826</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4827</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>4825</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E6" s="6">
+        <v>33</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>4818</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4819</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>4825</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4820</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>4821</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4822</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>4825</v>
+      </c>
+      <c r="O7" s="21">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4820</v>
+      </c>
+      <c r="E8" s="6">
+        <v>51</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>4823</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4824</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>4825</v>
+      </c>
+      <c r="O8" s="21">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3059</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>4829</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3060</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>4830</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3061</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>4831</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="O11" s="21">
+        <v>0</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3062</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>4832</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="O12" s="21">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3063</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>4833</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="O13" s="21">
+        <v>0</v>
+      </c>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3064</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>4834</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="O14" s="21">
+        <v>0</v>
+      </c>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3065</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>4835</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="O15" s="21">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4839</v>
+      </c>
+      <c r="E16" s="6">
+        <v>13</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>4836</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4839</v>
+      </c>
+      <c r="E17" s="6">
+        <v>14</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>4837</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
+        <v>45730</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4839</v>
+      </c>
+      <c r="E18" s="6">
+        <v>15</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>4838</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="7">
+        <v>45741</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
   </sheetData>
   <autoFilter ref="B3:AD4" xr:uid="{0E5DFF8C-22E4-46D3-AC83-8F4E4E954A6C}"/>
   <phoneticPr fontId="2" type="noConversion"/>
